--- a/generators/dark_patterns_data.xlsx
+++ b/generators/dark_patterns_data.xlsx
@@ -2915,10 +2915,8 @@
           <t>17:54:01.780000</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K44" t="n">
+        <v>1</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -2977,10 +2975,8 @@
           <t>19:49:01.486000</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K45" t="n">
+        <v>1</v>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
@@ -3039,10 +3035,8 @@
           <t>16:11:17.763000</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K46" t="n">
+        <v>1</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
@@ -3101,10 +3095,8 @@
           <t>18:20:47.488000</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K47" t="n">
+        <v>1</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
@@ -3163,10 +3155,8 @@
           <t>18:49:17.280000</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K48" t="n">
+        <v>1</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -3225,10 +3215,8 @@
           <t>16:26:23.328000</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K49" t="n">
+        <v>1</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -3287,10 +3275,8 @@
           <t>21:41:03.560000</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K50" t="n">
+        <v>1</v>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -3349,10 +3335,8 @@
           <t>18:06:20.909000</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K51" t="n">
+        <v>1</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
@@ -3411,10 +3395,8 @@
           <t>18:30:39.085000</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K52" t="n">
+        <v>1</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -3473,10 +3455,8 @@
           <t>13:31:21.421000</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K53" t="n">
+        <v>1</v>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -3531,10 +3511,8 @@
         <v>4</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K54" t="n">
+        <v>0</v>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3589,10 +3567,8 @@
         <v>12</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K55" t="n">
+        <v>0</v>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -5339,10 +5315,8 @@
           <t>19:04:25.610000</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K88" t="n">
+        <v>1</v>
       </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
@@ -5401,10 +5375,8 @@
           <t>19:07:13.023000</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K89" t="n">
+        <v>1</v>
       </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
@@ -5463,10 +5435,8 @@
           <t>19:10:39.252000</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K90" t="n">
+        <v>1</v>
       </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
@@ -5525,10 +5495,8 @@
           <t>19:14:44.941000</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K91" t="n">
+        <v>1</v>
       </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
@@ -5587,10 +5555,8 @@
           <t>19:19:06.669000</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K92" t="n">
+        <v>0</v>
       </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
@@ -5649,10 +5615,8 @@
           <t>19:07:15.304000</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K93" t="n">
+        <v>1</v>
       </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
@@ -7277,10 +7241,8 @@
           <t>09:24:15.225000</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K123" t="n">
+        <v>0</v>
       </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
@@ -7339,10 +7301,8 @@
           <t>09:29:40.269000</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K124" t="n">
+        <v>1</v>
       </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
@@ -7401,10 +7361,8 @@
           <t>15:46:54.801000</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K125" t="n">
+        <v>1</v>
       </c>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
@@ -7463,10 +7421,8 @@
           <t>15:55:42.314000</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K126" t="n">
+        <v>1</v>
       </c>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
@@ -7525,10 +7481,8 @@
           <t>12:17:13.298000</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K127" t="n">
+        <v>0</v>
       </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
@@ -7587,10 +7541,8 @@
           <t>12:19:37.782000</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K128" t="n">
+        <v>1</v>
       </c>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
@@ -7649,10 +7601,8 @@
           <t>12:20:37.005000</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K129" t="n">
+        <v>1</v>
       </c>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
@@ -7711,10 +7661,8 @@
           <t>12:04:59.340000</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K130" t="n">
+        <v>1</v>
       </c>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
@@ -7773,10 +7721,8 @@
           <t>10:53:17.216000</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K131" t="n">
+        <v>1</v>
       </c>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
@@ -7835,10 +7781,8 @@
           <t>15:19:59.309000</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K132" t="n">
+        <v>1</v>
       </c>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
@@ -7897,10 +7841,8 @@
           <t>15:25:55.694000</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K133" t="n">
+        <v>1</v>
       </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
@@ -7959,10 +7901,8 @@
           <t>22:26:03.457000</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K134" t="n">
+        <v>1</v>
       </c>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
@@ -8021,10 +7961,8 @@
           <t>22:27:47.826000</t>
         </is>
       </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K135" t="n">
+        <v>1</v>
       </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
@@ -8083,10 +8021,8 @@
           <t>22:29:09.802000</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K136" t="n">
+        <v>1</v>
       </c>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
@@ -8145,10 +8081,8 @@
           <t>22:30:46.086000</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K137" t="n">
+        <v>1</v>
       </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
@@ -9045,10 +8979,8 @@
           <t>21:52:59.654000</t>
         </is>
       </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K153" t="n">
+        <v>1</v>
       </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
@@ -9107,10 +9039,8 @@
           <t>21:53:23.288000</t>
         </is>
       </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K154" t="n">
+        <v>1</v>
       </c>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
@@ -9169,10 +9099,8 @@
           <t>21:54:18.345000</t>
         </is>
       </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K155" t="n">
+        <v>1</v>
       </c>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
@@ -9231,10 +9159,8 @@
           <t>21:54:51.804000</t>
         </is>
       </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K156" t="n">
+        <v>1</v>
       </c>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
@@ -9293,10 +9219,8 @@
           <t>21:56:21.366000</t>
         </is>
       </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K157" t="n">
+        <v>1</v>
       </c>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
@@ -9355,10 +9279,8 @@
           <t>21:57:25.564000</t>
         </is>
       </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K158" t="n">
+        <v>1</v>
       </c>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
@@ -9417,10 +9339,8 @@
           <t>21:59:03.173000</t>
         </is>
       </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K159" t="n">
+        <v>1</v>
       </c>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
@@ -9479,10 +9399,8 @@
           <t>21:59:59.520000</t>
         </is>
       </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K160" t="n">
+        <v>1</v>
       </c>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
@@ -9541,10 +9459,8 @@
           <t>22:01:28.358000</t>
         </is>
       </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K161" t="n">
+        <v>1</v>
       </c>
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
@@ -9603,10 +9519,8 @@
           <t>22:02:19.043000</t>
         </is>
       </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K162" t="n">
+        <v>1</v>
       </c>
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr"/>
@@ -9665,10 +9579,8 @@
           <t>22:15:11.077000</t>
         </is>
       </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K163" t="n">
+        <v>1</v>
       </c>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
@@ -9727,10 +9639,8 @@
           <t>22:19:13.005000</t>
         </is>
       </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K164" t="n">
+        <v>1</v>
       </c>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
@@ -9789,10 +9699,8 @@
           <t>22:20:04.107000</t>
         </is>
       </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K165" t="n">
+        <v>1</v>
       </c>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
@@ -9851,10 +9759,8 @@
           <t>22:20:43.103000</t>
         </is>
       </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K166" t="n">
+        <v>1</v>
       </c>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
@@ -9913,10 +9819,8 @@
           <t>22:22:04.392000</t>
         </is>
       </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K167" t="n">
+        <v>1</v>
       </c>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
@@ -9975,10 +9879,8 @@
           <t>22:23:49.076000</t>
         </is>
       </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K168" t="n">
+        <v>1</v>
       </c>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
@@ -10037,10 +9939,8 @@
           <t>22:24:49.290000</t>
         </is>
       </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K169" t="n">
+        <v>1</v>
       </c>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
@@ -10099,10 +9999,8 @@
           <t>21:58:07.654000</t>
         </is>
       </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K170" t="n">
+        <v>1</v>
       </c>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
@@ -10161,10 +10059,8 @@
           <t>21:58:51.271000</t>
         </is>
       </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K171" t="n">
+        <v>1</v>
       </c>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
@@ -10223,10 +10119,8 @@
           <t>22:03:10.563000</t>
         </is>
       </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K172" t="n">
+        <v>1</v>
       </c>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
@@ -10285,10 +10179,8 @@
           <t>22:04:51.896000</t>
         </is>
       </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K173" t="n">
+        <v>1</v>
       </c>
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
@@ -10347,10 +10239,8 @@
           <t>22:05:21.301000</t>
         </is>
       </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K174" t="n">
+        <v>1</v>
       </c>
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
@@ -10409,10 +10299,8 @@
           <t>22:06:32.180000</t>
         </is>
       </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K175" t="n">
+        <v>1</v>
       </c>
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
@@ -10471,10 +10359,8 @@
           <t>22:09:01.740000</t>
         </is>
       </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K176" t="n">
+        <v>1</v>
       </c>
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
@@ -10533,10 +10419,8 @@
           <t>22:10:14.492000</t>
         </is>
       </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K177" t="n">
+        <v>1</v>
       </c>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
@@ -10595,10 +10479,8 @@
           <t>22:12:37.636000</t>
         </is>
       </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K178" t="n">
+        <v>1</v>
       </c>
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr"/>
@@ -10657,10 +10539,8 @@
           <t>22:14:05.980000</t>
         </is>
       </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K179" t="n">
+        <v>1</v>
       </c>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
@@ -10715,10 +10595,8 @@
         <v>28</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K180" t="n">
+        <v>0</v>
       </c>
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
@@ -13019,10 +12897,8 @@
           <t>15:22:18.346000</t>
         </is>
       </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K222" t="n">
+        <v>0</v>
       </c>
       <c r="L222" t="inlineStr"/>
       <c r="M222" t="inlineStr"/>
@@ -13081,10 +12957,8 @@
           <t>09:23:57.878000</t>
         </is>
       </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K223" t="n">
+        <v>1</v>
       </c>
       <c r="L223" t="inlineStr"/>
       <c r="M223" t="inlineStr"/>
@@ -13143,10 +13017,8 @@
           <t>11:35:19.261000</t>
         </is>
       </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K224" t="n">
+        <v>1</v>
       </c>
       <c r="L224" t="inlineStr"/>
       <c r="M224" t="inlineStr"/>
@@ -13205,10 +13077,8 @@
           <t>11:51:08.717000</t>
         </is>
       </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K225" t="n">
+        <v>1</v>
       </c>
       <c r="L225" t="inlineStr"/>
       <c r="M225" t="inlineStr"/>
@@ -13267,10 +13137,8 @@
           <t>12:49:43.117000</t>
         </is>
       </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K226" t="n">
+        <v>0</v>
       </c>
       <c r="L226" t="inlineStr"/>
       <c r="M226" t="inlineStr"/>
@@ -13329,10 +13197,8 @@
           <t>21:28:27.454000</t>
         </is>
       </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K227" t="n">
+        <v>1</v>
       </c>
       <c r="L227" t="inlineStr"/>
       <c r="M227" t="inlineStr"/>
@@ -13391,10 +13257,8 @@
           <t>21:30:50.869000</t>
         </is>
       </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K228" t="n">
+        <v>1</v>
       </c>
       <c r="L228" t="inlineStr"/>
       <c r="M228" t="inlineStr"/>
@@ -13453,10 +13317,8 @@
           <t>21:34:06.893000</t>
         </is>
       </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K229" t="n">
+        <v>1</v>
       </c>
       <c r="L229" t="inlineStr"/>
       <c r="M229" t="inlineStr"/>
@@ -13515,10 +13377,8 @@
           <t>21:35:37.638000</t>
         </is>
       </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K230" t="n">
+        <v>1</v>
       </c>
       <c r="L230" t="inlineStr"/>
       <c r="M230" t="inlineStr"/>
@@ -13577,10 +13437,8 @@
           <t>22:20:19.062000</t>
         </is>
       </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K231" t="n">
+        <v>1</v>
       </c>
       <c r="L231" t="inlineStr"/>
       <c r="M231" t="inlineStr"/>
@@ -13639,10 +13497,8 @@
           <t>22:23:56.658000</t>
         </is>
       </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K232" t="n">
+        <v>0</v>
       </c>
       <c r="L232" t="inlineStr"/>
       <c r="M232" t="inlineStr"/>
@@ -13701,10 +13557,8 @@
           <t>22:28:04.051000</t>
         </is>
       </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K233" t="n">
+        <v>0</v>
       </c>
       <c r="L233" t="inlineStr"/>
       <c r="M233" t="inlineStr"/>
@@ -13763,10 +13617,8 @@
           <t>22:36:38.796000</t>
         </is>
       </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K234" t="n">
+        <v>1</v>
       </c>
       <c r="L234" t="inlineStr"/>
       <c r="M234" t="inlineStr"/>
@@ -13825,10 +13677,8 @@
           <t>22:38:46.100000</t>
         </is>
       </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K235" t="n">
+        <v>1</v>
       </c>
       <c r="L235" t="inlineStr"/>
       <c r="M235" t="inlineStr"/>
@@ -13887,10 +13737,8 @@
           <t>22:42:43.032000</t>
         </is>
       </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K236" t="n">
+        <v>1</v>
       </c>
       <c r="L236" t="inlineStr"/>
       <c r="M236" t="inlineStr"/>
@@ -13949,10 +13797,8 @@
           <t>22:44:44.783000</t>
         </is>
       </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K237" t="n">
+        <v>0</v>
       </c>
       <c r="L237" t="inlineStr"/>
       <c r="M237" t="inlineStr"/>
@@ -14011,10 +13857,8 @@
           <t>00:36:42.318000</t>
         </is>
       </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K238" t="n">
+        <v>1</v>
       </c>
       <c r="L238" t="inlineStr"/>
       <c r="M238" t="inlineStr"/>
@@ -14073,10 +13917,8 @@
           <t>00:38:41.140000</t>
         </is>
       </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K239" t="n">
+        <v>1</v>
       </c>
       <c r="L239" t="inlineStr"/>
       <c r="M239" t="inlineStr"/>
@@ -14135,10 +13977,8 @@
           <t>00:44:37.279000</t>
         </is>
       </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K240" t="n">
+        <v>0</v>
       </c>
       <c r="L240" t="inlineStr"/>
       <c r="M240" t="inlineStr"/>
@@ -14197,10 +14037,8 @@
           <t>00:51:46.337000</t>
         </is>
       </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K241" t="n">
+        <v>1</v>
       </c>
       <c r="L241" t="inlineStr"/>
       <c r="M241" t="inlineStr"/>
@@ -14259,10 +14097,8 @@
           <t>00:58:04.067000</t>
         </is>
       </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K242" t="n">
+        <v>0</v>
       </c>
       <c r="L242" t="inlineStr"/>
       <c r="M242" t="inlineStr"/>
@@ -14321,10 +14157,8 @@
           <t>01:05:08.669000</t>
         </is>
       </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K243" t="n">
+        <v>1</v>
       </c>
       <c r="L243" t="inlineStr"/>
       <c r="M243" t="inlineStr"/>
@@ -14383,10 +14217,8 @@
           <t>14:54:07.312000</t>
         </is>
       </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K244" t="n">
+        <v>1</v>
       </c>
       <c r="L244" t="inlineStr"/>
       <c r="M244" t="inlineStr"/>
@@ -14445,10 +14277,8 @@
           <t>14:56:14.003000</t>
         </is>
       </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K245" t="n">
+        <v>1</v>
       </c>
       <c r="L245" t="inlineStr"/>
       <c r="M245" t="inlineStr"/>
@@ -14507,10 +14337,8 @@
           <t>14:56:55.836000</t>
         </is>
       </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K246" t="n">
+        <v>1</v>
       </c>
       <c r="L246" t="inlineStr"/>
       <c r="M246" t="inlineStr"/>
@@ -14569,10 +14397,8 @@
           <t>14:58:42.560000</t>
         </is>
       </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K247" t="n">
+        <v>1</v>
       </c>
       <c r="L247" t="inlineStr"/>
       <c r="M247" t="inlineStr"/>
@@ -14631,10 +14457,8 @@
           <t>15:01:00.649000</t>
         </is>
       </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K248" t="n">
+        <v>1</v>
       </c>
       <c r="L248" t="inlineStr"/>
       <c r="M248" t="inlineStr"/>
@@ -14693,10 +14517,8 @@
           <t>15:02:48.173000</t>
         </is>
       </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K249" t="n">
+        <v>1</v>
       </c>
       <c r="L249" t="inlineStr"/>
       <c r="M249" t="inlineStr"/>
@@ -14755,10 +14577,8 @@
           <t>15:03:22.403000</t>
         </is>
       </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K250" t="n">
+        <v>1</v>
       </c>
       <c r="L250" t="inlineStr"/>
       <c r="M250" t="inlineStr"/>
@@ -14817,10 +14637,8 @@
           <t>15:06:32.861000</t>
         </is>
       </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K251" t="n">
+        <v>1</v>
       </c>
       <c r="L251" t="inlineStr"/>
       <c r="M251" t="inlineStr"/>
@@ -14879,10 +14697,8 @@
           <t>15:10:16.616000</t>
         </is>
       </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K252" t="n">
+        <v>1</v>
       </c>
       <c r="L252" t="inlineStr"/>
       <c r="M252" t="inlineStr"/>
@@ -14941,10 +14757,8 @@
           <t>20:41:55.733000</t>
         </is>
       </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K253" t="n">
+        <v>0</v>
       </c>
       <c r="L253" t="inlineStr"/>
       <c r="M253" t="inlineStr"/>
@@ -15003,10 +14817,8 @@
           <t>09:14:03.388000</t>
         </is>
       </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K254" t="n">
+        <v>1</v>
       </c>
       <c r="L254" t="inlineStr"/>
       <c r="M254" t="inlineStr"/>
@@ -15065,10 +14877,8 @@
           <t>09:27:54.536000</t>
         </is>
       </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K255" t="n">
+        <v>1</v>
       </c>
       <c r="L255" t="inlineStr"/>
       <c r="M255" t="inlineStr"/>
@@ -15127,10 +14937,8 @@
           <t>18:34:32.691000</t>
         </is>
       </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K256" t="n">
+        <v>1</v>
       </c>
       <c r="L256" t="inlineStr"/>
       <c r="M256" t="inlineStr"/>
@@ -15189,10 +14997,8 @@
           <t>18:37:14.670000</t>
         </is>
       </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K257" t="n">
+        <v>0</v>
       </c>
       <c r="L257" t="inlineStr"/>
       <c r="M257" t="inlineStr"/>
@@ -15251,10 +15057,8 @@
           <t>18:42:32.114000</t>
         </is>
       </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K258" t="n">
+        <v>1</v>
       </c>
       <c r="L258" t="inlineStr"/>
       <c r="M258" t="inlineStr"/>
@@ -15313,10 +15117,8 @@
           <t>18:46:47.661000</t>
         </is>
       </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K259" t="n">
+        <v>1</v>
       </c>
       <c r="L259" t="inlineStr"/>
       <c r="M259" t="inlineStr"/>
@@ -15375,10 +15177,8 @@
           <t>18:51:14.282000</t>
         </is>
       </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K260" t="n">
+        <v>1</v>
       </c>
       <c r="L260" t="inlineStr"/>
       <c r="M260" t="inlineStr"/>
@@ -15437,10 +15237,8 @@
           <t>21:55:13.686000</t>
         </is>
       </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K261" t="n">
+        <v>1</v>
       </c>
       <c r="L261" t="inlineStr"/>
       <c r="M261" t="inlineStr"/>
@@ -15499,10 +15297,8 @@
           <t>21:55:42.553000</t>
         </is>
       </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K262" t="n">
+        <v>1</v>
       </c>
       <c r="L262" t="inlineStr"/>
       <c r="M262" t="inlineStr"/>
@@ -15561,10 +15357,8 @@
           <t>22:01:45.233000</t>
         </is>
       </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K263" t="n">
+        <v>1</v>
       </c>
       <c r="L263" t="inlineStr"/>
       <c r="M263" t="inlineStr"/>
@@ -15623,10 +15417,8 @@
           <t>22:37:32.396000</t>
         </is>
       </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K264" t="n">
+        <v>1</v>
       </c>
       <c r="L264" t="inlineStr"/>
       <c r="M264" t="inlineStr"/>
@@ -15685,10 +15477,8 @@
           <t>22:40:36.406000</t>
         </is>
       </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K265" t="n">
+        <v>0</v>
       </c>
       <c r="L265" t="inlineStr"/>
       <c r="M265" t="inlineStr"/>
@@ -15747,10 +15537,8 @@
           <t>16:13:59.191000</t>
         </is>
       </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K266" t="n">
+        <v>1</v>
       </c>
       <c r="L266" t="inlineStr"/>
       <c r="M266" t="inlineStr"/>
@@ -15809,10 +15597,8 @@
           <t>16:20:01.032000</t>
         </is>
       </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K267" t="n">
+        <v>1</v>
       </c>
       <c r="L267" t="inlineStr"/>
       <c r="M267" t="inlineStr"/>
@@ -15871,10 +15657,8 @@
           <t>16:22:34.926000</t>
         </is>
       </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K268" t="n">
+        <v>1</v>
       </c>
       <c r="L268" t="inlineStr"/>
       <c r="M268" t="inlineStr"/>
@@ -15933,10 +15717,8 @@
           <t>16:25:47.356000</t>
         </is>
       </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K269" t="n">
+        <v>0</v>
       </c>
       <c r="L269" t="inlineStr"/>
       <c r="M269" t="inlineStr"/>
@@ -16717,10 +16499,8 @@
           <t>15:52:20.785000</t>
         </is>
       </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K283" t="n">
+        <v>1</v>
       </c>
       <c r="L283" t="inlineStr"/>
       <c r="M283" t="inlineStr"/>
@@ -16779,10 +16559,8 @@
           <t>15:54:19.673000</t>
         </is>
       </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K284" t="n">
+        <v>1</v>
       </c>
       <c r="L284" t="inlineStr"/>
       <c r="M284" t="inlineStr"/>
@@ -16841,10 +16619,8 @@
           <t>15:55:56.323000</t>
         </is>
       </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K285" t="n">
+        <v>1</v>
       </c>
       <c r="L285" t="inlineStr"/>
       <c r="M285" t="inlineStr"/>
@@ -16903,10 +16679,8 @@
           <t>15:57:37.217000</t>
         </is>
       </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K286" t="n">
+        <v>1</v>
       </c>
       <c r="L286" t="inlineStr"/>
       <c r="M286" t="inlineStr"/>
@@ -16965,10 +16739,8 @@
           <t>18:04:32.526000</t>
         </is>
       </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K287" t="n">
+        <v>0</v>
       </c>
       <c r="L287" t="inlineStr"/>
       <c r="M287" t="inlineStr"/>
@@ -17027,10 +16799,8 @@
           <t>18:10:48.395000</t>
         </is>
       </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K288" t="n">
+        <v>1</v>
       </c>
       <c r="L288" t="inlineStr"/>
       <c r="M288" t="inlineStr"/>
@@ -17089,10 +16859,8 @@
           <t>08:21:20.645000</t>
         </is>
       </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K289" t="n">
+        <v>1</v>
       </c>
       <c r="L289" t="inlineStr"/>
       <c r="M289" t="inlineStr"/>
@@ -17147,10 +16915,8 @@
         <v>8</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K290" t="n">
+        <v>0</v>
       </c>
       <c r="L290" t="inlineStr"/>
       <c r="M290" t="inlineStr"/>
@@ -18239,10 +18005,8 @@
           <t>18:24:54.367000</t>
         </is>
       </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K310" t="n">
+        <v>1</v>
       </c>
       <c r="L310" t="inlineStr"/>
       <c r="M310" t="inlineStr"/>
@@ -18301,10 +18065,8 @@
           <t>18:25:41.787000</t>
         </is>
       </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K311" t="n">
+        <v>1</v>
       </c>
       <c r="L311" t="inlineStr"/>
       <c r="M311" t="inlineStr"/>
@@ -18363,10 +18125,8 @@
           <t>18:30:17.501000</t>
         </is>
       </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K312" t="n">
+        <v>1</v>
       </c>
       <c r="L312" t="inlineStr"/>
       <c r="M312" t="inlineStr"/>
@@ -18425,10 +18185,8 @@
           <t>18:32:07.088000</t>
         </is>
       </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K313" t="n">
+        <v>1</v>
       </c>
       <c r="L313" t="inlineStr"/>
       <c r="M313" t="inlineStr"/>
@@ -18487,10 +18245,8 @@
           <t>18:33:50.048000</t>
         </is>
       </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K314" t="n">
+        <v>0</v>
       </c>
       <c r="L314" t="inlineStr"/>
       <c r="M314" t="inlineStr"/>
@@ -18549,10 +18305,8 @@
           <t>12:02:50.604000</t>
         </is>
       </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K315" t="n">
+        <v>1</v>
       </c>
       <c r="L315" t="inlineStr"/>
       <c r="M315" t="inlineStr"/>
@@ -18611,10 +18365,8 @@
           <t>12:06:43.529000</t>
         </is>
       </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K316" t="n">
+        <v>1</v>
       </c>
       <c r="L316" t="inlineStr"/>
       <c r="M316" t="inlineStr"/>
@@ -18673,10 +18425,8 @@
           <t>11:34:02.564000</t>
         </is>
       </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K317" t="n">
+        <v>1</v>
       </c>
       <c r="L317" t="inlineStr"/>
       <c r="M317" t="inlineStr"/>
@@ -19215,10 +18965,8 @@
         <v>1</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K326" t="n">
+        <v>0</v>
       </c>
       <c r="L326" t="inlineStr"/>
       <c r="M326" t="inlineStr"/>
@@ -23689,10 +23437,8 @@
           <t>19:40:05.664000</t>
         </is>
       </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K409" t="n">
+        <v>1</v>
       </c>
       <c r="L409" t="inlineStr"/>
       <c r="M409" t="inlineStr"/>
@@ -23751,10 +23497,8 @@
           <t>19:40:58.705000</t>
         </is>
       </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K410" t="n">
+        <v>1</v>
       </c>
       <c r="L410" t="inlineStr"/>
       <c r="M410" t="inlineStr"/>
@@ -23813,10 +23557,8 @@
           <t>19:42:02.545000</t>
         </is>
       </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K411" t="n">
+        <v>1</v>
       </c>
       <c r="L411" t="inlineStr"/>
       <c r="M411" t="inlineStr"/>
@@ -23875,10 +23617,8 @@
           <t>19:43:39.667000</t>
         </is>
       </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K412" t="n">
+        <v>1</v>
       </c>
       <c r="L412" t="inlineStr"/>
       <c r="M412" t="inlineStr"/>
@@ -23937,10 +23677,8 @@
           <t>19:45:11.376000</t>
         </is>
       </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K413" t="n">
+        <v>1</v>
       </c>
       <c r="L413" t="inlineStr"/>
       <c r="M413" t="inlineStr"/>
@@ -23999,10 +23737,8 @@
           <t>19:46:04.707000</t>
         </is>
       </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K414" t="n">
+        <v>1</v>
       </c>
       <c r="L414" t="inlineStr"/>
       <c r="M414" t="inlineStr"/>
@@ -24061,10 +23797,8 @@
           <t>19:47:27.317000</t>
         </is>
       </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K415" t="n">
+        <v>1</v>
       </c>
       <c r="L415" t="inlineStr"/>
       <c r="M415" t="inlineStr"/>
@@ -24123,10 +23857,8 @@
           <t>19:48:52.170000</t>
         </is>
       </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K416" t="n">
+        <v>1</v>
       </c>
       <c r="L416" t="inlineStr"/>
       <c r="M416" t="inlineStr"/>
@@ -24185,10 +23917,8 @@
           <t>19:50:33.247000</t>
         </is>
       </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K417" t="n">
+        <v>0</v>
       </c>
       <c r="L417" t="inlineStr"/>
       <c r="M417" t="inlineStr"/>
@@ -24247,10 +23977,8 @@
           <t>19:53:09.645000</t>
         </is>
       </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K418" t="n">
+        <v>1</v>
       </c>
       <c r="L418" t="inlineStr"/>
       <c r="M418" t="inlineStr"/>
@@ -24309,10 +24037,8 @@
           <t>19:54:48.109000</t>
         </is>
       </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K419" t="n">
+        <v>1</v>
       </c>
       <c r="L419" t="inlineStr"/>
       <c r="M419" t="inlineStr"/>
@@ -24371,10 +24097,8 @@
           <t>19:56:40.775000</t>
         </is>
       </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K420" t="n">
+        <v>1</v>
       </c>
       <c r="L420" t="inlineStr"/>
       <c r="M420" t="inlineStr"/>
@@ -24433,10 +24157,8 @@
           <t>19:59:00.690000</t>
         </is>
       </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K421" t="n">
+        <v>1</v>
       </c>
       <c r="L421" t="inlineStr"/>
       <c r="M421" t="inlineStr"/>
@@ -24495,10 +24217,8 @@
           <t>19:59:49.683000</t>
         </is>
       </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K422" t="n">
+        <v>1</v>
       </c>
       <c r="L422" t="inlineStr"/>
       <c r="M422" t="inlineStr"/>
@@ -24557,10 +24277,8 @@
           <t>20:01:56.634000</t>
         </is>
       </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K423" t="n">
+        <v>1</v>
       </c>
       <c r="L423" t="inlineStr"/>
       <c r="M423" t="inlineStr"/>
@@ -24619,10 +24337,8 @@
           <t>20:05:27.335000</t>
         </is>
       </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K424" t="n">
+        <v>0</v>
       </c>
       <c r="L424" t="inlineStr"/>
       <c r="M424" t="inlineStr"/>
@@ -24681,10 +24397,8 @@
           <t>14:54:59.190000</t>
         </is>
       </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K425" t="n">
+        <v>1</v>
       </c>
       <c r="L425" t="inlineStr"/>
       <c r="M425" t="inlineStr"/>
@@ -24743,10 +24457,8 @@
           <t>14:57:42.833000</t>
         </is>
       </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K426" t="n">
+        <v>1</v>
       </c>
       <c r="L426" t="inlineStr"/>
       <c r="M426" t="inlineStr"/>
@@ -24805,10 +24517,8 @@
           <t>14:59:32.458000</t>
         </is>
       </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K427" t="n">
+        <v>1</v>
       </c>
       <c r="L427" t="inlineStr"/>
       <c r="M427" t="inlineStr"/>
@@ -24867,10 +24577,8 @@
           <t>15:02:44.825000</t>
         </is>
       </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K428" t="n">
+        <v>1</v>
       </c>
       <c r="L428" t="inlineStr"/>
       <c r="M428" t="inlineStr"/>
@@ -24929,10 +24637,8 @@
           <t>15:04:25.757000</t>
         </is>
       </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K429" t="n">
+        <v>1</v>
       </c>
       <c r="L429" t="inlineStr"/>
       <c r="M429" t="inlineStr"/>
@@ -24991,10 +24697,8 @@
           <t>15:06:56.367000</t>
         </is>
       </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K430" t="n">
+        <v>1</v>
       </c>
       <c r="L430" t="inlineStr"/>
       <c r="M430" t="inlineStr"/>
@@ -25053,10 +24757,8 @@
           <t>15:08:51.945000</t>
         </is>
       </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K431" t="n">
+        <v>1</v>
       </c>
       <c r="L431" t="inlineStr"/>
       <c r="M431" t="inlineStr"/>
@@ -25115,10 +24817,8 @@
           <t>15:11:33.540000</t>
         </is>
       </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K432" t="n">
+        <v>1</v>
       </c>
       <c r="L432" t="inlineStr"/>
       <c r="M432" t="inlineStr"/>
@@ -25177,10 +24877,8 @@
           <t>15:13:44.020000</t>
         </is>
       </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K433" t="n">
+        <v>1</v>
       </c>
       <c r="L433" t="inlineStr"/>
       <c r="M433" t="inlineStr"/>
@@ -25239,10 +24937,8 @@
           <t>15:15:08.064000</t>
         </is>
       </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K434" t="n">
+        <v>1</v>
       </c>
       <c r="L434" t="inlineStr"/>
       <c r="M434" t="inlineStr"/>
@@ -25301,10 +24997,8 @@
           <t>15:17:56.012000</t>
         </is>
       </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K435" t="n">
+        <v>1</v>
       </c>
       <c r="L435" t="inlineStr"/>
       <c r="M435" t="inlineStr"/>
@@ -25363,10 +25057,8 @@
           <t>15:20:54.580000</t>
         </is>
       </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K436" t="n">
+        <v>1</v>
       </c>
       <c r="L436" t="inlineStr"/>
       <c r="M436" t="inlineStr"/>
@@ -25425,10 +25117,8 @@
           <t>15:23:43.744000</t>
         </is>
       </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K437" t="n">
+        <v>0</v>
       </c>
       <c r="L437" t="inlineStr"/>
       <c r="M437" t="inlineStr"/>
@@ -25487,10 +25177,8 @@
           <t>15:26:48.483000</t>
         </is>
       </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K438" t="n">
+        <v>1</v>
       </c>
       <c r="L438" t="inlineStr"/>
       <c r="M438" t="inlineStr"/>
@@ -25549,10 +25237,8 @@
           <t>15:28:42.763000</t>
         </is>
       </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K439" t="n">
+        <v>1</v>
       </c>
       <c r="L439" t="inlineStr"/>
       <c r="M439" t="inlineStr"/>
@@ -25611,10 +25297,8 @@
           <t>15:30:59.588000</t>
         </is>
       </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K440" t="n">
+        <v>1</v>
       </c>
       <c r="L440" t="inlineStr"/>
       <c r="M440" t="inlineStr"/>
@@ -25673,10 +25357,8 @@
           <t>15:32:57.819000</t>
         </is>
       </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K441" t="n">
+        <v>1</v>
       </c>
       <c r="L441" t="inlineStr"/>
       <c r="M441" t="inlineStr"/>
@@ -25735,10 +25417,8 @@
           <t>15:34:23</t>
         </is>
       </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K442" t="n">
+        <v>1</v>
       </c>
       <c r="L442" t="inlineStr"/>
       <c r="M442" t="inlineStr"/>
@@ -25797,10 +25477,8 @@
           <t>15:36:40.976000</t>
         </is>
       </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K443" t="n">
+        <v>1</v>
       </c>
       <c r="L443" t="inlineStr"/>
       <c r="M443" t="inlineStr"/>
@@ -25859,10 +25537,8 @@
           <t>15:41:18.853000</t>
         </is>
       </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K444" t="n">
+        <v>1</v>
       </c>
       <c r="L444" t="inlineStr"/>
       <c r="M444" t="inlineStr"/>
@@ -25921,10 +25597,8 @@
           <t>15:43:34.805000</t>
         </is>
       </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K445" t="n">
+        <v>1</v>
       </c>
       <c r="L445" t="inlineStr"/>
       <c r="M445" t="inlineStr"/>
@@ -25983,10 +25657,8 @@
           <t>21:54:34.489000</t>
         </is>
       </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K446" t="n">
+        <v>1</v>
       </c>
       <c r="L446" t="inlineStr"/>
       <c r="M446" t="inlineStr"/>
@@ -26045,10 +25717,8 @@
           <t>21:59:21.193000</t>
         </is>
       </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K447" t="n">
+        <v>1</v>
       </c>
       <c r="L447" t="inlineStr"/>
       <c r="M447" t="inlineStr"/>
@@ -26107,10 +25777,8 @@
           <t>22:51:09.866000</t>
         </is>
       </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K448" t="n">
+        <v>1</v>
       </c>
       <c r="L448" t="inlineStr"/>
       <c r="M448" t="inlineStr"/>
@@ -26169,10 +25837,8 @@
           <t>22:54:21.795000</t>
         </is>
       </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K449" t="n">
+        <v>1</v>
       </c>
       <c r="L449" t="inlineStr"/>
       <c r="M449" t="inlineStr"/>
@@ -26231,10 +25897,8 @@
           <t>22:58:19.616000</t>
         </is>
       </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K450" t="n">
+        <v>1</v>
       </c>
       <c r="L450" t="inlineStr"/>
       <c r="M450" t="inlineStr"/>
@@ -26293,10 +25957,8 @@
           <t>23:02:21.351000</t>
         </is>
       </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K451" t="n">
+        <v>0</v>
       </c>
       <c r="L451" t="inlineStr"/>
       <c r="M451" t="inlineStr"/>
@@ -26355,10 +26017,8 @@
           <t>23:07:25.373000</t>
         </is>
       </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K452" t="n">
+        <v>1</v>
       </c>
       <c r="L452" t="inlineStr"/>
       <c r="M452" t="inlineStr"/>
@@ -26417,10 +26077,8 @@
           <t>23:19:11.396000</t>
         </is>
       </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K453" t="n">
+        <v>1</v>
       </c>
       <c r="L453" t="inlineStr"/>
       <c r="M453" t="inlineStr"/>
@@ -26479,10 +26137,8 @@
           <t>23:23:05.285000</t>
         </is>
       </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K454" t="n">
+        <v>1</v>
       </c>
       <c r="L454" t="inlineStr"/>
       <c r="M454" t="inlineStr"/>
@@ -26541,10 +26197,8 @@
           <t>23:25:01.969000</t>
         </is>
       </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K455" t="n">
+        <v>1</v>
       </c>
       <c r="L455" t="inlineStr"/>
       <c r="M455" t="inlineStr"/>
@@ -26603,10 +26257,8 @@
           <t>23:28:34.423000</t>
         </is>
       </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K456" t="n">
+        <v>1</v>
       </c>
       <c r="L456" t="inlineStr"/>
       <c r="M456" t="inlineStr"/>
@@ -26665,10 +26317,8 @@
           <t>23:33:43.273000</t>
         </is>
       </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K457" t="n">
+        <v>0</v>
       </c>
       <c r="L457" t="inlineStr"/>
       <c r="M457" t="inlineStr"/>
@@ -26727,10 +26377,8 @@
           <t>23:38:51.096000</t>
         </is>
       </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K458" t="n">
+        <v>1</v>
       </c>
       <c r="L458" t="inlineStr"/>
       <c r="M458" t="inlineStr"/>
@@ -26789,10 +26437,8 @@
           <t>23:42:47.620000</t>
         </is>
       </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K459" t="n">
+        <v>1</v>
       </c>
       <c r="L459" t="inlineStr"/>
       <c r="M459" t="inlineStr"/>
@@ -26851,10 +26497,8 @@
           <t>01:09:03.803000</t>
         </is>
       </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K460" t="n">
+        <v>1</v>
       </c>
       <c r="L460" t="inlineStr"/>
       <c r="M460" t="inlineStr"/>
@@ -26913,10 +26557,8 @@
           <t>01:10:33.667000</t>
         </is>
       </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K461" t="n">
+        <v>1</v>
       </c>
       <c r="L461" t="inlineStr"/>
       <c r="M461" t="inlineStr"/>
@@ -26975,10 +26617,8 @@
           <t>01:14:23.772000</t>
         </is>
       </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K462" t="n">
+        <v>1</v>
       </c>
       <c r="L462" t="inlineStr"/>
       <c r="M462" t="inlineStr"/>
@@ -27037,10 +26677,8 @@
           <t>01:20:16.001000</t>
         </is>
       </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K463" t="n">
+        <v>0</v>
       </c>
       <c r="L463" t="inlineStr"/>
       <c r="M463" t="inlineStr"/>
@@ -27099,10 +26737,8 @@
           <t>01:25:18.411000</t>
         </is>
       </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K464" t="n">
+        <v>1</v>
       </c>
       <c r="L464" t="inlineStr"/>
       <c r="M464" t="inlineStr"/>
@@ -27161,10 +26797,8 @@
           <t>01:32:32.084000</t>
         </is>
       </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K465" t="n">
+        <v>0</v>
       </c>
       <c r="L465" t="inlineStr"/>
       <c r="M465" t="inlineStr"/>
@@ -27223,10 +26857,8 @@
           <t>16:36:30.877000</t>
         </is>
       </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K466" t="n">
+        <v>1</v>
       </c>
       <c r="L466" t="inlineStr"/>
       <c r="M466" t="inlineStr"/>
@@ -27285,10 +26917,8 @@
           <t>16:40:05.215000</t>
         </is>
       </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K467" t="n">
+        <v>1</v>
       </c>
       <c r="L467" t="inlineStr"/>
       <c r="M467" t="inlineStr"/>
@@ -27347,10 +26977,8 @@
           <t>16:41:21.879000</t>
         </is>
       </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K468" t="n">
+        <v>1</v>
       </c>
       <c r="L468" t="inlineStr"/>
       <c r="M468" t="inlineStr"/>
@@ -27409,10 +27037,8 @@
           <t>16:45:33.552000</t>
         </is>
       </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K469" t="n">
+        <v>1</v>
       </c>
       <c r="L469" t="inlineStr"/>
       <c r="M469" t="inlineStr"/>
@@ -27471,10 +27097,8 @@
           <t>16:46:33.829000</t>
         </is>
       </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K470" t="n">
+        <v>1</v>
       </c>
       <c r="L470" t="inlineStr"/>
       <c r="M470" t="inlineStr"/>
@@ -27533,10 +27157,8 @@
           <t>16:50:29.167000</t>
         </is>
       </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K471" t="n">
+        <v>1</v>
       </c>
       <c r="L471" t="inlineStr"/>
       <c r="M471" t="inlineStr"/>
@@ -27595,10 +27217,8 @@
           <t>16:51:01.306000</t>
         </is>
       </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K472" t="n">
+        <v>1</v>
       </c>
       <c r="L472" t="inlineStr"/>
       <c r="M472" t="inlineStr"/>
@@ -27657,10 +27277,8 @@
           <t>16:55:52.816000</t>
         </is>
       </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K473" t="n">
+        <v>1</v>
       </c>
       <c r="L473" t="inlineStr"/>
       <c r="M473" t="inlineStr"/>
@@ -27719,10 +27337,8 @@
           <t>16:58:00.650000</t>
         </is>
       </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K474" t="n">
+        <v>1</v>
       </c>
       <c r="L474" t="inlineStr"/>
       <c r="M474" t="inlineStr"/>
@@ -27781,10 +27397,8 @@
           <t>21:51:52.354000</t>
         </is>
       </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K475" t="n">
+        <v>0</v>
       </c>
       <c r="L475" t="inlineStr"/>
       <c r="M475" t="inlineStr"/>
@@ -27843,10 +27457,8 @@
           <t>22:35:53.506000</t>
         </is>
       </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K476" t="n">
+        <v>1</v>
       </c>
       <c r="L476" t="inlineStr"/>
       <c r="M476" t="inlineStr"/>
@@ -27905,10 +27517,8 @@
           <t>22:40:57.759000</t>
         </is>
       </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K477" t="n">
+        <v>1</v>
       </c>
       <c r="L477" t="inlineStr"/>
       <c r="M477" t="inlineStr"/>
@@ -27967,10 +27577,8 @@
           <t>22:42:53.155000</t>
         </is>
       </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K478" t="n">
+        <v>1</v>
       </c>
       <c r="L478" t="inlineStr"/>
       <c r="M478" t="inlineStr"/>
@@ -28029,10 +27637,8 @@
           <t>22:46:14.312000</t>
         </is>
       </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K479" t="n">
+        <v>1</v>
       </c>
       <c r="L479" t="inlineStr"/>
       <c r="M479" t="inlineStr"/>
@@ -28091,10 +27697,8 @@
           <t>22:47:09.557000</t>
         </is>
       </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K480" t="n">
+        <v>1</v>
       </c>
       <c r="L480" t="inlineStr"/>
       <c r="M480" t="inlineStr"/>
@@ -28153,10 +27757,8 @@
           <t>22:51:43.203000</t>
         </is>
       </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K481" t="n">
+        <v>1</v>
       </c>
       <c r="L481" t="inlineStr"/>
       <c r="M481" t="inlineStr"/>
@@ -28215,10 +27817,8 @@
           <t>22:43:41.363000</t>
         </is>
       </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K482" t="n">
+        <v>1</v>
       </c>
       <c r="L482" t="inlineStr"/>
       <c r="M482" t="inlineStr"/>
@@ -28277,10 +27877,8 @@
           <t>22:47:56.114000</t>
         </is>
       </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K483" t="n">
+        <v>1</v>
       </c>
       <c r="L483" t="inlineStr"/>
       <c r="M483" t="inlineStr"/>
@@ -28339,10 +27937,8 @@
           <t>22:48:45.216000</t>
         </is>
       </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K484" t="n">
+        <v>1</v>
       </c>
       <c r="L484" t="inlineStr"/>
       <c r="M484" t="inlineStr"/>
@@ -28401,10 +27997,8 @@
           <t>22:54:29.820000</t>
         </is>
       </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K485" t="n">
+        <v>1</v>
       </c>
       <c r="L485" t="inlineStr"/>
       <c r="M485" t="inlineStr"/>
@@ -28463,10 +28057,8 @@
           <t>22:55:37.777000</t>
         </is>
       </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K486" t="n">
+        <v>1</v>
       </c>
       <c r="L486" t="inlineStr"/>
       <c r="M486" t="inlineStr"/>
@@ -28525,10 +28117,8 @@
           <t>18:22:30.168000</t>
         </is>
       </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K487" t="n">
+        <v>1</v>
       </c>
       <c r="L487" t="inlineStr"/>
       <c r="M487" t="inlineStr"/>
@@ -28587,10 +28177,8 @@
           <t>18:23:05.340000</t>
         </is>
       </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K488" t="n">
+        <v>1</v>
       </c>
       <c r="L488" t="inlineStr"/>
       <c r="M488" t="inlineStr"/>
@@ -28649,10 +28237,8 @@
           <t>18:27:47.127000</t>
         </is>
       </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K489" t="n">
+        <v>1</v>
       </c>
       <c r="L489" t="inlineStr"/>
       <c r="M489" t="inlineStr"/>
@@ -28707,10 +28293,8 @@
         <v>40</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K490" t="n">
+        <v>0</v>
       </c>
       <c r="L490" t="inlineStr"/>
       <c r="M490" t="inlineStr"/>
@@ -28765,10 +28349,8 @@
         <v>44</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K491" t="n">
+        <v>0</v>
       </c>
       <c r="L491" t="inlineStr"/>
       <c r="M491" t="inlineStr"/>
@@ -28823,10 +28405,8 @@
         <v>48</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K492" t="n">
+        <v>0</v>
       </c>
       <c r="L492" t="inlineStr"/>
       <c r="M492" t="inlineStr"/>
@@ -28881,10 +28461,8 @@
         <v>52</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K493" t="n">
+        <v>0</v>
       </c>
       <c r="L493" t="inlineStr"/>
       <c r="M493" t="inlineStr"/>
@@ -28939,10 +28517,8 @@
         <v>56</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K494" t="n">
+        <v>0</v>
       </c>
       <c r="L494" t="inlineStr"/>
       <c r="M494" t="inlineStr"/>
@@ -28997,10 +28573,8 @@
         <v>60</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K495" t="n">
+        <v>0</v>
       </c>
       <c r="L495" t="inlineStr"/>
       <c r="M495" t="inlineStr"/>
@@ -34053,10 +33627,8 @@
           <t>18:12:29.333000</t>
         </is>
       </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K589" t="n">
+        <v>1</v>
       </c>
       <c r="L589" t="inlineStr"/>
       <c r="M589" t="inlineStr"/>
@@ -34115,10 +33687,8 @@
           <t>18:14:28.610000</t>
         </is>
       </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K590" t="n">
+        <v>1</v>
       </c>
       <c r="L590" t="inlineStr"/>
       <c r="M590" t="inlineStr"/>
@@ -34177,10 +33747,8 @@
           <t>18:15:40.261000</t>
         </is>
       </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K591" t="n">
+        <v>1</v>
       </c>
       <c r="L591" t="inlineStr"/>
       <c r="M591" t="inlineStr"/>
@@ -34239,10 +33807,8 @@
           <t>18:16:27.217000</t>
         </is>
       </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K592" t="n">
+        <v>1</v>
       </c>
       <c r="L592" t="inlineStr"/>
       <c r="M592" t="inlineStr"/>
@@ -34301,10 +33867,8 @@
           <t>18:18:06.040000</t>
         </is>
       </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K593" t="n">
+        <v>1</v>
       </c>
       <c r="L593" t="inlineStr"/>
       <c r="M593" t="inlineStr"/>
@@ -34363,10 +33927,8 @@
           <t>18:19:14.424000</t>
         </is>
       </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K594" t="n">
+        <v>1</v>
       </c>
       <c r="L594" t="inlineStr"/>
       <c r="M594" t="inlineStr"/>
@@ -34425,10 +33987,8 @@
           <t>13:02:28.351000</t>
         </is>
       </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K595" t="n">
+        <v>1</v>
       </c>
       <c r="L595" t="inlineStr"/>
       <c r="M595" t="inlineStr"/>
@@ -34487,10 +34047,8 @@
           <t>13:05:38.024000</t>
         </is>
       </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K596" t="n">
+        <v>1</v>
       </c>
       <c r="L596" t="inlineStr"/>
       <c r="M596" t="inlineStr"/>
@@ -34549,10 +34107,8 @@
           <t>13:06:38.655000</t>
         </is>
       </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K597" t="n">
+        <v>1</v>
       </c>
       <c r="L597" t="inlineStr"/>
       <c r="M597" t="inlineStr"/>
@@ -34611,10 +34167,8 @@
           <t>13:08:14.650000</t>
         </is>
       </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K598" t="n">
+        <v>1</v>
       </c>
       <c r="L598" t="inlineStr"/>
       <c r="M598" t="inlineStr"/>
@@ -34673,10 +34227,8 @@
           <t>18:08:13.174000</t>
         </is>
       </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K599" t="n">
+        <v>1</v>
       </c>
       <c r="L599" t="inlineStr"/>
       <c r="M599" t="inlineStr"/>
@@ -34735,10 +34287,8 @@
           <t>18:09:21.685000</t>
         </is>
       </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K600" t="n">
+        <v>1</v>
       </c>
       <c r="L600" t="inlineStr"/>
       <c r="M600" t="inlineStr"/>
@@ -34797,10 +34347,8 @@
           <t>18:11:19.616000</t>
         </is>
       </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K601" t="n">
+        <v>1</v>
       </c>
       <c r="L601" t="inlineStr"/>
       <c r="M601" t="inlineStr"/>
@@ -34859,10 +34407,8 @@
           <t>18:13:19.109000</t>
         </is>
       </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K602" t="n">
+        <v>1</v>
       </c>
       <c r="L602" t="inlineStr"/>
       <c r="M602" t="inlineStr"/>
@@ -34921,10 +34467,8 @@
           <t>18:14:59.205000</t>
         </is>
       </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K603" t="n">
+        <v>1</v>
       </c>
       <c r="L603" t="inlineStr"/>
       <c r="M603" t="inlineStr"/>
@@ -34983,10 +34527,8 @@
           <t>18:16:30.749000</t>
         </is>
       </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K604" t="n">
+        <v>1</v>
       </c>
       <c r="L604" t="inlineStr"/>
       <c r="M604" t="inlineStr"/>
@@ -35045,10 +34587,8 @@
           <t>05:38:29.562000</t>
         </is>
       </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K605" t="n">
+        <v>1</v>
       </c>
       <c r="L605" t="inlineStr"/>
       <c r="M605" t="inlineStr"/>
@@ -35107,10 +34647,8 @@
           <t>17:52:30.979000</t>
         </is>
       </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K606" t="n">
+        <v>1</v>
       </c>
       <c r="L606" t="inlineStr"/>
       <c r="M606" t="inlineStr"/>
@@ -35169,10 +34707,8 @@
           <t>17:54:31.965000</t>
         </is>
       </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K607" t="n">
+        <v>1</v>
       </c>
       <c r="L607" t="inlineStr"/>
       <c r="M607" t="inlineStr"/>
@@ -35231,10 +34767,8 @@
           <t>17:57:31.493000</t>
         </is>
       </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K608" t="n">
+        <v>1</v>
       </c>
       <c r="L608" t="inlineStr"/>
       <c r="M608" t="inlineStr"/>
@@ -35293,10 +34827,8 @@
           <t>18:01:02.341000</t>
         </is>
       </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K609" t="n">
+        <v>1</v>
       </c>
       <c r="L609" t="inlineStr"/>
       <c r="M609" t="inlineStr"/>
@@ -35355,10 +34887,8 @@
           <t>18:03:52.583000</t>
         </is>
       </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K610" t="n">
+        <v>1</v>
       </c>
       <c r="L610" t="inlineStr"/>
       <c r="M610" t="inlineStr"/>
@@ -35417,10 +34947,8 @@
           <t>18:08:11.566000</t>
         </is>
       </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K611" t="n">
+        <v>1</v>
       </c>
       <c r="L611" t="inlineStr"/>
       <c r="M611" t="inlineStr"/>
@@ -35479,10 +35007,8 @@
           <t>18:09:54.102000</t>
         </is>
       </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K612" t="n">
+        <v>1</v>
       </c>
       <c r="L612" t="inlineStr"/>
       <c r="M612" t="inlineStr"/>
@@ -35541,10 +35067,8 @@
           <t>05:31:18.385000</t>
         </is>
       </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K613" t="n">
+        <v>1</v>
       </c>
       <c r="L613" t="inlineStr"/>
       <c r="M613" t="inlineStr"/>
@@ -35603,10 +35127,8 @@
           <t>05:32:56.974000</t>
         </is>
       </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K614" t="n">
+        <v>1</v>
       </c>
       <c r="L614" t="inlineStr"/>
       <c r="M614" t="inlineStr"/>
@@ -35665,10 +35187,8 @@
           <t>05:35:40.599000</t>
         </is>
       </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K615" t="n">
+        <v>1</v>
       </c>
       <c r="L615" t="inlineStr"/>
       <c r="M615" t="inlineStr"/>
@@ -35727,10 +35247,8 @@
           <t>05:37:16.253000</t>
         </is>
       </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K616" t="n">
+        <v>1</v>
       </c>
       <c r="L616" t="inlineStr"/>
       <c r="M616" t="inlineStr"/>
@@ -35789,10 +35307,8 @@
           <t>05:38:05.450000</t>
         </is>
       </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K617" t="n">
+        <v>1</v>
       </c>
       <c r="L617" t="inlineStr"/>
       <c r="M617" t="inlineStr"/>
@@ -35851,10 +35367,8 @@
           <t>20:05:43.698000</t>
         </is>
       </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K618" t="n">
+        <v>1</v>
       </c>
       <c r="L618" t="inlineStr"/>
       <c r="M618" t="inlineStr"/>
@@ -35913,10 +35427,8 @@
           <t>04:57:34.050000</t>
         </is>
       </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K619" t="n">
+        <v>1</v>
       </c>
       <c r="L619" t="inlineStr"/>
       <c r="M619" t="inlineStr"/>
@@ -35975,10 +35487,8 @@
           <t>05:00:24.681000</t>
         </is>
       </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K620" t="n">
+        <v>1</v>
       </c>
       <c r="L620" t="inlineStr"/>
       <c r="M620" t="inlineStr"/>
@@ -36037,10 +35547,8 @@
           <t>18:57:15.976000</t>
         </is>
       </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K621" t="n">
+        <v>1</v>
       </c>
       <c r="L621" t="inlineStr"/>
       <c r="M621" t="inlineStr"/>
@@ -36099,10 +35607,8 @@
           <t>18:59:46.762000</t>
         </is>
       </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K622" t="n">
+        <v>1</v>
       </c>
       <c r="L622" t="inlineStr"/>
       <c r="M622" t="inlineStr"/>
@@ -36161,10 +35667,8 @@
           <t>19:42:42.867000</t>
         </is>
       </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K623" t="n">
+        <v>1</v>
       </c>
       <c r="L623" t="inlineStr"/>
       <c r="M623" t="inlineStr"/>
@@ -36223,10 +35727,8 @@
           <t>07:34:37.069000</t>
         </is>
       </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K624" t="n">
+        <v>1</v>
       </c>
       <c r="L624" t="inlineStr"/>
       <c r="M624" t="inlineStr"/>
@@ -36285,10 +35787,8 @@
           <t>07:35:54.571000</t>
         </is>
       </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K625" t="n">
+        <v>1</v>
       </c>
       <c r="L625" t="inlineStr"/>
       <c r="M625" t="inlineStr"/>
@@ -36347,10 +35847,8 @@
           <t>14:06:58.926000</t>
         </is>
       </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K626" t="n">
+        <v>1</v>
       </c>
       <c r="L626" t="inlineStr"/>
       <c r="M626" t="inlineStr"/>
@@ -36409,10 +35907,8 @@
           <t>11:20:08.349000</t>
         </is>
       </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K627" t="n">
+        <v>1</v>
       </c>
       <c r="L627" t="inlineStr"/>
       <c r="M627" t="inlineStr"/>
@@ -36471,10 +35967,8 @@
           <t>11:23:06.686000</t>
         </is>
       </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K628" t="n">
+        <v>1</v>
       </c>
       <c r="L628" t="inlineStr"/>
       <c r="M628" t="inlineStr"/>
@@ -36533,10 +36027,8 @@
           <t>11:26:33.459000</t>
         </is>
       </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K629" t="n">
+        <v>1</v>
       </c>
       <c r="L629" t="inlineStr"/>
       <c r="M629" t="inlineStr"/>
@@ -36595,10 +36087,8 @@
           <t>11:28:28.810000</t>
         </is>
       </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K630" t="n">
+        <v>1</v>
       </c>
       <c r="L630" t="inlineStr"/>
       <c r="M630" t="inlineStr"/>
@@ -36657,10 +36147,8 @@
           <t>11:29:33.270000</t>
         </is>
       </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K631" t="n">
+        <v>1</v>
       </c>
       <c r="L631" t="inlineStr"/>
       <c r="M631" t="inlineStr"/>
@@ -36715,10 +36203,8 @@
         <v>7</v>
       </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K632" t="n">
+        <v>0</v>
       </c>
       <c r="L632" t="inlineStr"/>
       <c r="M632" t="inlineStr"/>
@@ -39357,10 +38843,8 @@
           <t>12:09:27.288000</t>
         </is>
       </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K683" t="n">
+        <v>1</v>
       </c>
       <c r="L683" t="inlineStr"/>
       <c r="M683" t="inlineStr"/>
@@ -39639,10 +39123,8 @@
           <t>19:06:21.828000</t>
         </is>
       </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K688" t="n">
+        <v>1</v>
       </c>
       <c r="L688" t="inlineStr"/>
       <c r="M688" t="inlineStr"/>
@@ -42945,10 +42427,8 @@
           <t>16:36:30.327000</t>
         </is>
       </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K749" t="n">
+        <v>0</v>
       </c>
       <c r="L749" t="inlineStr"/>
       <c r="M749" t="inlineStr"/>
@@ -43007,10 +42487,8 @@
           <t>16:46:20.026000</t>
         </is>
       </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K750" t="n">
+        <v>1</v>
       </c>
       <c r="L750" t="inlineStr"/>
       <c r="M750" t="inlineStr"/>
@@ -43069,10 +42547,8 @@
           <t>16:48:23.079000</t>
         </is>
       </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K751" t="n">
+        <v>1</v>
       </c>
       <c r="L751" t="inlineStr"/>
       <c r="M751" t="inlineStr"/>
@@ -43131,10 +42607,8 @@
           <t>16:51:04.263000</t>
         </is>
       </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K752" t="n">
+        <v>1</v>
       </c>
       <c r="L752" t="inlineStr"/>
       <c r="M752" t="inlineStr"/>
@@ -43193,10 +42667,8 @@
           <t>16:53:26.953000</t>
         </is>
       </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K753" t="n">
+        <v>0</v>
       </c>
       <c r="L753" t="inlineStr"/>
       <c r="M753" t="inlineStr"/>
@@ -43255,10 +42727,8 @@
           <t>18:33:46.353000</t>
         </is>
       </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K754" t="n">
+        <v>1</v>
       </c>
       <c r="L754" t="inlineStr"/>
       <c r="M754" t="inlineStr"/>
@@ -43317,10 +42787,8 @@
           <t>18:35:36.925000</t>
         </is>
       </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K755" t="n">
+        <v>1</v>
       </c>
       <c r="L755" t="inlineStr"/>
       <c r="M755" t="inlineStr"/>
@@ -43379,10 +42847,8 @@
           <t>18:44:02.371000</t>
         </is>
       </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K756" t="n">
+        <v>0</v>
       </c>
       <c r="L756" t="inlineStr"/>
       <c r="M756" t="inlineStr"/>
@@ -43441,10 +42907,8 @@
           <t>19:39:56.665000</t>
         </is>
       </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K757" t="n">
+        <v>0</v>
       </c>
       <c r="L757" t="inlineStr"/>
       <c r="M757" t="inlineStr"/>
@@ -43503,10 +42967,8 @@
           <t>19:47:29.378000</t>
         </is>
       </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K758" t="n">
+        <v>1</v>
       </c>
       <c r="L758" t="inlineStr"/>
       <c r="M758" t="inlineStr"/>
@@ -43565,10 +43027,8 @@
           <t>19:49:34.016000</t>
         </is>
       </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K759" t="n">
+        <v>1</v>
       </c>
       <c r="L759" t="inlineStr"/>
       <c r="M759" t="inlineStr"/>
@@ -43627,10 +43087,8 @@
           <t>19:50:41.816000</t>
         </is>
       </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K760" t="n">
+        <v>1</v>
       </c>
       <c r="L760" t="inlineStr"/>
       <c r="M760" t="inlineStr"/>
@@ -43689,10 +43147,8 @@
           <t>19:51:49.616000</t>
         </is>
       </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K761" t="n">
+        <v>1</v>
       </c>
       <c r="L761" t="inlineStr"/>
       <c r="M761" t="inlineStr"/>
@@ -43751,10 +43207,8 @@
           <t>19:53:39.995000</t>
         </is>
       </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K762" t="n">
+        <v>1</v>
       </c>
       <c r="L762" t="inlineStr"/>
       <c r="M762" t="inlineStr"/>
@@ -43813,10 +43267,8 @@
           <t>21:34:59.842000</t>
         </is>
       </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K763" t="n">
+        <v>1</v>
       </c>
       <c r="L763" t="inlineStr"/>
       <c r="M763" t="inlineStr"/>
@@ -43875,10 +43327,8 @@
           <t>22:20:58.353000</t>
         </is>
       </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K764" t="n">
+        <v>1</v>
       </c>
       <c r="L764" t="inlineStr"/>
       <c r="M764" t="inlineStr"/>
@@ -43937,10 +43387,8 @@
           <t>22:23:08.695000</t>
         </is>
       </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K765" t="n">
+        <v>1</v>
       </c>
       <c r="L765" t="inlineStr"/>
       <c r="M765" t="inlineStr"/>
@@ -43999,10 +43447,8 @@
           <t>22:26:57.014000</t>
         </is>
       </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K766" t="n">
+        <v>1</v>
       </c>
       <c r="L766" t="inlineStr"/>
       <c r="M766" t="inlineStr"/>
@@ -44061,10 +43507,8 @@
           <t>22:28:18.738000</t>
         </is>
       </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K767" t="n">
+        <v>1</v>
       </c>
       <c r="L767" t="inlineStr"/>
       <c r="M767" t="inlineStr"/>
@@ -44123,10 +43567,8 @@
           <t>22:30:27.280000</t>
         </is>
       </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K768" t="n">
+        <v>1</v>
       </c>
       <c r="L768" t="inlineStr"/>
       <c r="M768" t="inlineStr"/>
@@ -44185,10 +43627,8 @@
           <t>22:32:11.695000</t>
         </is>
       </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K769" t="n">
+        <v>1</v>
       </c>
       <c r="L769" t="inlineStr"/>
       <c r="M769" t="inlineStr"/>
@@ -44247,10 +43687,8 @@
           <t>22:33:04.638000</t>
         </is>
       </c>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K770" t="n">
+        <v>1</v>
       </c>
       <c r="L770" t="inlineStr"/>
       <c r="M770" t="inlineStr"/>
@@ -44309,10 +43747,8 @@
           <t>23:01:44.466000</t>
         </is>
       </c>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K771" t="n">
+        <v>1</v>
       </c>
       <c r="L771" t="inlineStr"/>
       <c r="M771" t="inlineStr"/>
@@ -44371,10 +43807,8 @@
           <t>23:03:25.354000</t>
         </is>
       </c>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K772" t="n">
+        <v>1</v>
       </c>
       <c r="L772" t="inlineStr"/>
       <c r="M772" t="inlineStr"/>
@@ -44433,10 +43867,8 @@
           <t>23:05:42.083000</t>
         </is>
       </c>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K773" t="n">
+        <v>1</v>
       </c>
       <c r="L773" t="inlineStr"/>
       <c r="M773" t="inlineStr"/>
@@ -44495,10 +43927,8 @@
           <t>23:06:13.389000</t>
         </is>
       </c>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K774" t="n">
+        <v>1</v>
       </c>
       <c r="L774" t="inlineStr"/>
       <c r="M774" t="inlineStr"/>
@@ -44557,10 +43987,8 @@
           <t>23:07:47.421000</t>
         </is>
       </c>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K775" t="n">
+        <v>1</v>
       </c>
       <c r="L775" t="inlineStr"/>
       <c r="M775" t="inlineStr"/>
@@ -44619,10 +44047,8 @@
           <t>23:09:34.338000</t>
         </is>
       </c>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K776" t="n">
+        <v>1</v>
       </c>
       <c r="L776" t="inlineStr"/>
       <c r="M776" t="inlineStr"/>
@@ -44681,10 +44107,8 @@
           <t>23:11:50.969000</t>
         </is>
       </c>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K777" t="n">
+        <v>1</v>
       </c>
       <c r="L777" t="inlineStr"/>
       <c r="M777" t="inlineStr"/>
@@ -44743,10 +44167,8 @@
           <t>23:48:17.553000</t>
         </is>
       </c>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K778" t="n">
+        <v>1</v>
       </c>
       <c r="L778" t="inlineStr"/>
       <c r="M778" t="inlineStr"/>
@@ -44805,10 +44227,8 @@
           <t>23:50:34.634000</t>
         </is>
       </c>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K779" t="n">
+        <v>1</v>
       </c>
       <c r="L779" t="inlineStr"/>
       <c r="M779" t="inlineStr"/>
@@ -44867,10 +44287,8 @@
           <t>23:52:29.796000</t>
         </is>
       </c>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K780" t="n">
+        <v>1</v>
       </c>
       <c r="L780" t="inlineStr"/>
       <c r="M780" t="inlineStr"/>
@@ -44929,10 +44347,8 @@
           <t>23:55:11.322000</t>
         </is>
       </c>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K781" t="n">
+        <v>0</v>
       </c>
       <c r="L781" t="inlineStr"/>
       <c r="M781" t="inlineStr"/>
@@ -44991,10 +44407,8 @@
           <t>14:24:45.531000</t>
         </is>
       </c>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K782" t="n">
+        <v>1</v>
       </c>
       <c r="L782" t="inlineStr"/>
       <c r="M782" t="inlineStr"/>
@@ -45053,10 +44467,8 @@
           <t>14:27:26.440000</t>
         </is>
       </c>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K783" t="n">
+        <v>1</v>
       </c>
       <c r="L783" t="inlineStr"/>
       <c r="M783" t="inlineStr"/>
@@ -45115,10 +44527,8 @@
           <t>14:29:20.617000</t>
         </is>
       </c>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K784" t="n">
+        <v>1</v>
       </c>
       <c r="L784" t="inlineStr"/>
       <c r="M784" t="inlineStr"/>
@@ -45177,10 +44587,8 @@
           <t>14:32:18.872000</t>
         </is>
       </c>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K785" t="n">
+        <v>1</v>
       </c>
       <c r="L785" t="inlineStr"/>
       <c r="M785" t="inlineStr"/>
@@ -45239,10 +44647,8 @@
           <t>16:40:24.051000</t>
         </is>
       </c>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K786" t="n">
+        <v>1</v>
       </c>
       <c r="L786" t="inlineStr"/>
       <c r="M786" t="inlineStr"/>
@@ -45301,10 +44707,8 @@
           <t>16:42:47.455000</t>
         </is>
       </c>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K787" t="n">
+        <v>1</v>
       </c>
       <c r="L787" t="inlineStr"/>
       <c r="M787" t="inlineStr"/>
@@ -45363,10 +44767,8 @@
           <t>16:44:06.607000</t>
         </is>
       </c>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K788" t="n">
+        <v>1</v>
       </c>
       <c r="L788" t="inlineStr"/>
       <c r="M788" t="inlineStr"/>
@@ -45425,10 +44827,8 @@
           <t>16:47:55.758000</t>
         </is>
       </c>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K789" t="n">
+        <v>1</v>
       </c>
       <c r="L789" t="inlineStr"/>
       <c r="M789" t="inlineStr"/>
@@ -45487,10 +44887,8 @@
           <t>16:49:29.325000</t>
         </is>
       </c>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K790" t="n">
+        <v>1</v>
       </c>
       <c r="L790" t="inlineStr"/>
       <c r="M790" t="inlineStr"/>
@@ -45549,10 +44947,8 @@
           <t>17:36:29.373000</t>
         </is>
       </c>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K791" t="n">
+        <v>1</v>
       </c>
       <c r="L791" t="inlineStr"/>
       <c r="M791" t="inlineStr"/>
@@ -45611,10 +45007,8 @@
           <t>17:38:08.582000</t>
         </is>
       </c>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K792" t="n">
+        <v>1</v>
       </c>
       <c r="L792" t="inlineStr"/>
       <c r="M792" t="inlineStr"/>
@@ -45673,10 +45067,8 @@
           <t>17:41:01.371000</t>
         </is>
       </c>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K793" t="n">
+        <v>1</v>
       </c>
       <c r="L793" t="inlineStr"/>
       <c r="M793" t="inlineStr"/>
@@ -45735,10 +45127,8 @@
           <t>17:42:23.963000</t>
         </is>
       </c>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K794" t="n">
+        <v>1</v>
       </c>
       <c r="L794" t="inlineStr"/>
       <c r="M794" t="inlineStr"/>
@@ -45797,10 +45187,8 @@
           <t>17:45:54.221000</t>
         </is>
       </c>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K795" t="n">
+        <v>1</v>
       </c>
       <c r="L795" t="inlineStr"/>
       <c r="M795" t="inlineStr"/>
@@ -45859,10 +45247,8 @@
           <t>17:48:09.507000</t>
         </is>
       </c>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K796" t="n">
+        <v>1</v>
       </c>
       <c r="L796" t="inlineStr"/>
       <c r="M796" t="inlineStr"/>
@@ -45921,10 +45307,8 @@
           <t>17:50:39.797000</t>
         </is>
       </c>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K797" t="n">
+        <v>1</v>
       </c>
       <c r="L797" t="inlineStr"/>
       <c r="M797" t="inlineStr"/>
@@ -45983,10 +45367,8 @@
           <t>17:51:23.300000</t>
         </is>
       </c>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K798" t="n">
+        <v>1</v>
       </c>
       <c r="L798" t="inlineStr"/>
       <c r="M798" t="inlineStr"/>
@@ -46045,10 +45427,8 @@
           <t>18:17:53.299000</t>
         </is>
       </c>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K799" t="n">
+        <v>1</v>
       </c>
       <c r="L799" t="inlineStr"/>
       <c r="M799" t="inlineStr"/>
@@ -46107,10 +45487,8 @@
           <t>18:51:32.337000</t>
         </is>
       </c>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K800" t="n">
+        <v>1</v>
       </c>
       <c r="L800" t="inlineStr"/>
       <c r="M800" t="inlineStr"/>
@@ -46169,10 +45547,8 @@
           <t>18:57:14.216000</t>
         </is>
       </c>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K801" t="n">
+        <v>0</v>
       </c>
       <c r="L801" t="inlineStr"/>
       <c r="M801" t="inlineStr"/>
@@ -46231,10 +45607,8 @@
           <t>19:04:12.342000</t>
         </is>
       </c>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K802" t="n">
+        <v>1</v>
       </c>
       <c r="L802" t="inlineStr"/>
       <c r="M802" t="inlineStr"/>
@@ -46293,10 +45667,8 @@
           <t>19:08:47.206000</t>
         </is>
       </c>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K803" t="n">
+        <v>1</v>
       </c>
       <c r="L803" t="inlineStr"/>
       <c r="M803" t="inlineStr"/>
@@ -46355,10 +45727,8 @@
           <t>21:27:36.686000</t>
         </is>
       </c>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K804" t="n">
+        <v>1</v>
       </c>
       <c r="L804" t="inlineStr"/>
       <c r="M804" t="inlineStr"/>
@@ -46417,10 +45787,8 @@
           <t>21:31:22.361000</t>
         </is>
       </c>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K805" t="n">
+        <v>0</v>
       </c>
       <c r="L805" t="inlineStr"/>
       <c r="M805" t="inlineStr"/>
@@ -46479,10 +45847,8 @@
           <t>09:24:57.343000</t>
         </is>
       </c>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K806" t="n">
+        <v>1</v>
       </c>
       <c r="L806" t="inlineStr"/>
       <c r="M806" t="inlineStr"/>
@@ -46541,10 +45907,8 @@
           <t>09:27:47.091000</t>
         </is>
       </c>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K807" t="n">
+        <v>1</v>
       </c>
       <c r="L807" t="inlineStr"/>
       <c r="M807" t="inlineStr"/>
@@ -46603,10 +45967,8 @@
           <t>09:29:58.055000</t>
         </is>
       </c>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K808" t="n">
+        <v>1</v>
       </c>
       <c r="L808" t="inlineStr"/>
       <c r="M808" t="inlineStr"/>
@@ -46665,10 +46027,8 @@
           <t>09:31:51.007000</t>
         </is>
       </c>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K809" t="n">
+        <v>1</v>
       </c>
       <c r="L809" t="inlineStr"/>
       <c r="M809" t="inlineStr"/>
@@ -46727,10 +46087,8 @@
           <t>11:44:31.935000</t>
         </is>
       </c>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K810" t="n">
+        <v>1</v>
       </c>
       <c r="L810" t="inlineStr"/>
       <c r="M810" t="inlineStr"/>
@@ -46789,10 +46147,8 @@
           <t>15:39:10.692000</t>
         </is>
       </c>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K811" t="n">
+        <v>1</v>
       </c>
       <c r="L811" t="inlineStr"/>
       <c r="M811" t="inlineStr"/>
@@ -46851,10 +46207,8 @@
           <t>15:40:21.432000</t>
         </is>
       </c>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K812" t="n">
+        <v>1</v>
       </c>
       <c r="L812" t="inlineStr"/>
       <c r="M812" t="inlineStr"/>
@@ -46913,10 +46267,8 @@
           <t>15:44:13.677000</t>
         </is>
       </c>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K813" t="n">
+        <v>1</v>
       </c>
       <c r="L813" t="inlineStr"/>
       <c r="M813" t="inlineStr"/>
@@ -46975,10 +46327,8 @@
           <t>15:46:39.955000</t>
         </is>
       </c>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K814" t="n">
+        <v>1</v>
       </c>
       <c r="L814" t="inlineStr"/>
       <c r="M814" t="inlineStr"/>
@@ -47037,10 +46387,8 @@
           <t>15:52:31.901000</t>
         </is>
       </c>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K815" t="n">
+        <v>1</v>
       </c>
       <c r="L815" t="inlineStr"/>
       <c r="M815" t="inlineStr"/>
@@ -47099,10 +46447,8 @@
           <t>15:53:53.253000</t>
         </is>
       </c>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K816" t="n">
+        <v>1</v>
       </c>
       <c r="L816" t="inlineStr"/>
       <c r="M816" t="inlineStr"/>
@@ -47161,10 +46507,8 @@
           <t>15:57:40.763000</t>
         </is>
       </c>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K817" t="n">
+        <v>1</v>
       </c>
       <c r="L817" t="inlineStr"/>
       <c r="M817" t="inlineStr"/>
@@ -47223,10 +46567,8 @@
           <t>15:58:50.732000</t>
         </is>
       </c>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K818" t="n">
+        <v>1</v>
       </c>
       <c r="L818" t="inlineStr"/>
       <c r="M818" t="inlineStr"/>
@@ -47285,10 +46627,8 @@
           <t>16:04:26.398000</t>
         </is>
       </c>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K819" t="n">
+        <v>1</v>
       </c>
       <c r="L819" t="inlineStr"/>
       <c r="M819" t="inlineStr"/>
@@ -47347,10 +46687,8 @@
           <t>16:05:47.497000</t>
         </is>
       </c>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K820" t="n">
+        <v>1</v>
       </c>
       <c r="L820" t="inlineStr"/>
       <c r="M820" t="inlineStr"/>
@@ -47409,10 +46747,8 @@
           <t>16:10:54.029000</t>
         </is>
       </c>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K821" t="n">
+        <v>1</v>
       </c>
       <c r="L821" t="inlineStr"/>
       <c r="M821" t="inlineStr"/>
@@ -47471,10 +46807,8 @@
           <t>16:14:20.233000</t>
         </is>
       </c>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K822" t="n">
+        <v>1</v>
       </c>
       <c r="L822" t="inlineStr"/>
       <c r="M822" t="inlineStr"/>
@@ -47533,10 +46867,8 @@
           <t>21:13:09.879000</t>
         </is>
       </c>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K823" t="n">
+        <v>1</v>
       </c>
       <c r="L823" t="inlineStr"/>
       <c r="M823" t="inlineStr"/>
@@ -47595,10 +46927,8 @@
           <t>21:15:27.716000</t>
         </is>
       </c>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K824" t="n">
+        <v>1</v>
       </c>
       <c r="L824" t="inlineStr"/>
       <c r="M824" t="inlineStr"/>
@@ -47657,10 +46987,8 @@
           <t>21:19:23.952000</t>
         </is>
       </c>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K825" t="n">
+        <v>1</v>
       </c>
       <c r="L825" t="inlineStr"/>
       <c r="M825" t="inlineStr"/>
@@ -47719,10 +47047,8 @@
           <t>21:27:27.686000</t>
         </is>
       </c>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K826" t="n">
+        <v>1</v>
       </c>
       <c r="L826" t="inlineStr"/>
       <c r="M826" t="inlineStr"/>
@@ -47781,10 +47107,8 @@
           <t>21:32:15.725000</t>
         </is>
       </c>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K827" t="n">
+        <v>1</v>
       </c>
       <c r="L827" t="inlineStr"/>
       <c r="M827" t="inlineStr"/>
@@ -48871,10 +48195,8 @@
           <t>20:23:38.026000</t>
         </is>
       </c>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K848" t="n">
+        <v>0</v>
       </c>
       <c r="L848" t="inlineStr"/>
       <c r="M848" t="inlineStr"/>
@@ -48933,10 +48255,8 @@
           <t>20:27:14.261000</t>
         </is>
       </c>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K849" t="n">
+        <v>1</v>
       </c>
       <c r="L849" t="inlineStr"/>
       <c r="M849" t="inlineStr"/>
@@ -48995,10 +48315,8 @@
           <t>19:41:46.071000</t>
         </is>
       </c>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="K850" t="n">
+        <v>1</v>
       </c>
       <c r="L850" t="inlineStr"/>
       <c r="M850" t="inlineStr"/>
@@ -49053,10 +48371,8 @@
         <v>4</v>
       </c>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+      <c r="K851" t="n">
+        <v>0</v>
       </c>
       <c r="L851" t="inlineStr"/>
       <c r="M851" t="inlineStr"/>

--- a/generators/dark_patterns_data.xlsx
+++ b/generators/dark_patterns_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ882"/>
+  <dimension ref="A1:AM882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -604,15 +604,30 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>patternrecgonition</t>
+          <t>patterninfluence</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>patterninfluence</t>
+          <t>pushreceived</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>pushfrequency</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>pushtimes</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>pushbettertimes</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
@@ -671,6 +686,9 @@
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -725,6 +743,9 @@
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -779,6 +800,9 @@
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -833,6 +857,9 @@
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -887,6 +914,9 @@
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -941,6 +971,9 @@
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -995,6 +1028,9 @@
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1049,6 +1085,9 @@
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1103,6 +1142,9 @@
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1157,6 +1199,9 @@
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1211,6 +1256,9 @@
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1265,6 +1313,9 @@
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1319,6 +1370,9 @@
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1373,6 +1427,9 @@
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1427,6 +1484,9 @@
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1481,6 +1541,9 @@
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1535,6 +1598,9 @@
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1589,6 +1655,9 @@
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1643,6 +1712,9 @@
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1697,6 +1769,9 @@
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1751,6 +1826,9 @@
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1805,6 +1883,9 @@
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1859,6 +1940,9 @@
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1913,6 +1997,9 @@
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1967,6 +2054,9 @@
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2021,6 +2111,9 @@
       <c r="AH27" t="inlineStr"/>
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2075,6 +2168,9 @@
       <c r="AH28" t="inlineStr"/>
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2129,6 +2225,9 @@
       <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2183,6 +2282,9 @@
       <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2237,6 +2339,9 @@
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2291,6 +2396,9 @@
       <c r="AH32" t="inlineStr"/>
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2345,6 +2453,9 @@
       <c r="AH33" t="inlineStr"/>
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2399,6 +2510,9 @@
       <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2453,6 +2567,9 @@
       <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2507,6 +2624,9 @@
       <c r="AH36" t="inlineStr"/>
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2561,6 +2681,9 @@
       <c r="AH37" t="inlineStr"/>
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2615,6 +2738,9 @@
       <c r="AH38" t="inlineStr"/>
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2669,6 +2795,9 @@
       <c r="AH39" t="inlineStr"/>
       <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2723,6 +2852,9 @@
       <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2777,6 +2909,9 @@
       <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2831,6 +2966,9 @@
       <c r="AH42" t="inlineStr"/>
       <c r="AI42" t="inlineStr"/>
       <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2885,6 +3023,9 @@
       <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2945,6 +3086,9 @@
       <c r="AH44" t="inlineStr"/>
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3005,6 +3149,9 @@
       <c r="AH45" t="inlineStr"/>
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3065,6 +3212,9 @@
       <c r="AH46" t="inlineStr"/>
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3125,6 +3275,9 @@
       <c r="AH47" t="inlineStr"/>
       <c r="AI47" t="inlineStr"/>
       <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3185,6 +3338,9 @@
       <c r="AH48" t="inlineStr"/>
       <c r="AI48" t="inlineStr"/>
       <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3245,6 +3401,9 @@
       <c r="AH49" t="inlineStr"/>
       <c r="AI49" t="inlineStr"/>
       <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3305,6 +3464,9 @@
       <c r="AH50" t="inlineStr"/>
       <c r="AI50" t="inlineStr"/>
       <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3365,6 +3527,9 @@
       <c r="AH51" t="inlineStr"/>
       <c r="AI51" t="inlineStr"/>
       <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3425,6 +3590,9 @@
       <c r="AH52" t="inlineStr"/>
       <c r="AI52" t="inlineStr"/>
       <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3485,6 +3653,9 @@
       <c r="AH53" t="inlineStr"/>
       <c r="AI53" t="inlineStr"/>
       <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3541,6 +3712,9 @@
       <c r="AH54" t="inlineStr"/>
       <c r="AI54" t="inlineStr"/>
       <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3597,6 +3771,9 @@
       <c r="AH55" t="inlineStr"/>
       <c r="AI55" t="inlineStr"/>
       <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3647,6 +3824,9 @@
       <c r="AH56" t="inlineStr"/>
       <c r="AI56" t="inlineStr"/>
       <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3697,6 +3877,9 @@
       <c r="AH57" t="inlineStr"/>
       <c r="AI57" t="inlineStr"/>
       <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3747,6 +3930,9 @@
       <c r="AH58" t="inlineStr"/>
       <c r="AI58" t="inlineStr"/>
       <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3797,6 +3983,9 @@
       <c r="AH59" t="inlineStr"/>
       <c r="AI59" t="inlineStr"/>
       <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3847,6 +4036,9 @@
       <c r="AH60" t="inlineStr"/>
       <c r="AI60" t="inlineStr"/>
       <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3897,6 +4089,9 @@
       <c r="AH61" t="inlineStr"/>
       <c r="AI61" t="inlineStr"/>
       <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3947,6 +4142,9 @@
       <c r="AH62" t="inlineStr"/>
       <c r="AI62" t="inlineStr"/>
       <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3997,6 +4195,9 @@
       <c r="AH63" t="inlineStr"/>
       <c r="AI63" t="inlineStr"/>
       <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4047,6 +4248,9 @@
       <c r="AH64" t="inlineStr"/>
       <c r="AI64" t="inlineStr"/>
       <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4097,6 +4301,9 @@
       <c r="AH65" t="inlineStr"/>
       <c r="AI65" t="inlineStr"/>
       <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4147,6 +4354,9 @@
       <c r="AH66" t="inlineStr"/>
       <c r="AI66" t="inlineStr"/>
       <c r="AJ66" t="inlineStr"/>
+      <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4197,6 +4407,9 @@
       <c r="AH67" t="inlineStr"/>
       <c r="AI67" t="inlineStr"/>
       <c r="AJ67" t="inlineStr"/>
+      <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4247,6 +4460,9 @@
       <c r="AH68" t="inlineStr"/>
       <c r="AI68" t="inlineStr"/>
       <c r="AJ68" t="inlineStr"/>
+      <c r="AK68" t="inlineStr"/>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4297,6 +4513,9 @@
       <c r="AH69" t="inlineStr"/>
       <c r="AI69" t="inlineStr"/>
       <c r="AJ69" t="inlineStr"/>
+      <c r="AK69" t="inlineStr"/>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4347,6 +4566,9 @@
       <c r="AH70" t="inlineStr"/>
       <c r="AI70" t="inlineStr"/>
       <c r="AJ70" t="inlineStr"/>
+      <c r="AK70" t="inlineStr"/>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4397,6 +4619,9 @@
       <c r="AH71" t="inlineStr"/>
       <c r="AI71" t="inlineStr"/>
       <c r="AJ71" t="inlineStr"/>
+      <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4447,6 +4672,9 @@
       <c r="AH72" t="inlineStr"/>
       <c r="AI72" t="inlineStr"/>
       <c r="AJ72" t="inlineStr"/>
+      <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4499,15 +4727,19 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W73" t="inlineStr"/>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="X73" t="inlineStr">
         <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="Y73" t="inlineStr">
-        <is>
-          <t>.5</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr"/>
@@ -4521,6 +4753,9 @@
       <c r="AH73" t="inlineStr"/>
       <c r="AI73" t="inlineStr"/>
       <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4573,32 +4808,71 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W74" t="inlineStr"/>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="X74" t="inlineStr">
         <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y74" t="inlineStr">
-        <is>
-          <t>.5</t>
-        </is>
-      </c>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>['ID: 1-1', 'ID: 3-1', 'ID: 5-2', 'ID: 6-2', 'ID: 7-4', 'ID: 8-1', 'ID: 9-1', 'ID: 10-0', 'ID: 12-tolles Spiel ']</t>
-        </is>
-      </c>
+      <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="inlineStr"/>
-      <c r="AC74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AD74" t="inlineStr"/>
-      <c r="AE74" t="inlineStr"/>
-      <c r="AF74" t="inlineStr"/>
-      <c r="AG74" t="inlineStr"/>
-      <c r="AH74" t="inlineStr"/>
-      <c r="AI74" t="inlineStr"/>
-      <c r="AJ74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AG74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AI74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL74" t="inlineStr"/>
+      <c r="AM74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tolles Spiel </t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -4637,6 +4911,9 @@
       <c r="AH75" t="inlineStr"/>
       <c r="AI75" t="inlineStr"/>
       <c r="AJ75" t="inlineStr"/>
+      <c r="AK75" t="inlineStr"/>
+      <c r="AL75" t="inlineStr"/>
+      <c r="AM75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4691,6 +4968,9 @@
       <c r="AH76" t="inlineStr"/>
       <c r="AI76" t="inlineStr"/>
       <c r="AJ76" t="inlineStr"/>
+      <c r="AK76" t="inlineStr"/>
+      <c r="AL76" t="inlineStr"/>
+      <c r="AM76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4745,6 +5025,9 @@
       <c r="AH77" t="inlineStr"/>
       <c r="AI77" t="inlineStr"/>
       <c r="AJ77" t="inlineStr"/>
+      <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="inlineStr"/>
+      <c r="AM77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4799,6 +5082,9 @@
       <c r="AH78" t="inlineStr"/>
       <c r="AI78" t="inlineStr"/>
       <c r="AJ78" t="inlineStr"/>
+      <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="inlineStr"/>
+      <c r="AM78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4853,6 +5139,9 @@
       <c r="AH79" t="inlineStr"/>
       <c r="AI79" t="inlineStr"/>
       <c r="AJ79" t="inlineStr"/>
+      <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4907,6 +5196,9 @@
       <c r="AH80" t="inlineStr"/>
       <c r="AI80" t="inlineStr"/>
       <c r="AJ80" t="inlineStr"/>
+      <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="inlineStr"/>
+      <c r="AM80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4961,6 +5253,9 @@
       <c r="AH81" t="inlineStr"/>
       <c r="AI81" t="inlineStr"/>
       <c r="AJ81" t="inlineStr"/>
+      <c r="AK81" t="inlineStr"/>
+      <c r="AL81" t="inlineStr"/>
+      <c r="AM81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5015,6 +5310,9 @@
       <c r="AH82" t="inlineStr"/>
       <c r="AI82" t="inlineStr"/>
       <c r="AJ82" t="inlineStr"/>
+      <c r="AK82" t="inlineStr"/>
+      <c r="AL82" t="inlineStr"/>
+      <c r="AM82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5069,6 +5367,9 @@
       <c r="AH83" t="inlineStr"/>
       <c r="AI83" t="inlineStr"/>
       <c r="AJ83" t="inlineStr"/>
+      <c r="AK83" t="inlineStr"/>
+      <c r="AL83" t="inlineStr"/>
+      <c r="AM83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5123,6 +5424,9 @@
       <c r="AH84" t="inlineStr"/>
       <c r="AI84" t="inlineStr"/>
       <c r="AJ84" t="inlineStr"/>
+      <c r="AK84" t="inlineStr"/>
+      <c r="AL84" t="inlineStr"/>
+      <c r="AM84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5177,6 +5481,9 @@
       <c r="AH85" t="inlineStr"/>
       <c r="AI85" t="inlineStr"/>
       <c r="AJ85" t="inlineStr"/>
+      <c r="AK85" t="inlineStr"/>
+      <c r="AL85" t="inlineStr"/>
+      <c r="AM85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5231,6 +5538,9 @@
       <c r="AH86" t="inlineStr"/>
       <c r="AI86" t="inlineStr"/>
       <c r="AJ86" t="inlineStr"/>
+      <c r="AK86" t="inlineStr"/>
+      <c r="AL86" t="inlineStr"/>
+      <c r="AM86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5285,6 +5595,9 @@
       <c r="AH87" t="inlineStr"/>
       <c r="AI87" t="inlineStr"/>
       <c r="AJ87" t="inlineStr"/>
+      <c r="AK87" t="inlineStr"/>
+      <c r="AL87" t="inlineStr"/>
+      <c r="AM87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5345,6 +5658,9 @@
       <c r="AH88" t="inlineStr"/>
       <c r="AI88" t="inlineStr"/>
       <c r="AJ88" t="inlineStr"/>
+      <c r="AK88" t="inlineStr"/>
+      <c r="AL88" t="inlineStr"/>
+      <c r="AM88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5405,6 +5721,9 @@
       <c r="AH89" t="inlineStr"/>
       <c r="AI89" t="inlineStr"/>
       <c r="AJ89" t="inlineStr"/>
+      <c r="AK89" t="inlineStr"/>
+      <c r="AL89" t="inlineStr"/>
+      <c r="AM89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5465,6 +5784,9 @@
       <c r="AH90" t="inlineStr"/>
       <c r="AI90" t="inlineStr"/>
       <c r="AJ90" t="inlineStr"/>
+      <c r="AK90" t="inlineStr"/>
+      <c r="AL90" t="inlineStr"/>
+      <c r="AM90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5525,6 +5847,9 @@
       <c r="AH91" t="inlineStr"/>
       <c r="AI91" t="inlineStr"/>
       <c r="AJ91" t="inlineStr"/>
+      <c r="AK91" t="inlineStr"/>
+      <c r="AL91" t="inlineStr"/>
+      <c r="AM91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5585,6 +5910,9 @@
       <c r="AH92" t="inlineStr"/>
       <c r="AI92" t="inlineStr"/>
       <c r="AJ92" t="inlineStr"/>
+      <c r="AK92" t="inlineStr"/>
+      <c r="AL92" t="inlineStr"/>
+      <c r="AM92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5645,6 +5973,9 @@
       <c r="AH93" t="inlineStr"/>
       <c r="AI93" t="inlineStr"/>
       <c r="AJ93" t="inlineStr"/>
+      <c r="AK93" t="inlineStr"/>
+      <c r="AL93" t="inlineStr"/>
+      <c r="AM93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5695,6 +6026,9 @@
       <c r="AH94" t="inlineStr"/>
       <c r="AI94" t="inlineStr"/>
       <c r="AJ94" t="inlineStr"/>
+      <c r="AK94" t="inlineStr"/>
+      <c r="AL94" t="inlineStr"/>
+      <c r="AM94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5745,6 +6079,9 @@
       <c r="AH95" t="inlineStr"/>
       <c r="AI95" t="inlineStr"/>
       <c r="AJ95" t="inlineStr"/>
+      <c r="AK95" t="inlineStr"/>
+      <c r="AL95" t="inlineStr"/>
+      <c r="AM95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5795,6 +6132,9 @@
       <c r="AH96" t="inlineStr"/>
       <c r="AI96" t="inlineStr"/>
       <c r="AJ96" t="inlineStr"/>
+      <c r="AK96" t="inlineStr"/>
+      <c r="AL96" t="inlineStr"/>
+      <c r="AM96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5845,6 +6185,9 @@
       <c r="AH97" t="inlineStr"/>
       <c r="AI97" t="inlineStr"/>
       <c r="AJ97" t="inlineStr"/>
+      <c r="AK97" t="inlineStr"/>
+      <c r="AL97" t="inlineStr"/>
+      <c r="AM97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -5895,6 +6238,9 @@
       <c r="AH98" t="inlineStr"/>
       <c r="AI98" t="inlineStr"/>
       <c r="AJ98" t="inlineStr"/>
+      <c r="AK98" t="inlineStr"/>
+      <c r="AL98" t="inlineStr"/>
+      <c r="AM98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5945,6 +6291,9 @@
       <c r="AH99" t="inlineStr"/>
       <c r="AI99" t="inlineStr"/>
       <c r="AJ99" t="inlineStr"/>
+      <c r="AK99" t="inlineStr"/>
+      <c r="AL99" t="inlineStr"/>
+      <c r="AM99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -5995,6 +6344,9 @@
       <c r="AH100" t="inlineStr"/>
       <c r="AI100" t="inlineStr"/>
       <c r="AJ100" t="inlineStr"/>
+      <c r="AK100" t="inlineStr"/>
+      <c r="AL100" t="inlineStr"/>
+      <c r="AM100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6047,15 +6399,19 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W101" t="inlineStr"/>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr"/>
@@ -6069,6 +6425,9 @@
       <c r="AH101" t="inlineStr"/>
       <c r="AI101" t="inlineStr"/>
       <c r="AJ101" t="inlineStr"/>
+      <c r="AK101" t="inlineStr"/>
+      <c r="AL101" t="inlineStr"/>
+      <c r="AM101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6121,32 +6480,47 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W102" t="inlineStr"/>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z102" t="inlineStr">
-        <is>
-          <t>['ID: 1-2', 'ID: 2-3', 'ID: 3-0']</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr"/>
-      <c r="AC102" t="inlineStr"/>
-      <c r="AD102" t="inlineStr"/>
-      <c r="AE102" t="inlineStr"/>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AD102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AE102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AF102" t="inlineStr"/>
       <c r="AG102" t="inlineStr"/>
       <c r="AH102" t="inlineStr"/>
       <c r="AI102" t="inlineStr"/>
       <c r="AJ102" t="inlineStr"/>
+      <c r="AK102" t="inlineStr"/>
+      <c r="AL102" t="inlineStr"/>
+      <c r="AM102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -6185,6 +6559,9 @@
       <c r="AH103" t="inlineStr"/>
       <c r="AI103" t="inlineStr"/>
       <c r="AJ103" t="inlineStr"/>
+      <c r="AK103" t="inlineStr"/>
+      <c r="AL103" t="inlineStr"/>
+      <c r="AM103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6239,6 +6616,9 @@
       <c r="AH104" t="inlineStr"/>
       <c r="AI104" t="inlineStr"/>
       <c r="AJ104" t="inlineStr"/>
+      <c r="AK104" t="inlineStr"/>
+      <c r="AL104" t="inlineStr"/>
+      <c r="AM104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6293,6 +6673,9 @@
       <c r="AH105" t="inlineStr"/>
       <c r="AI105" t="inlineStr"/>
       <c r="AJ105" t="inlineStr"/>
+      <c r="AK105" t="inlineStr"/>
+      <c r="AL105" t="inlineStr"/>
+      <c r="AM105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6347,6 +6730,9 @@
       <c r="AH106" t="inlineStr"/>
       <c r="AI106" t="inlineStr"/>
       <c r="AJ106" t="inlineStr"/>
+      <c r="AK106" t="inlineStr"/>
+      <c r="AL106" t="inlineStr"/>
+      <c r="AM106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6401,6 +6787,9 @@
       <c r="AH107" t="inlineStr"/>
       <c r="AI107" t="inlineStr"/>
       <c r="AJ107" t="inlineStr"/>
+      <c r="AK107" t="inlineStr"/>
+      <c r="AL107" t="inlineStr"/>
+      <c r="AM107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6455,6 +6844,9 @@
       <c r="AH108" t="inlineStr"/>
       <c r="AI108" t="inlineStr"/>
       <c r="AJ108" t="inlineStr"/>
+      <c r="AK108" t="inlineStr"/>
+      <c r="AL108" t="inlineStr"/>
+      <c r="AM108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6509,6 +6901,9 @@
       <c r="AH109" t="inlineStr"/>
       <c r="AI109" t="inlineStr"/>
       <c r="AJ109" t="inlineStr"/>
+      <c r="AK109" t="inlineStr"/>
+      <c r="AL109" t="inlineStr"/>
+      <c r="AM109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6563,6 +6958,9 @@
       <c r="AH110" t="inlineStr"/>
       <c r="AI110" t="inlineStr"/>
       <c r="AJ110" t="inlineStr"/>
+      <c r="AK110" t="inlineStr"/>
+      <c r="AL110" t="inlineStr"/>
+      <c r="AM110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -6617,6 +7015,9 @@
       <c r="AH111" t="inlineStr"/>
       <c r="AI111" t="inlineStr"/>
       <c r="AJ111" t="inlineStr"/>
+      <c r="AK111" t="inlineStr"/>
+      <c r="AL111" t="inlineStr"/>
+      <c r="AM111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -6671,6 +7072,9 @@
       <c r="AH112" t="inlineStr"/>
       <c r="AI112" t="inlineStr"/>
       <c r="AJ112" t="inlineStr"/>
+      <c r="AK112" t="inlineStr"/>
+      <c r="AL112" t="inlineStr"/>
+      <c r="AM112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -6725,6 +7129,9 @@
       <c r="AH113" t="inlineStr"/>
       <c r="AI113" t="inlineStr"/>
       <c r="AJ113" t="inlineStr"/>
+      <c r="AK113" t="inlineStr"/>
+      <c r="AL113" t="inlineStr"/>
+      <c r="AM113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -6779,6 +7186,9 @@
       <c r="AH114" t="inlineStr"/>
       <c r="AI114" t="inlineStr"/>
       <c r="AJ114" t="inlineStr"/>
+      <c r="AK114" t="inlineStr"/>
+      <c r="AL114" t="inlineStr"/>
+      <c r="AM114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -6833,6 +7243,9 @@
       <c r="AH115" t="inlineStr"/>
       <c r="AI115" t="inlineStr"/>
       <c r="AJ115" t="inlineStr"/>
+      <c r="AK115" t="inlineStr"/>
+      <c r="AL115" t="inlineStr"/>
+      <c r="AM115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -6887,6 +7300,9 @@
       <c r="AH116" t="inlineStr"/>
       <c r="AI116" t="inlineStr"/>
       <c r="AJ116" t="inlineStr"/>
+      <c r="AK116" t="inlineStr"/>
+      <c r="AL116" t="inlineStr"/>
+      <c r="AM116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -6941,6 +7357,9 @@
       <c r="AH117" t="inlineStr"/>
       <c r="AI117" t="inlineStr"/>
       <c r="AJ117" t="inlineStr"/>
+      <c r="AK117" t="inlineStr"/>
+      <c r="AL117" t="inlineStr"/>
+      <c r="AM117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -6995,6 +7414,9 @@
       <c r="AH118" t="inlineStr"/>
       <c r="AI118" t="inlineStr"/>
       <c r="AJ118" t="inlineStr"/>
+      <c r="AK118" t="inlineStr"/>
+      <c r="AL118" t="inlineStr"/>
+      <c r="AM118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7049,6 +7471,9 @@
       <c r="AH119" t="inlineStr"/>
       <c r="AI119" t="inlineStr"/>
       <c r="AJ119" t="inlineStr"/>
+      <c r="AK119" t="inlineStr"/>
+      <c r="AL119" t="inlineStr"/>
+      <c r="AM119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7103,6 +7528,9 @@
       <c r="AH120" t="inlineStr"/>
       <c r="AI120" t="inlineStr"/>
       <c r="AJ120" t="inlineStr"/>
+      <c r="AK120" t="inlineStr"/>
+      <c r="AL120" t="inlineStr"/>
+      <c r="AM120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -7157,6 +7585,9 @@
       <c r="AH121" t="inlineStr"/>
       <c r="AI121" t="inlineStr"/>
       <c r="AJ121" t="inlineStr"/>
+      <c r="AK121" t="inlineStr"/>
+      <c r="AL121" t="inlineStr"/>
+      <c r="AM121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7211,6 +7642,9 @@
       <c r="AH122" t="inlineStr"/>
       <c r="AI122" t="inlineStr"/>
       <c r="AJ122" t="inlineStr"/>
+      <c r="AK122" t="inlineStr"/>
+      <c r="AL122" t="inlineStr"/>
+      <c r="AM122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7271,6 +7705,9 @@
       <c r="AH123" t="inlineStr"/>
       <c r="AI123" t="inlineStr"/>
       <c r="AJ123" t="inlineStr"/>
+      <c r="AK123" t="inlineStr"/>
+      <c r="AL123" t="inlineStr"/>
+      <c r="AM123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7331,6 +7768,9 @@
       <c r="AH124" t="inlineStr"/>
       <c r="AI124" t="inlineStr"/>
       <c r="AJ124" t="inlineStr"/>
+      <c r="AK124" t="inlineStr"/>
+      <c r="AL124" t="inlineStr"/>
+      <c r="AM124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7391,6 +7831,9 @@
       <c r="AH125" t="inlineStr"/>
       <c r="AI125" t="inlineStr"/>
       <c r="AJ125" t="inlineStr"/>
+      <c r="AK125" t="inlineStr"/>
+      <c r="AL125" t="inlineStr"/>
+      <c r="AM125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7451,6 +7894,9 @@
       <c r="AH126" t="inlineStr"/>
       <c r="AI126" t="inlineStr"/>
       <c r="AJ126" t="inlineStr"/>
+      <c r="AK126" t="inlineStr"/>
+      <c r="AL126" t="inlineStr"/>
+      <c r="AM126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7511,6 +7957,9 @@
       <c r="AH127" t="inlineStr"/>
       <c r="AI127" t="inlineStr"/>
       <c r="AJ127" t="inlineStr"/>
+      <c r="AK127" t="inlineStr"/>
+      <c r="AL127" t="inlineStr"/>
+      <c r="AM127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -7571,6 +8020,9 @@
       <c r="AH128" t="inlineStr"/>
       <c r="AI128" t="inlineStr"/>
       <c r="AJ128" t="inlineStr"/>
+      <c r="AK128" t="inlineStr"/>
+      <c r="AL128" t="inlineStr"/>
+      <c r="AM128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -7631,6 +8083,9 @@
       <c r="AH129" t="inlineStr"/>
       <c r="AI129" t="inlineStr"/>
       <c r="AJ129" t="inlineStr"/>
+      <c r="AK129" t="inlineStr"/>
+      <c r="AL129" t="inlineStr"/>
+      <c r="AM129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -7691,6 +8146,9 @@
       <c r="AH130" t="inlineStr"/>
       <c r="AI130" t="inlineStr"/>
       <c r="AJ130" t="inlineStr"/>
+      <c r="AK130" t="inlineStr"/>
+      <c r="AL130" t="inlineStr"/>
+      <c r="AM130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -7751,6 +8209,9 @@
       <c r="AH131" t="inlineStr"/>
       <c r="AI131" t="inlineStr"/>
       <c r="AJ131" t="inlineStr"/>
+      <c r="AK131" t="inlineStr"/>
+      <c r="AL131" t="inlineStr"/>
+      <c r="AM131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -7811,6 +8272,9 @@
       <c r="AH132" t="inlineStr"/>
       <c r="AI132" t="inlineStr"/>
       <c r="AJ132" t="inlineStr"/>
+      <c r="AK132" t="inlineStr"/>
+      <c r="AL132" t="inlineStr"/>
+      <c r="AM132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -7871,6 +8335,9 @@
       <c r="AH133" t="inlineStr"/>
       <c r="AI133" t="inlineStr"/>
       <c r="AJ133" t="inlineStr"/>
+      <c r="AK133" t="inlineStr"/>
+      <c r="AL133" t="inlineStr"/>
+      <c r="AM133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -7931,6 +8398,9 @@
       <c r="AH134" t="inlineStr"/>
       <c r="AI134" t="inlineStr"/>
       <c r="AJ134" t="inlineStr"/>
+      <c r="AK134" t="inlineStr"/>
+      <c r="AL134" t="inlineStr"/>
+      <c r="AM134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -7991,6 +8461,9 @@
       <c r="AH135" t="inlineStr"/>
       <c r="AI135" t="inlineStr"/>
       <c r="AJ135" t="inlineStr"/>
+      <c r="AK135" t="inlineStr"/>
+      <c r="AL135" t="inlineStr"/>
+      <c r="AM135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8051,6 +8524,9 @@
       <c r="AH136" t="inlineStr"/>
       <c r="AI136" t="inlineStr"/>
       <c r="AJ136" t="inlineStr"/>
+      <c r="AK136" t="inlineStr"/>
+      <c r="AL136" t="inlineStr"/>
+      <c r="AM136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8111,6 +8587,9 @@
       <c r="AH137" t="inlineStr"/>
       <c r="AI137" t="inlineStr"/>
       <c r="AJ137" t="inlineStr"/>
+      <c r="AK137" t="inlineStr"/>
+      <c r="AL137" t="inlineStr"/>
+      <c r="AM137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8163,15 +8642,19 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W138" t="inlineStr"/>
+      <c r="W138" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="X138" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>.5</t>
         </is>
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z138" t="inlineStr"/>
@@ -8185,6 +8668,9 @@
       <c r="AH138" t="inlineStr"/>
       <c r="AI138" t="inlineStr"/>
       <c r="AJ138" t="inlineStr"/>
+      <c r="AK138" t="inlineStr"/>
+      <c r="AL138" t="inlineStr"/>
+      <c r="AM138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8237,32 +8723,67 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W139" t="inlineStr"/>
+      <c r="W139" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="X139" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>.5</t>
         </is>
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>.5</t>
-        </is>
-      </c>
-      <c r="Z139" t="inlineStr">
-        <is>
-          <t>['ID: 1-1', 'ID: 3-1', 'ID: 5-0', 'ID: 6-2', 'ID: 7-4', 'ID: 8-1', 'ID: 9-1', 'ID: 10-0']</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z139" t="inlineStr"/>
       <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="inlineStr"/>
-      <c r="AC139" t="inlineStr"/>
+      <c r="AC139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AD139" t="inlineStr"/>
-      <c r="AE139" t="inlineStr"/>
-      <c r="AF139" t="inlineStr"/>
-      <c r="AG139" t="inlineStr"/>
-      <c r="AH139" t="inlineStr"/>
-      <c r="AI139" t="inlineStr"/>
-      <c r="AJ139" t="inlineStr"/>
+      <c r="AE139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG139" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH139" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AI139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL139" t="inlineStr"/>
+      <c r="AM139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -8301,6 +8822,9 @@
       <c r="AH140" t="inlineStr"/>
       <c r="AI140" t="inlineStr"/>
       <c r="AJ140" t="inlineStr"/>
+      <c r="AK140" t="inlineStr"/>
+      <c r="AL140" t="inlineStr"/>
+      <c r="AM140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8355,6 +8879,9 @@
       <c r="AH141" t="inlineStr"/>
       <c r="AI141" t="inlineStr"/>
       <c r="AJ141" t="inlineStr"/>
+      <c r="AK141" t="inlineStr"/>
+      <c r="AL141" t="inlineStr"/>
+      <c r="AM141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8409,6 +8936,9 @@
       <c r="AH142" t="inlineStr"/>
       <c r="AI142" t="inlineStr"/>
       <c r="AJ142" t="inlineStr"/>
+      <c r="AK142" t="inlineStr"/>
+      <c r="AL142" t="inlineStr"/>
+      <c r="AM142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -8463,6 +8993,9 @@
       <c r="AH143" t="inlineStr"/>
       <c r="AI143" t="inlineStr"/>
       <c r="AJ143" t="inlineStr"/>
+      <c r="AK143" t="inlineStr"/>
+      <c r="AL143" t="inlineStr"/>
+      <c r="AM143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -8517,6 +9050,9 @@
       <c r="AH144" t="inlineStr"/>
       <c r="AI144" t="inlineStr"/>
       <c r="AJ144" t="inlineStr"/>
+      <c r="AK144" t="inlineStr"/>
+      <c r="AL144" t="inlineStr"/>
+      <c r="AM144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -8571,6 +9107,9 @@
       <c r="AH145" t="inlineStr"/>
       <c r="AI145" t="inlineStr"/>
       <c r="AJ145" t="inlineStr"/>
+      <c r="AK145" t="inlineStr"/>
+      <c r="AL145" t="inlineStr"/>
+      <c r="AM145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -8625,6 +9164,9 @@
       <c r="AH146" t="inlineStr"/>
       <c r="AI146" t="inlineStr"/>
       <c r="AJ146" t="inlineStr"/>
+      <c r="AK146" t="inlineStr"/>
+      <c r="AL146" t="inlineStr"/>
+      <c r="AM146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -8679,6 +9221,9 @@
       <c r="AH147" t="inlineStr"/>
       <c r="AI147" t="inlineStr"/>
       <c r="AJ147" t="inlineStr"/>
+      <c r="AK147" t="inlineStr"/>
+      <c r="AL147" t="inlineStr"/>
+      <c r="AM147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -8733,6 +9278,9 @@
       <c r="AH148" t="inlineStr"/>
       <c r="AI148" t="inlineStr"/>
       <c r="AJ148" t="inlineStr"/>
+      <c r="AK148" t="inlineStr"/>
+      <c r="AL148" t="inlineStr"/>
+      <c r="AM148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -8787,6 +9335,9 @@
       <c r="AH149" t="inlineStr"/>
       <c r="AI149" t="inlineStr"/>
       <c r="AJ149" t="inlineStr"/>
+      <c r="AK149" t="inlineStr"/>
+      <c r="AL149" t="inlineStr"/>
+      <c r="AM149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -8841,6 +9392,9 @@
       <c r="AH150" t="inlineStr"/>
       <c r="AI150" t="inlineStr"/>
       <c r="AJ150" t="inlineStr"/>
+      <c r="AK150" t="inlineStr"/>
+      <c r="AL150" t="inlineStr"/>
+      <c r="AM150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -8895,6 +9449,9 @@
       <c r="AH151" t="inlineStr"/>
       <c r="AI151" t="inlineStr"/>
       <c r="AJ151" t="inlineStr"/>
+      <c r="AK151" t="inlineStr"/>
+      <c r="AL151" t="inlineStr"/>
+      <c r="AM151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -8949,6 +9506,9 @@
       <c r="AH152" t="inlineStr"/>
       <c r="AI152" t="inlineStr"/>
       <c r="AJ152" t="inlineStr"/>
+      <c r="AK152" t="inlineStr"/>
+      <c r="AL152" t="inlineStr"/>
+      <c r="AM152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -9009,6 +9569,9 @@
       <c r="AH153" t="inlineStr"/>
       <c r="AI153" t="inlineStr"/>
       <c r="AJ153" t="inlineStr"/>
+      <c r="AK153" t="inlineStr"/>
+      <c r="AL153" t="inlineStr"/>
+      <c r="AM153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -9069,6 +9632,9 @@
       <c r="AH154" t="inlineStr"/>
       <c r="AI154" t="inlineStr"/>
       <c r="AJ154" t="inlineStr"/>
+      <c r="AK154" t="inlineStr"/>
+      <c r="AL154" t="inlineStr"/>
+      <c r="AM154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -9129,6 +9695,9 @@
       <c r="AH155" t="inlineStr"/>
       <c r="AI155" t="inlineStr"/>
       <c r="AJ155" t="inlineStr"/>
+      <c r="AK155" t="inlineStr"/>
+      <c r="AL155" t="inlineStr"/>
+      <c r="AM155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -9189,6 +9758,9 @@
       <c r="AH156" t="inlineStr"/>
       <c r="AI156" t="inlineStr"/>
       <c r="AJ156" t="inlineStr"/>
+      <c r="AK156" t="inlineStr"/>
+      <c r="AL156" t="inlineStr"/>
+      <c r="AM156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -9249,6 +9821,9 @@
       <c r="AH157" t="inlineStr"/>
       <c r="AI157" t="inlineStr"/>
       <c r="AJ157" t="inlineStr"/>
+      <c r="AK157" t="inlineStr"/>
+      <c r="AL157" t="inlineStr"/>
+      <c r="AM157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -9309,6 +9884,9 @@
       <c r="AH158" t="inlineStr"/>
       <c r="AI158" t="inlineStr"/>
       <c r="AJ158" t="inlineStr"/>
+      <c r="AK158" t="inlineStr"/>
+      <c r="AL158" t="inlineStr"/>
+      <c r="AM158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9369,6 +9947,9 @@
       <c r="AH159" t="inlineStr"/>
       <c r="AI159" t="inlineStr"/>
       <c r="AJ159" t="inlineStr"/>
+      <c r="AK159" t="inlineStr"/>
+      <c r="AL159" t="inlineStr"/>
+      <c r="AM159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -9429,6 +10010,9 @@
       <c r="AH160" t="inlineStr"/>
       <c r="AI160" t="inlineStr"/>
       <c r="AJ160" t="inlineStr"/>
+      <c r="AK160" t="inlineStr"/>
+      <c r="AL160" t="inlineStr"/>
+      <c r="AM160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -9489,6 +10073,9 @@
       <c r="AH161" t="inlineStr"/>
       <c r="AI161" t="inlineStr"/>
       <c r="AJ161" t="inlineStr"/>
+      <c r="AK161" t="inlineStr"/>
+      <c r="AL161" t="inlineStr"/>
+      <c r="AM161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -9549,6 +10136,9 @@
       <c r="AH162" t="inlineStr"/>
       <c r="AI162" t="inlineStr"/>
       <c r="AJ162" t="inlineStr"/>
+      <c r="AK162" t="inlineStr"/>
+      <c r="AL162" t="inlineStr"/>
+      <c r="AM162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -9609,6 +10199,9 @@
       <c r="AH163" t="inlineStr"/>
       <c r="AI163" t="inlineStr"/>
       <c r="AJ163" t="inlineStr"/>
+      <c r="AK163" t="inlineStr"/>
+      <c r="AL163" t="inlineStr"/>
+      <c r="AM163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -9669,6 +10262,9 @@
       <c r="AH164" t="inlineStr"/>
       <c r="AI164" t="inlineStr"/>
       <c r="AJ164" t="inlineStr"/>
+      <c r="AK164" t="inlineStr"/>
+      <c r="AL164" t="inlineStr"/>
+      <c r="AM164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -9729,6 +10325,9 @@
       <c r="AH165" t="inlineStr"/>
       <c r="AI165" t="inlineStr"/>
       <c r="AJ165" t="inlineStr"/>
+      <c r="AK165" t="inlineStr"/>
+      <c r="AL165" t="inlineStr"/>
+      <c r="AM165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -9789,6 +10388,9 @@
       <c r="AH166" t="inlineStr"/>
       <c r="AI166" t="inlineStr"/>
       <c r="AJ166" t="inlineStr"/>
+      <c r="AK166" t="inlineStr"/>
+      <c r="AL166" t="inlineStr"/>
+      <c r="AM166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -9849,6 +10451,9 @@
       <c r="AH167" t="inlineStr"/>
       <c r="AI167" t="inlineStr"/>
       <c r="AJ167" t="inlineStr"/>
+      <c r="AK167" t="inlineStr"/>
+      <c r="AL167" t="inlineStr"/>
+      <c r="AM167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -9909,6 +10514,9 @@
       <c r="AH168" t="inlineStr"/>
       <c r="AI168" t="inlineStr"/>
       <c r="AJ168" t="inlineStr"/>
+      <c r="AK168" t="inlineStr"/>
+      <c r="AL168" t="inlineStr"/>
+      <c r="AM168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -9969,6 +10577,9 @@
       <c r="AH169" t="inlineStr"/>
       <c r="AI169" t="inlineStr"/>
       <c r="AJ169" t="inlineStr"/>
+      <c r="AK169" t="inlineStr"/>
+      <c r="AL169" t="inlineStr"/>
+      <c r="AM169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -10029,6 +10640,9 @@
       <c r="AH170" t="inlineStr"/>
       <c r="AI170" t="inlineStr"/>
       <c r="AJ170" t="inlineStr"/>
+      <c r="AK170" t="inlineStr"/>
+      <c r="AL170" t="inlineStr"/>
+      <c r="AM170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -10089,6 +10703,9 @@
       <c r="AH171" t="inlineStr"/>
       <c r="AI171" t="inlineStr"/>
       <c r="AJ171" t="inlineStr"/>
+      <c r="AK171" t="inlineStr"/>
+      <c r="AL171" t="inlineStr"/>
+      <c r="AM171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -10149,6 +10766,9 @@
       <c r="AH172" t="inlineStr"/>
       <c r="AI172" t="inlineStr"/>
       <c r="AJ172" t="inlineStr"/>
+      <c r="AK172" t="inlineStr"/>
+      <c r="AL172" t="inlineStr"/>
+      <c r="AM172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -10209,6 +10829,9 @@
       <c r="AH173" t="inlineStr"/>
       <c r="AI173" t="inlineStr"/>
       <c r="AJ173" t="inlineStr"/>
+      <c r="AK173" t="inlineStr"/>
+      <c r="AL173" t="inlineStr"/>
+      <c r="AM173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -10269,6 +10892,9 @@
       <c r="AH174" t="inlineStr"/>
       <c r="AI174" t="inlineStr"/>
       <c r="AJ174" t="inlineStr"/>
+      <c r="AK174" t="inlineStr"/>
+      <c r="AL174" t="inlineStr"/>
+      <c r="AM174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -10329,6 +10955,9 @@
       <c r="AH175" t="inlineStr"/>
       <c r="AI175" t="inlineStr"/>
       <c r="AJ175" t="inlineStr"/>
+      <c r="AK175" t="inlineStr"/>
+      <c r="AL175" t="inlineStr"/>
+      <c r="AM175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -10389,6 +11018,9 @@
       <c r="AH176" t="inlineStr"/>
       <c r="AI176" t="inlineStr"/>
       <c r="AJ176" t="inlineStr"/>
+      <c r="AK176" t="inlineStr"/>
+      <c r="AL176" t="inlineStr"/>
+      <c r="AM176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -10449,6 +11081,9 @@
       <c r="AH177" t="inlineStr"/>
       <c r="AI177" t="inlineStr"/>
       <c r="AJ177" t="inlineStr"/>
+      <c r="AK177" t="inlineStr"/>
+      <c r="AL177" t="inlineStr"/>
+      <c r="AM177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -10509,6 +11144,9 @@
       <c r="AH178" t="inlineStr"/>
       <c r="AI178" t="inlineStr"/>
       <c r="AJ178" t="inlineStr"/>
+      <c r="AK178" t="inlineStr"/>
+      <c r="AL178" t="inlineStr"/>
+      <c r="AM178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -10569,6 +11207,9 @@
       <c r="AH179" t="inlineStr"/>
       <c r="AI179" t="inlineStr"/>
       <c r="AJ179" t="inlineStr"/>
+      <c r="AK179" t="inlineStr"/>
+      <c r="AL179" t="inlineStr"/>
+      <c r="AM179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -10625,6 +11266,9 @@
       <c r="AH180" t="inlineStr"/>
       <c r="AI180" t="inlineStr"/>
       <c r="AJ180" t="inlineStr"/>
+      <c r="AK180" t="inlineStr"/>
+      <c r="AL180" t="inlineStr"/>
+      <c r="AM180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -10677,15 +11321,19 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W181" t="inlineStr"/>
+      <c r="W181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="X181" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y181" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="Y181" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="Z181" t="inlineStr"/>
@@ -10699,6 +11347,9 @@
       <c r="AH181" t="inlineStr"/>
       <c r="AI181" t="inlineStr"/>
       <c r="AJ181" t="inlineStr"/>
+      <c r="AK181" t="inlineStr"/>
+      <c r="AL181" t="inlineStr"/>
+      <c r="AM181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -10751,32 +11402,47 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W182" t="inlineStr"/>
+      <c r="W182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="X182" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y182" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y182" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z182" t="inlineStr">
-        <is>
-          <t>['ID: 1-2', 'ID: 2-5', 'ID: 3-0']</t>
-        </is>
-      </c>
+      <c r="Z182" t="inlineStr"/>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="inlineStr"/>
-      <c r="AC182" t="inlineStr"/>
-      <c r="AD182" t="inlineStr"/>
-      <c r="AE182" t="inlineStr"/>
+      <c r="AC182" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AD182" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AE182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AF182" t="inlineStr"/>
       <c r="AG182" t="inlineStr"/>
       <c r="AH182" t="inlineStr"/>
       <c r="AI182" t="inlineStr"/>
       <c r="AJ182" t="inlineStr"/>
+      <c r="AK182" t="inlineStr"/>
+      <c r="AL182" t="inlineStr"/>
+      <c r="AM182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr"/>
@@ -10815,6 +11481,9 @@
       <c r="AH183" t="inlineStr"/>
       <c r="AI183" t="inlineStr"/>
       <c r="AJ183" t="inlineStr"/>
+      <c r="AK183" t="inlineStr"/>
+      <c r="AL183" t="inlineStr"/>
+      <c r="AM183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -10869,6 +11538,9 @@
       <c r="AH184" t="inlineStr"/>
       <c r="AI184" t="inlineStr"/>
       <c r="AJ184" t="inlineStr"/>
+      <c r="AK184" t="inlineStr"/>
+      <c r="AL184" t="inlineStr"/>
+      <c r="AM184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -10923,6 +11595,9 @@
       <c r="AH185" t="inlineStr"/>
       <c r="AI185" t="inlineStr"/>
       <c r="AJ185" t="inlineStr"/>
+      <c r="AK185" t="inlineStr"/>
+      <c r="AL185" t="inlineStr"/>
+      <c r="AM185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -10977,6 +11652,9 @@
       <c r="AH186" t="inlineStr"/>
       <c r="AI186" t="inlineStr"/>
       <c r="AJ186" t="inlineStr"/>
+      <c r="AK186" t="inlineStr"/>
+      <c r="AL186" t="inlineStr"/>
+      <c r="AM186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -11031,6 +11709,9 @@
       <c r="AH187" t="inlineStr"/>
       <c r="AI187" t="inlineStr"/>
       <c r="AJ187" t="inlineStr"/>
+      <c r="AK187" t="inlineStr"/>
+      <c r="AL187" t="inlineStr"/>
+      <c r="AM187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -11085,6 +11766,9 @@
       <c r="AH188" t="inlineStr"/>
       <c r="AI188" t="inlineStr"/>
       <c r="AJ188" t="inlineStr"/>
+      <c r="AK188" t="inlineStr"/>
+      <c r="AL188" t="inlineStr"/>
+      <c r="AM188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -11139,6 +11823,9 @@
       <c r="AH189" t="inlineStr"/>
       <c r="AI189" t="inlineStr"/>
       <c r="AJ189" t="inlineStr"/>
+      <c r="AK189" t="inlineStr"/>
+      <c r="AL189" t="inlineStr"/>
+      <c r="AM189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -11193,6 +11880,9 @@
       <c r="AH190" t="inlineStr"/>
       <c r="AI190" t="inlineStr"/>
       <c r="AJ190" t="inlineStr"/>
+      <c r="AK190" t="inlineStr"/>
+      <c r="AL190" t="inlineStr"/>
+      <c r="AM190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -11247,6 +11937,9 @@
       <c r="AH191" t="inlineStr"/>
       <c r="AI191" t="inlineStr"/>
       <c r="AJ191" t="inlineStr"/>
+      <c r="AK191" t="inlineStr"/>
+      <c r="AL191" t="inlineStr"/>
+      <c r="AM191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -11301,6 +11994,9 @@
       <c r="AH192" t="inlineStr"/>
       <c r="AI192" t="inlineStr"/>
       <c r="AJ192" t="inlineStr"/>
+      <c r="AK192" t="inlineStr"/>
+      <c r="AL192" t="inlineStr"/>
+      <c r="AM192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -11355,6 +12051,9 @@
       <c r="AH193" t="inlineStr"/>
       <c r="AI193" t="inlineStr"/>
       <c r="AJ193" t="inlineStr"/>
+      <c r="AK193" t="inlineStr"/>
+      <c r="AL193" t="inlineStr"/>
+      <c r="AM193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -11409,6 +12108,9 @@
       <c r="AH194" t="inlineStr"/>
       <c r="AI194" t="inlineStr"/>
       <c r="AJ194" t="inlineStr"/>
+      <c r="AK194" t="inlineStr"/>
+      <c r="AL194" t="inlineStr"/>
+      <c r="AM194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -11463,6 +12165,9 @@
       <c r="AH195" t="inlineStr"/>
       <c r="AI195" t="inlineStr"/>
       <c r="AJ195" t="inlineStr"/>
+      <c r="AK195" t="inlineStr"/>
+      <c r="AL195" t="inlineStr"/>
+      <c r="AM195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -11517,6 +12222,9 @@
       <c r="AH196" t="inlineStr"/>
       <c r="AI196" t="inlineStr"/>
       <c r="AJ196" t="inlineStr"/>
+      <c r="AK196" t="inlineStr"/>
+      <c r="AL196" t="inlineStr"/>
+      <c r="AM196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -11571,6 +12279,9 @@
       <c r="AH197" t="inlineStr"/>
       <c r="AI197" t="inlineStr"/>
       <c r="AJ197" t="inlineStr"/>
+      <c r="AK197" t="inlineStr"/>
+      <c r="AL197" t="inlineStr"/>
+      <c r="AM197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -11625,6 +12336,9 @@
       <c r="AH198" t="inlineStr"/>
       <c r="AI198" t="inlineStr"/>
       <c r="AJ198" t="inlineStr"/>
+      <c r="AK198" t="inlineStr"/>
+      <c r="AL198" t="inlineStr"/>
+      <c r="AM198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -11679,6 +12393,9 @@
       <c r="AH199" t="inlineStr"/>
       <c r="AI199" t="inlineStr"/>
       <c r="AJ199" t="inlineStr"/>
+      <c r="AK199" t="inlineStr"/>
+      <c r="AL199" t="inlineStr"/>
+      <c r="AM199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -11733,6 +12450,9 @@
       <c r="AH200" t="inlineStr"/>
       <c r="AI200" t="inlineStr"/>
       <c r="AJ200" t="inlineStr"/>
+      <c r="AK200" t="inlineStr"/>
+      <c r="AL200" t="inlineStr"/>
+      <c r="AM200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -11787,6 +12507,9 @@
       <c r="AH201" t="inlineStr"/>
       <c r="AI201" t="inlineStr"/>
       <c r="AJ201" t="inlineStr"/>
+      <c r="AK201" t="inlineStr"/>
+      <c r="AL201" t="inlineStr"/>
+      <c r="AM201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -11841,6 +12564,9 @@
       <c r="AH202" t="inlineStr"/>
       <c r="AI202" t="inlineStr"/>
       <c r="AJ202" t="inlineStr"/>
+      <c r="AK202" t="inlineStr"/>
+      <c r="AL202" t="inlineStr"/>
+      <c r="AM202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -11895,6 +12621,9 @@
       <c r="AH203" t="inlineStr"/>
       <c r="AI203" t="inlineStr"/>
       <c r="AJ203" t="inlineStr"/>
+      <c r="AK203" t="inlineStr"/>
+      <c r="AL203" t="inlineStr"/>
+      <c r="AM203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -11949,6 +12678,9 @@
       <c r="AH204" t="inlineStr"/>
       <c r="AI204" t="inlineStr"/>
       <c r="AJ204" t="inlineStr"/>
+      <c r="AK204" t="inlineStr"/>
+      <c r="AL204" t="inlineStr"/>
+      <c r="AM204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -12003,6 +12735,9 @@
       <c r="AH205" t="inlineStr"/>
       <c r="AI205" t="inlineStr"/>
       <c r="AJ205" t="inlineStr"/>
+      <c r="AK205" t="inlineStr"/>
+      <c r="AL205" t="inlineStr"/>
+      <c r="AM205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -12057,6 +12792,9 @@
       <c r="AH206" t="inlineStr"/>
       <c r="AI206" t="inlineStr"/>
       <c r="AJ206" t="inlineStr"/>
+      <c r="AK206" t="inlineStr"/>
+      <c r="AL206" t="inlineStr"/>
+      <c r="AM206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -12111,6 +12849,9 @@
       <c r="AH207" t="inlineStr"/>
       <c r="AI207" t="inlineStr"/>
       <c r="AJ207" t="inlineStr"/>
+      <c r="AK207" t="inlineStr"/>
+      <c r="AL207" t="inlineStr"/>
+      <c r="AM207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -12165,6 +12906,9 @@
       <c r="AH208" t="inlineStr"/>
       <c r="AI208" t="inlineStr"/>
       <c r="AJ208" t="inlineStr"/>
+      <c r="AK208" t="inlineStr"/>
+      <c r="AL208" t="inlineStr"/>
+      <c r="AM208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -12219,6 +12963,9 @@
       <c r="AH209" t="inlineStr"/>
       <c r="AI209" t="inlineStr"/>
       <c r="AJ209" t="inlineStr"/>
+      <c r="AK209" t="inlineStr"/>
+      <c r="AL209" t="inlineStr"/>
+      <c r="AM209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -12273,6 +13020,9 @@
       <c r="AH210" t="inlineStr"/>
       <c r="AI210" t="inlineStr"/>
       <c r="AJ210" t="inlineStr"/>
+      <c r="AK210" t="inlineStr"/>
+      <c r="AL210" t="inlineStr"/>
+      <c r="AM210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -12327,6 +13077,9 @@
       <c r="AH211" t="inlineStr"/>
       <c r="AI211" t="inlineStr"/>
       <c r="AJ211" t="inlineStr"/>
+      <c r="AK211" t="inlineStr"/>
+      <c r="AL211" t="inlineStr"/>
+      <c r="AM211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -12381,6 +13134,9 @@
       <c r="AH212" t="inlineStr"/>
       <c r="AI212" t="inlineStr"/>
       <c r="AJ212" t="inlineStr"/>
+      <c r="AK212" t="inlineStr"/>
+      <c r="AL212" t="inlineStr"/>
+      <c r="AM212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -12435,6 +13191,9 @@
       <c r="AH213" t="inlineStr"/>
       <c r="AI213" t="inlineStr"/>
       <c r="AJ213" t="inlineStr"/>
+      <c r="AK213" t="inlineStr"/>
+      <c r="AL213" t="inlineStr"/>
+      <c r="AM213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -12489,6 +13248,9 @@
       <c r="AH214" t="inlineStr"/>
       <c r="AI214" t="inlineStr"/>
       <c r="AJ214" t="inlineStr"/>
+      <c r="AK214" t="inlineStr"/>
+      <c r="AL214" t="inlineStr"/>
+      <c r="AM214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -12543,6 +13305,9 @@
       <c r="AH215" t="inlineStr"/>
       <c r="AI215" t="inlineStr"/>
       <c r="AJ215" t="inlineStr"/>
+      <c r="AK215" t="inlineStr"/>
+      <c r="AL215" t="inlineStr"/>
+      <c r="AM215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -12597,6 +13362,9 @@
       <c r="AH216" t="inlineStr"/>
       <c r="AI216" t="inlineStr"/>
       <c r="AJ216" t="inlineStr"/>
+      <c r="AK216" t="inlineStr"/>
+      <c r="AL216" t="inlineStr"/>
+      <c r="AM216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -12651,6 +13419,9 @@
       <c r="AH217" t="inlineStr"/>
       <c r="AI217" t="inlineStr"/>
       <c r="AJ217" t="inlineStr"/>
+      <c r="AK217" t="inlineStr"/>
+      <c r="AL217" t="inlineStr"/>
+      <c r="AM217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -12705,6 +13476,9 @@
       <c r="AH218" t="inlineStr"/>
       <c r="AI218" t="inlineStr"/>
       <c r="AJ218" t="inlineStr"/>
+      <c r="AK218" t="inlineStr"/>
+      <c r="AL218" t="inlineStr"/>
+      <c r="AM218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -12759,6 +13533,9 @@
       <c r="AH219" t="inlineStr"/>
       <c r="AI219" t="inlineStr"/>
       <c r="AJ219" t="inlineStr"/>
+      <c r="AK219" t="inlineStr"/>
+      <c r="AL219" t="inlineStr"/>
+      <c r="AM219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -12813,6 +13590,9 @@
       <c r="AH220" t="inlineStr"/>
       <c r="AI220" t="inlineStr"/>
       <c r="AJ220" t="inlineStr"/>
+      <c r="AK220" t="inlineStr"/>
+      <c r="AL220" t="inlineStr"/>
+      <c r="AM220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -12867,6 +13647,9 @@
       <c r="AH221" t="inlineStr"/>
       <c r="AI221" t="inlineStr"/>
       <c r="AJ221" t="inlineStr"/>
+      <c r="AK221" t="inlineStr"/>
+      <c r="AL221" t="inlineStr"/>
+      <c r="AM221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -12927,6 +13710,9 @@
       <c r="AH222" t="inlineStr"/>
       <c r="AI222" t="inlineStr"/>
       <c r="AJ222" t="inlineStr"/>
+      <c r="AK222" t="inlineStr"/>
+      <c r="AL222" t="inlineStr"/>
+      <c r="AM222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -12987,6 +13773,9 @@
       <c r="AH223" t="inlineStr"/>
       <c r="AI223" t="inlineStr"/>
       <c r="AJ223" t="inlineStr"/>
+      <c r="AK223" t="inlineStr"/>
+      <c r="AL223" t="inlineStr"/>
+      <c r="AM223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -13047,6 +13836,9 @@
       <c r="AH224" t="inlineStr"/>
       <c r="AI224" t="inlineStr"/>
       <c r="AJ224" t="inlineStr"/>
+      <c r="AK224" t="inlineStr"/>
+      <c r="AL224" t="inlineStr"/>
+      <c r="AM224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -13107,6 +13899,9 @@
       <c r="AH225" t="inlineStr"/>
       <c r="AI225" t="inlineStr"/>
       <c r="AJ225" t="inlineStr"/>
+      <c r="AK225" t="inlineStr"/>
+      <c r="AL225" t="inlineStr"/>
+      <c r="AM225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -13167,6 +13962,9 @@
       <c r="AH226" t="inlineStr"/>
       <c r="AI226" t="inlineStr"/>
       <c r="AJ226" t="inlineStr"/>
+      <c r="AK226" t="inlineStr"/>
+      <c r="AL226" t="inlineStr"/>
+      <c r="AM226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -13227,6 +14025,9 @@
       <c r="AH227" t="inlineStr"/>
       <c r="AI227" t="inlineStr"/>
       <c r="AJ227" t="inlineStr"/>
+      <c r="AK227" t="inlineStr"/>
+      <c r="AL227" t="inlineStr"/>
+      <c r="AM227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -13287,6 +14088,9 @@
       <c r="AH228" t="inlineStr"/>
       <c r="AI228" t="inlineStr"/>
       <c r="AJ228" t="inlineStr"/>
+      <c r="AK228" t="inlineStr"/>
+      <c r="AL228" t="inlineStr"/>
+      <c r="AM228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -13347,6 +14151,9 @@
       <c r="AH229" t="inlineStr"/>
       <c r="AI229" t="inlineStr"/>
       <c r="AJ229" t="inlineStr"/>
+      <c r="AK229" t="inlineStr"/>
+      <c r="AL229" t="inlineStr"/>
+      <c r="AM229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -13407,6 +14214,9 @@
       <c r="AH230" t="inlineStr"/>
       <c r="AI230" t="inlineStr"/>
       <c r="AJ230" t="inlineStr"/>
+      <c r="AK230" t="inlineStr"/>
+      <c r="AL230" t="inlineStr"/>
+      <c r="AM230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -13467,6 +14277,9 @@
       <c r="AH231" t="inlineStr"/>
       <c r="AI231" t="inlineStr"/>
       <c r="AJ231" t="inlineStr"/>
+      <c r="AK231" t="inlineStr"/>
+      <c r="AL231" t="inlineStr"/>
+      <c r="AM231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -13527,6 +14340,9 @@
       <c r="AH232" t="inlineStr"/>
       <c r="AI232" t="inlineStr"/>
       <c r="AJ232" t="inlineStr"/>
+      <c r="AK232" t="inlineStr"/>
+      <c r="AL232" t="inlineStr"/>
+      <c r="AM232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -13587,6 +14403,9 @@
       <c r="AH233" t="inlineStr"/>
       <c r="AI233" t="inlineStr"/>
       <c r="AJ233" t="inlineStr"/>
+      <c r="AK233" t="inlineStr"/>
+      <c r="AL233" t="inlineStr"/>
+      <c r="AM233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -13647,6 +14466,9 @@
       <c r="AH234" t="inlineStr"/>
       <c r="AI234" t="inlineStr"/>
       <c r="AJ234" t="inlineStr"/>
+      <c r="AK234" t="inlineStr"/>
+      <c r="AL234" t="inlineStr"/>
+      <c r="AM234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -13707,6 +14529,9 @@
       <c r="AH235" t="inlineStr"/>
       <c r="AI235" t="inlineStr"/>
       <c r="AJ235" t="inlineStr"/>
+      <c r="AK235" t="inlineStr"/>
+      <c r="AL235" t="inlineStr"/>
+      <c r="AM235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -13767,6 +14592,9 @@
       <c r="AH236" t="inlineStr"/>
       <c r="AI236" t="inlineStr"/>
       <c r="AJ236" t="inlineStr"/>
+      <c r="AK236" t="inlineStr"/>
+      <c r="AL236" t="inlineStr"/>
+      <c r="AM236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -13827,6 +14655,9 @@
       <c r="AH237" t="inlineStr"/>
       <c r="AI237" t="inlineStr"/>
       <c r="AJ237" t="inlineStr"/>
+      <c r="AK237" t="inlineStr"/>
+      <c r="AL237" t="inlineStr"/>
+      <c r="AM237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -13887,6 +14718,9 @@
       <c r="AH238" t="inlineStr"/>
       <c r="AI238" t="inlineStr"/>
       <c r="AJ238" t="inlineStr"/>
+      <c r="AK238" t="inlineStr"/>
+      <c r="AL238" t="inlineStr"/>
+      <c r="AM238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -13947,6 +14781,9 @@
       <c r="AH239" t="inlineStr"/>
       <c r="AI239" t="inlineStr"/>
       <c r="AJ239" t="inlineStr"/>
+      <c r="AK239" t="inlineStr"/>
+      <c r="AL239" t="inlineStr"/>
+      <c r="AM239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -14007,6 +14844,9 @@
       <c r="AH240" t="inlineStr"/>
       <c r="AI240" t="inlineStr"/>
       <c r="AJ240" t="inlineStr"/>
+      <c r="AK240" t="inlineStr"/>
+      <c r="AL240" t="inlineStr"/>
+      <c r="AM240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -14067,6 +14907,9 @@
       <c r="AH241" t="inlineStr"/>
       <c r="AI241" t="inlineStr"/>
       <c r="AJ241" t="inlineStr"/>
+      <c r="AK241" t="inlineStr"/>
+      <c r="AL241" t="inlineStr"/>
+      <c r="AM241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -14127,6 +14970,9 @@
       <c r="AH242" t="inlineStr"/>
       <c r="AI242" t="inlineStr"/>
       <c r="AJ242" t="inlineStr"/>
+      <c r="AK242" t="inlineStr"/>
+      <c r="AL242" t="inlineStr"/>
+      <c r="AM242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -14187,6 +15033,9 @@
       <c r="AH243" t="inlineStr"/>
       <c r="AI243" t="inlineStr"/>
       <c r="AJ243" t="inlineStr"/>
+      <c r="AK243" t="inlineStr"/>
+      <c r="AL243" t="inlineStr"/>
+      <c r="AM243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -14247,6 +15096,9 @@
       <c r="AH244" t="inlineStr"/>
       <c r="AI244" t="inlineStr"/>
       <c r="AJ244" t="inlineStr"/>
+      <c r="AK244" t="inlineStr"/>
+      <c r="AL244" t="inlineStr"/>
+      <c r="AM244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -14307,6 +15159,9 @@
       <c r="AH245" t="inlineStr"/>
       <c r="AI245" t="inlineStr"/>
       <c r="AJ245" t="inlineStr"/>
+      <c r="AK245" t="inlineStr"/>
+      <c r="AL245" t="inlineStr"/>
+      <c r="AM245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -14367,6 +15222,9 @@
       <c r="AH246" t="inlineStr"/>
       <c r="AI246" t="inlineStr"/>
       <c r="AJ246" t="inlineStr"/>
+      <c r="AK246" t="inlineStr"/>
+      <c r="AL246" t="inlineStr"/>
+      <c r="AM246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -14427,6 +15285,9 @@
       <c r="AH247" t="inlineStr"/>
       <c r="AI247" t="inlineStr"/>
       <c r="AJ247" t="inlineStr"/>
+      <c r="AK247" t="inlineStr"/>
+      <c r="AL247" t="inlineStr"/>
+      <c r="AM247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -14487,6 +15348,9 @@
       <c r="AH248" t="inlineStr"/>
       <c r="AI248" t="inlineStr"/>
       <c r="AJ248" t="inlineStr"/>
+      <c r="AK248" t="inlineStr"/>
+      <c r="AL248" t="inlineStr"/>
+      <c r="AM248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -14547,6 +15411,9 @@
       <c r="AH249" t="inlineStr"/>
       <c r="AI249" t="inlineStr"/>
       <c r="AJ249" t="inlineStr"/>
+      <c r="AK249" t="inlineStr"/>
+      <c r="AL249" t="inlineStr"/>
+      <c r="AM249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -14607,6 +15474,9 @@
       <c r="AH250" t="inlineStr"/>
       <c r="AI250" t="inlineStr"/>
       <c r="AJ250" t="inlineStr"/>
+      <c r="AK250" t="inlineStr"/>
+      <c r="AL250" t="inlineStr"/>
+      <c r="AM250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -14667,6 +15537,9 @@
       <c r="AH251" t="inlineStr"/>
       <c r="AI251" t="inlineStr"/>
       <c r="AJ251" t="inlineStr"/>
+      <c r="AK251" t="inlineStr"/>
+      <c r="AL251" t="inlineStr"/>
+      <c r="AM251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -14727,6 +15600,9 @@
       <c r="AH252" t="inlineStr"/>
       <c r="AI252" t="inlineStr"/>
       <c r="AJ252" t="inlineStr"/>
+      <c r="AK252" t="inlineStr"/>
+      <c r="AL252" t="inlineStr"/>
+      <c r="AM252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -14787,6 +15663,9 @@
       <c r="AH253" t="inlineStr"/>
       <c r="AI253" t="inlineStr"/>
       <c r="AJ253" t="inlineStr"/>
+      <c r="AK253" t="inlineStr"/>
+      <c r="AL253" t="inlineStr"/>
+      <c r="AM253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -14847,6 +15726,9 @@
       <c r="AH254" t="inlineStr"/>
       <c r="AI254" t="inlineStr"/>
       <c r="AJ254" t="inlineStr"/>
+      <c r="AK254" t="inlineStr"/>
+      <c r="AL254" t="inlineStr"/>
+      <c r="AM254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -14907,6 +15789,9 @@
       <c r="AH255" t="inlineStr"/>
       <c r="AI255" t="inlineStr"/>
       <c r="AJ255" t="inlineStr"/>
+      <c r="AK255" t="inlineStr"/>
+      <c r="AL255" t="inlineStr"/>
+      <c r="AM255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -14967,6 +15852,9 @@
       <c r="AH256" t="inlineStr"/>
       <c r="AI256" t="inlineStr"/>
       <c r="AJ256" t="inlineStr"/>
+      <c r="AK256" t="inlineStr"/>
+      <c r="AL256" t="inlineStr"/>
+      <c r="AM256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -15027,6 +15915,9 @@
       <c r="AH257" t="inlineStr"/>
       <c r="AI257" t="inlineStr"/>
       <c r="AJ257" t="inlineStr"/>
+      <c r="AK257" t="inlineStr"/>
+      <c r="AL257" t="inlineStr"/>
+      <c r="AM257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -15087,6 +15978,9 @@
       <c r="AH258" t="inlineStr"/>
       <c r="AI258" t="inlineStr"/>
       <c r="AJ258" t="inlineStr"/>
+      <c r="AK258" t="inlineStr"/>
+      <c r="AL258" t="inlineStr"/>
+      <c r="AM258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -15147,6 +16041,9 @@
       <c r="AH259" t="inlineStr"/>
       <c r="AI259" t="inlineStr"/>
       <c r="AJ259" t="inlineStr"/>
+      <c r="AK259" t="inlineStr"/>
+      <c r="AL259" t="inlineStr"/>
+      <c r="AM259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -15207,6 +16104,9 @@
       <c r="AH260" t="inlineStr"/>
       <c r="AI260" t="inlineStr"/>
       <c r="AJ260" t="inlineStr"/>
+      <c r="AK260" t="inlineStr"/>
+      <c r="AL260" t="inlineStr"/>
+      <c r="AM260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -15267,6 +16167,9 @@
       <c r="AH261" t="inlineStr"/>
       <c r="AI261" t="inlineStr"/>
       <c r="AJ261" t="inlineStr"/>
+      <c r="AK261" t="inlineStr"/>
+      <c r="AL261" t="inlineStr"/>
+      <c r="AM261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -15327,6 +16230,9 @@
       <c r="AH262" t="inlineStr"/>
       <c r="AI262" t="inlineStr"/>
       <c r="AJ262" t="inlineStr"/>
+      <c r="AK262" t="inlineStr"/>
+      <c r="AL262" t="inlineStr"/>
+      <c r="AM262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -15387,6 +16293,9 @@
       <c r="AH263" t="inlineStr"/>
       <c r="AI263" t="inlineStr"/>
       <c r="AJ263" t="inlineStr"/>
+      <c r="AK263" t="inlineStr"/>
+      <c r="AL263" t="inlineStr"/>
+      <c r="AM263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -15447,6 +16356,9 @@
       <c r="AH264" t="inlineStr"/>
       <c r="AI264" t="inlineStr"/>
       <c r="AJ264" t="inlineStr"/>
+      <c r="AK264" t="inlineStr"/>
+      <c r="AL264" t="inlineStr"/>
+      <c r="AM264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -15507,6 +16419,9 @@
       <c r="AH265" t="inlineStr"/>
       <c r="AI265" t="inlineStr"/>
       <c r="AJ265" t="inlineStr"/>
+      <c r="AK265" t="inlineStr"/>
+      <c r="AL265" t="inlineStr"/>
+      <c r="AM265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -15567,6 +16482,9 @@
       <c r="AH266" t="inlineStr"/>
       <c r="AI266" t="inlineStr"/>
       <c r="AJ266" t="inlineStr"/>
+      <c r="AK266" t="inlineStr"/>
+      <c r="AL266" t="inlineStr"/>
+      <c r="AM266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -15627,6 +16545,9 @@
       <c r="AH267" t="inlineStr"/>
       <c r="AI267" t="inlineStr"/>
       <c r="AJ267" t="inlineStr"/>
+      <c r="AK267" t="inlineStr"/>
+      <c r="AL267" t="inlineStr"/>
+      <c r="AM267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -15687,6 +16608,9 @@
       <c r="AH268" t="inlineStr"/>
       <c r="AI268" t="inlineStr"/>
       <c r="AJ268" t="inlineStr"/>
+      <c r="AK268" t="inlineStr"/>
+      <c r="AL268" t="inlineStr"/>
+      <c r="AM268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -15747,6 +16671,9 @@
       <c r="AH269" t="inlineStr"/>
       <c r="AI269" t="inlineStr"/>
       <c r="AJ269" t="inlineStr"/>
+      <c r="AK269" t="inlineStr"/>
+      <c r="AL269" t="inlineStr"/>
+      <c r="AM269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -15799,13 +16726,17 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W270" t="inlineStr"/>
-      <c r="X270" t="inlineStr">
+      <c r="W270" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y270" t="inlineStr"/>
+      <c r="X270" t="inlineStr"/>
+      <c r="Y270" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z270" t="inlineStr"/>
       <c r="AA270" t="inlineStr"/>
       <c r="AB270" t="inlineStr"/>
@@ -15817,6 +16748,9 @@
       <c r="AH270" t="inlineStr"/>
       <c r="AI270" t="inlineStr"/>
       <c r="AJ270" t="inlineStr"/>
+      <c r="AK270" t="inlineStr"/>
+      <c r="AL270" t="inlineStr"/>
+      <c r="AM270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -15869,28 +16803,39 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W271" t="inlineStr"/>
-      <c r="X271" t="inlineStr">
+      <c r="W271" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y271" t="inlineStr"/>
-      <c r="Z271" t="inlineStr">
-        <is>
-          <t>['ID: 1-1', 'ID: 3-0']</t>
-        </is>
-      </c>
+      <c r="X271" t="inlineStr"/>
+      <c r="Y271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z271" t="inlineStr"/>
       <c r="AA271" t="inlineStr"/>
       <c r="AB271" t="inlineStr"/>
-      <c r="AC271" t="inlineStr"/>
+      <c r="AC271" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AD271" t="inlineStr"/>
-      <c r="AE271" t="inlineStr"/>
+      <c r="AE271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AF271" t="inlineStr"/>
       <c r="AG271" t="inlineStr"/>
       <c r="AH271" t="inlineStr"/>
       <c r="AI271" t="inlineStr"/>
       <c r="AJ271" t="inlineStr"/>
+      <c r="AK271" t="inlineStr"/>
+      <c r="AL271" t="inlineStr"/>
+      <c r="AM271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr"/>
@@ -15929,6 +16874,9 @@
       <c r="AH272" t="inlineStr"/>
       <c r="AI272" t="inlineStr"/>
       <c r="AJ272" t="inlineStr"/>
+      <c r="AK272" t="inlineStr"/>
+      <c r="AL272" t="inlineStr"/>
+      <c r="AM272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -15983,6 +16931,9 @@
       <c r="AH273" t="inlineStr"/>
       <c r="AI273" t="inlineStr"/>
       <c r="AJ273" t="inlineStr"/>
+      <c r="AK273" t="inlineStr"/>
+      <c r="AL273" t="inlineStr"/>
+      <c r="AM273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -16037,6 +16988,9 @@
       <c r="AH274" t="inlineStr"/>
       <c r="AI274" t="inlineStr"/>
       <c r="AJ274" t="inlineStr"/>
+      <c r="AK274" t="inlineStr"/>
+      <c r="AL274" t="inlineStr"/>
+      <c r="AM274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -16091,6 +17045,9 @@
       <c r="AH275" t="inlineStr"/>
       <c r="AI275" t="inlineStr"/>
       <c r="AJ275" t="inlineStr"/>
+      <c r="AK275" t="inlineStr"/>
+      <c r="AL275" t="inlineStr"/>
+      <c r="AM275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -16145,6 +17102,9 @@
       <c r="AH276" t="inlineStr"/>
       <c r="AI276" t="inlineStr"/>
       <c r="AJ276" t="inlineStr"/>
+      <c r="AK276" t="inlineStr"/>
+      <c r="AL276" t="inlineStr"/>
+      <c r="AM276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -16199,6 +17159,9 @@
       <c r="AH277" t="inlineStr"/>
       <c r="AI277" t="inlineStr"/>
       <c r="AJ277" t="inlineStr"/>
+      <c r="AK277" t="inlineStr"/>
+      <c r="AL277" t="inlineStr"/>
+      <c r="AM277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -16253,6 +17216,9 @@
       <c r="AH278" t="inlineStr"/>
       <c r="AI278" t="inlineStr"/>
       <c r="AJ278" t="inlineStr"/>
+      <c r="AK278" t="inlineStr"/>
+      <c r="AL278" t="inlineStr"/>
+      <c r="AM278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -16307,6 +17273,9 @@
       <c r="AH279" t="inlineStr"/>
       <c r="AI279" t="inlineStr"/>
       <c r="AJ279" t="inlineStr"/>
+      <c r="AK279" t="inlineStr"/>
+      <c r="AL279" t="inlineStr"/>
+      <c r="AM279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -16361,6 +17330,9 @@
       <c r="AH280" t="inlineStr"/>
       <c r="AI280" t="inlineStr"/>
       <c r="AJ280" t="inlineStr"/>
+      <c r="AK280" t="inlineStr"/>
+      <c r="AL280" t="inlineStr"/>
+      <c r="AM280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -16415,6 +17387,9 @@
       <c r="AH281" t="inlineStr"/>
       <c r="AI281" t="inlineStr"/>
       <c r="AJ281" t="inlineStr"/>
+      <c r="AK281" t="inlineStr"/>
+      <c r="AL281" t="inlineStr"/>
+      <c r="AM281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -16469,6 +17444,9 @@
       <c r="AH282" t="inlineStr"/>
       <c r="AI282" t="inlineStr"/>
       <c r="AJ282" t="inlineStr"/>
+      <c r="AK282" t="inlineStr"/>
+      <c r="AL282" t="inlineStr"/>
+      <c r="AM282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -16529,6 +17507,9 @@
       <c r="AH283" t="inlineStr"/>
       <c r="AI283" t="inlineStr"/>
       <c r="AJ283" t="inlineStr"/>
+      <c r="AK283" t="inlineStr"/>
+      <c r="AL283" t="inlineStr"/>
+      <c r="AM283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -16589,6 +17570,9 @@
       <c r="AH284" t="inlineStr"/>
       <c r="AI284" t="inlineStr"/>
       <c r="AJ284" t="inlineStr"/>
+      <c r="AK284" t="inlineStr"/>
+      <c r="AL284" t="inlineStr"/>
+      <c r="AM284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -16649,6 +17633,9 @@
       <c r="AH285" t="inlineStr"/>
       <c r="AI285" t="inlineStr"/>
       <c r="AJ285" t="inlineStr"/>
+      <c r="AK285" t="inlineStr"/>
+      <c r="AL285" t="inlineStr"/>
+      <c r="AM285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -16709,6 +17696,9 @@
       <c r="AH286" t="inlineStr"/>
       <c r="AI286" t="inlineStr"/>
       <c r="AJ286" t="inlineStr"/>
+      <c r="AK286" t="inlineStr"/>
+      <c r="AL286" t="inlineStr"/>
+      <c r="AM286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -16769,6 +17759,9 @@
       <c r="AH287" t="inlineStr"/>
       <c r="AI287" t="inlineStr"/>
       <c r="AJ287" t="inlineStr"/>
+      <c r="AK287" t="inlineStr"/>
+      <c r="AL287" t="inlineStr"/>
+      <c r="AM287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -16829,6 +17822,9 @@
       <c r="AH288" t="inlineStr"/>
       <c r="AI288" t="inlineStr"/>
       <c r="AJ288" t="inlineStr"/>
+      <c r="AK288" t="inlineStr"/>
+      <c r="AL288" t="inlineStr"/>
+      <c r="AM288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -16889,6 +17885,9 @@
       <c r="AH289" t="inlineStr"/>
       <c r="AI289" t="inlineStr"/>
       <c r="AJ289" t="inlineStr"/>
+      <c r="AK289" t="inlineStr"/>
+      <c r="AL289" t="inlineStr"/>
+      <c r="AM289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -16945,6 +17944,9 @@
       <c r="AH290" t="inlineStr"/>
       <c r="AI290" t="inlineStr"/>
       <c r="AJ290" t="inlineStr"/>
+      <c r="AK290" t="inlineStr"/>
+      <c r="AL290" t="inlineStr"/>
+      <c r="AM290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -16997,7 +17999,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W291" t="inlineStr"/>
+      <c r="W291" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="X291" t="inlineStr">
         <is>
           <t>1</t>
@@ -17005,7 +18011,7 @@
       </c>
       <c r="Y291" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z291" t="inlineStr"/>
@@ -17019,6 +18025,9 @@
       <c r="AH291" t="inlineStr"/>
       <c r="AI291" t="inlineStr"/>
       <c r="AJ291" t="inlineStr"/>
+      <c r="AK291" t="inlineStr"/>
+      <c r="AL291" t="inlineStr"/>
+      <c r="AM291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr"/>
@@ -17057,6 +18066,9 @@
       <c r="AH292" t="inlineStr"/>
       <c r="AI292" t="inlineStr"/>
       <c r="AJ292" t="inlineStr"/>
+      <c r="AK292" t="inlineStr"/>
+      <c r="AL292" t="inlineStr"/>
+      <c r="AM292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -17111,6 +18123,9 @@
       <c r="AH293" t="inlineStr"/>
       <c r="AI293" t="inlineStr"/>
       <c r="AJ293" t="inlineStr"/>
+      <c r="AK293" t="inlineStr"/>
+      <c r="AL293" t="inlineStr"/>
+      <c r="AM293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -17165,6 +18180,9 @@
       <c r="AH294" t="inlineStr"/>
       <c r="AI294" t="inlineStr"/>
       <c r="AJ294" t="inlineStr"/>
+      <c r="AK294" t="inlineStr"/>
+      <c r="AL294" t="inlineStr"/>
+      <c r="AM294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -17219,6 +18237,9 @@
       <c r="AH295" t="inlineStr"/>
       <c r="AI295" t="inlineStr"/>
       <c r="AJ295" t="inlineStr"/>
+      <c r="AK295" t="inlineStr"/>
+      <c r="AL295" t="inlineStr"/>
+      <c r="AM295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -17273,6 +18294,9 @@
       <c r="AH296" t="inlineStr"/>
       <c r="AI296" t="inlineStr"/>
       <c r="AJ296" t="inlineStr"/>
+      <c r="AK296" t="inlineStr"/>
+      <c r="AL296" t="inlineStr"/>
+      <c r="AM296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -17327,6 +18351,9 @@
       <c r="AH297" t="inlineStr"/>
       <c r="AI297" t="inlineStr"/>
       <c r="AJ297" t="inlineStr"/>
+      <c r="AK297" t="inlineStr"/>
+      <c r="AL297" t="inlineStr"/>
+      <c r="AM297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -17381,6 +18408,9 @@
       <c r="AH298" t="inlineStr"/>
       <c r="AI298" t="inlineStr"/>
       <c r="AJ298" t="inlineStr"/>
+      <c r="AK298" t="inlineStr"/>
+      <c r="AL298" t="inlineStr"/>
+      <c r="AM298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -17435,6 +18465,9 @@
       <c r="AH299" t="inlineStr"/>
       <c r="AI299" t="inlineStr"/>
       <c r="AJ299" t="inlineStr"/>
+      <c r="AK299" t="inlineStr"/>
+      <c r="AL299" t="inlineStr"/>
+      <c r="AM299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -17489,6 +18522,9 @@
       <c r="AH300" t="inlineStr"/>
       <c r="AI300" t="inlineStr"/>
       <c r="AJ300" t="inlineStr"/>
+      <c r="AK300" t="inlineStr"/>
+      <c r="AL300" t="inlineStr"/>
+      <c r="AM300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -17543,6 +18579,9 @@
       <c r="AH301" t="inlineStr"/>
       <c r="AI301" t="inlineStr"/>
       <c r="AJ301" t="inlineStr"/>
+      <c r="AK301" t="inlineStr"/>
+      <c r="AL301" t="inlineStr"/>
+      <c r="AM301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -17597,6 +18636,9 @@
       <c r="AH302" t="inlineStr"/>
       <c r="AI302" t="inlineStr"/>
       <c r="AJ302" t="inlineStr"/>
+      <c r="AK302" t="inlineStr"/>
+      <c r="AL302" t="inlineStr"/>
+      <c r="AM302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -17651,6 +18693,9 @@
       <c r="AH303" t="inlineStr"/>
       <c r="AI303" t="inlineStr"/>
       <c r="AJ303" t="inlineStr"/>
+      <c r="AK303" t="inlineStr"/>
+      <c r="AL303" t="inlineStr"/>
+      <c r="AM303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -17705,6 +18750,9 @@
       <c r="AH304" t="inlineStr"/>
       <c r="AI304" t="inlineStr"/>
       <c r="AJ304" t="inlineStr"/>
+      <c r="AK304" t="inlineStr"/>
+      <c r="AL304" t="inlineStr"/>
+      <c r="AM304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -17759,6 +18807,9 @@
       <c r="AH305" t="inlineStr"/>
       <c r="AI305" t="inlineStr"/>
       <c r="AJ305" t="inlineStr"/>
+      <c r="AK305" t="inlineStr"/>
+      <c r="AL305" t="inlineStr"/>
+      <c r="AM305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -17813,6 +18864,9 @@
       <c r="AH306" t="inlineStr"/>
       <c r="AI306" t="inlineStr"/>
       <c r="AJ306" t="inlineStr"/>
+      <c r="AK306" t="inlineStr"/>
+      <c r="AL306" t="inlineStr"/>
+      <c r="AM306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -17867,6 +18921,9 @@
       <c r="AH307" t="inlineStr"/>
       <c r="AI307" t="inlineStr"/>
       <c r="AJ307" t="inlineStr"/>
+      <c r="AK307" t="inlineStr"/>
+      <c r="AL307" t="inlineStr"/>
+      <c r="AM307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -17921,6 +18978,9 @@
       <c r="AH308" t="inlineStr"/>
       <c r="AI308" t="inlineStr"/>
       <c r="AJ308" t="inlineStr"/>
+      <c r="AK308" t="inlineStr"/>
+      <c r="AL308" t="inlineStr"/>
+      <c r="AM308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -17975,6 +19035,9 @@
       <c r="AH309" t="inlineStr"/>
       <c r="AI309" t="inlineStr"/>
       <c r="AJ309" t="inlineStr"/>
+      <c r="AK309" t="inlineStr"/>
+      <c r="AL309" t="inlineStr"/>
+      <c r="AM309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -18035,6 +19098,9 @@
       <c r="AH310" t="inlineStr"/>
       <c r="AI310" t="inlineStr"/>
       <c r="AJ310" t="inlineStr"/>
+      <c r="AK310" t="inlineStr"/>
+      <c r="AL310" t="inlineStr"/>
+      <c r="AM310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -18095,6 +19161,9 @@
       <c r="AH311" t="inlineStr"/>
       <c r="AI311" t="inlineStr"/>
       <c r="AJ311" t="inlineStr"/>
+      <c r="AK311" t="inlineStr"/>
+      <c r="AL311" t="inlineStr"/>
+      <c r="AM311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -18155,6 +19224,9 @@
       <c r="AH312" t="inlineStr"/>
       <c r="AI312" t="inlineStr"/>
       <c r="AJ312" t="inlineStr"/>
+      <c r="AK312" t="inlineStr"/>
+      <c r="AL312" t="inlineStr"/>
+      <c r="AM312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -18215,6 +19287,9 @@
       <c r="AH313" t="inlineStr"/>
       <c r="AI313" t="inlineStr"/>
       <c r="AJ313" t="inlineStr"/>
+      <c r="AK313" t="inlineStr"/>
+      <c r="AL313" t="inlineStr"/>
+      <c r="AM313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -18275,6 +19350,9 @@
       <c r="AH314" t="inlineStr"/>
       <c r="AI314" t="inlineStr"/>
       <c r="AJ314" t="inlineStr"/>
+      <c r="AK314" t="inlineStr"/>
+      <c r="AL314" t="inlineStr"/>
+      <c r="AM314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -18335,6 +19413,9 @@
       <c r="AH315" t="inlineStr"/>
       <c r="AI315" t="inlineStr"/>
       <c r="AJ315" t="inlineStr"/>
+      <c r="AK315" t="inlineStr"/>
+      <c r="AL315" t="inlineStr"/>
+      <c r="AM315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -18395,6 +19476,9 @@
       <c r="AH316" t="inlineStr"/>
       <c r="AI316" t="inlineStr"/>
       <c r="AJ316" t="inlineStr"/>
+      <c r="AK316" t="inlineStr"/>
+      <c r="AL316" t="inlineStr"/>
+      <c r="AM316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -18455,6 +19539,9 @@
       <c r="AH317" t="inlineStr"/>
       <c r="AI317" t="inlineStr"/>
       <c r="AJ317" t="inlineStr"/>
+      <c r="AK317" t="inlineStr"/>
+      <c r="AL317" t="inlineStr"/>
+      <c r="AM317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -18507,15 +19594,19 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W318" t="inlineStr"/>
+      <c r="W318" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="X318" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y318" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="Y318" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="Z318" t="inlineStr"/>
@@ -18529,6 +19620,9 @@
       <c r="AH318" t="inlineStr"/>
       <c r="AI318" t="inlineStr"/>
       <c r="AJ318" t="inlineStr"/>
+      <c r="AK318" t="inlineStr"/>
+      <c r="AL318" t="inlineStr"/>
+      <c r="AM318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -18581,32 +19675,47 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W319" t="inlineStr"/>
+      <c r="W319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="X319" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y319" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y319" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z319" t="inlineStr">
-        <is>
-          <t>['ID: 1-2', 'ID: 2-6', 'ID: 3-0']</t>
-        </is>
-      </c>
+      <c r="Z319" t="inlineStr"/>
       <c r="AA319" t="inlineStr"/>
       <c r="AB319" t="inlineStr"/>
-      <c r="AC319" t="inlineStr"/>
-      <c r="AD319" t="inlineStr"/>
-      <c r="AE319" t="inlineStr"/>
+      <c r="AC319" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AD319" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AE319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AF319" t="inlineStr"/>
       <c r="AG319" t="inlineStr"/>
       <c r="AH319" t="inlineStr"/>
       <c r="AI319" t="inlineStr"/>
       <c r="AJ319" t="inlineStr"/>
+      <c r="AK319" t="inlineStr"/>
+      <c r="AL319" t="inlineStr"/>
+      <c r="AM319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -18659,32 +19768,47 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W320" t="inlineStr"/>
+      <c r="W320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="X320" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y320" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y320" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z320" t="inlineStr">
-        <is>
-          <t>['ID: 1-2', 'ID: 2-4', 'ID: 3-0']</t>
-        </is>
-      </c>
+      <c r="Z320" t="inlineStr"/>
       <c r="AA320" t="inlineStr"/>
       <c r="AB320" t="inlineStr"/>
-      <c r="AC320" t="inlineStr"/>
-      <c r="AD320" t="inlineStr"/>
-      <c r="AE320" t="inlineStr"/>
+      <c r="AC320" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AD320" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AE320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AF320" t="inlineStr"/>
       <c r="AG320" t="inlineStr"/>
       <c r="AH320" t="inlineStr"/>
       <c r="AI320" t="inlineStr"/>
       <c r="AJ320" t="inlineStr"/>
+      <c r="AK320" t="inlineStr"/>
+      <c r="AL320" t="inlineStr"/>
+      <c r="AM320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr"/>
@@ -18723,6 +19847,9 @@
       <c r="AH321" t="inlineStr"/>
       <c r="AI321" t="inlineStr"/>
       <c r="AJ321" t="inlineStr"/>
+      <c r="AK321" t="inlineStr"/>
+      <c r="AL321" t="inlineStr"/>
+      <c r="AM321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -18777,6 +19904,9 @@
       <c r="AH322" t="inlineStr"/>
       <c r="AI322" t="inlineStr"/>
       <c r="AJ322" t="inlineStr"/>
+      <c r="AK322" t="inlineStr"/>
+      <c r="AL322" t="inlineStr"/>
+      <c r="AM322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -18831,6 +19961,9 @@
       <c r="AH323" t="inlineStr"/>
       <c r="AI323" t="inlineStr"/>
       <c r="AJ323" t="inlineStr"/>
+      <c r="AK323" t="inlineStr"/>
+      <c r="AL323" t="inlineStr"/>
+      <c r="AM323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -18885,6 +20018,9 @@
       <c r="AH324" t="inlineStr"/>
       <c r="AI324" t="inlineStr"/>
       <c r="AJ324" t="inlineStr"/>
+      <c r="AK324" t="inlineStr"/>
+      <c r="AL324" t="inlineStr"/>
+      <c r="AM324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -18939,6 +20075,9 @@
       <c r="AH325" t="inlineStr"/>
       <c r="AI325" t="inlineStr"/>
       <c r="AJ325" t="inlineStr"/>
+      <c r="AK325" t="inlineStr"/>
+      <c r="AL325" t="inlineStr"/>
+      <c r="AM325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -18995,6 +20134,9 @@
       <c r="AH326" t="inlineStr"/>
       <c r="AI326" t="inlineStr"/>
       <c r="AJ326" t="inlineStr"/>
+      <c r="AK326" t="inlineStr"/>
+      <c r="AL326" t="inlineStr"/>
+      <c r="AM326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -19047,15 +20189,19 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W327" t="inlineStr"/>
+      <c r="W327" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="X327" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y327" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="Y327" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="Z327" t="inlineStr"/>
@@ -19069,6 +20215,9 @@
       <c r="AH327" t="inlineStr"/>
       <c r="AI327" t="inlineStr"/>
       <c r="AJ327" t="inlineStr"/>
+      <c r="AK327" t="inlineStr"/>
+      <c r="AL327" t="inlineStr"/>
+      <c r="AM327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr"/>
@@ -19107,6 +20256,9 @@
       <c r="AH328" t="inlineStr"/>
       <c r="AI328" t="inlineStr"/>
       <c r="AJ328" t="inlineStr"/>
+      <c r="AK328" t="inlineStr"/>
+      <c r="AL328" t="inlineStr"/>
+      <c r="AM328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -19161,6 +20313,9 @@
       <c r="AH329" t="inlineStr"/>
       <c r="AI329" t="inlineStr"/>
       <c r="AJ329" t="inlineStr"/>
+      <c r="AK329" t="inlineStr"/>
+      <c r="AL329" t="inlineStr"/>
+      <c r="AM329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -19215,6 +20370,9 @@
       <c r="AH330" t="inlineStr"/>
       <c r="AI330" t="inlineStr"/>
       <c r="AJ330" t="inlineStr"/>
+      <c r="AK330" t="inlineStr"/>
+      <c r="AL330" t="inlineStr"/>
+      <c r="AM330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -19265,6 +20423,9 @@
       <c r="AH331" t="inlineStr"/>
       <c r="AI331" t="inlineStr"/>
       <c r="AJ331" t="inlineStr"/>
+      <c r="AK331" t="inlineStr"/>
+      <c r="AL331" t="inlineStr"/>
+      <c r="AM331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -19315,6 +20476,9 @@
       <c r="AH332" t="inlineStr"/>
       <c r="AI332" t="inlineStr"/>
       <c r="AJ332" t="inlineStr"/>
+      <c r="AK332" t="inlineStr"/>
+      <c r="AL332" t="inlineStr"/>
+      <c r="AM332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr"/>
@@ -19353,6 +20517,9 @@
       <c r="AH333" t="inlineStr"/>
       <c r="AI333" t="inlineStr"/>
       <c r="AJ333" t="inlineStr"/>
+      <c r="AK333" t="inlineStr"/>
+      <c r="AL333" t="inlineStr"/>
+      <c r="AM333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -19407,6 +20574,9 @@
       <c r="AH334" t="inlineStr"/>
       <c r="AI334" t="inlineStr"/>
       <c r="AJ334" t="inlineStr"/>
+      <c r="AK334" t="inlineStr"/>
+      <c r="AL334" t="inlineStr"/>
+      <c r="AM334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -19461,6 +20631,9 @@
       <c r="AH335" t="inlineStr"/>
       <c r="AI335" t="inlineStr"/>
       <c r="AJ335" t="inlineStr"/>
+      <c r="AK335" t="inlineStr"/>
+      <c r="AL335" t="inlineStr"/>
+      <c r="AM335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -19515,6 +20688,9 @@
       <c r="AH336" t="inlineStr"/>
       <c r="AI336" t="inlineStr"/>
       <c r="AJ336" t="inlineStr"/>
+      <c r="AK336" t="inlineStr"/>
+      <c r="AL336" t="inlineStr"/>
+      <c r="AM336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -19567,15 +20743,19 @@
           <t>2</t>
         </is>
       </c>
-      <c r="W337" t="inlineStr"/>
+      <c r="W337" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="X337" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y337" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z337" t="inlineStr"/>
@@ -19589,6 +20769,9 @@
       <c r="AH337" t="inlineStr"/>
       <c r="AI337" t="inlineStr"/>
       <c r="AJ337" t="inlineStr"/>
+      <c r="AK337" t="inlineStr"/>
+      <c r="AL337" t="inlineStr"/>
+      <c r="AM337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr"/>
@@ -19627,6 +20810,9 @@
       <c r="AH338" t="inlineStr"/>
       <c r="AI338" t="inlineStr"/>
       <c r="AJ338" t="inlineStr"/>
+      <c r="AK338" t="inlineStr"/>
+      <c r="AL338" t="inlineStr"/>
+      <c r="AM338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -19681,6 +20867,9 @@
       <c r="AH339" t="inlineStr"/>
       <c r="AI339" t="inlineStr"/>
       <c r="AJ339" t="inlineStr"/>
+      <c r="AK339" t="inlineStr"/>
+      <c r="AL339" t="inlineStr"/>
+      <c r="AM339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -19735,6 +20924,9 @@
       <c r="AH340" t="inlineStr"/>
       <c r="AI340" t="inlineStr"/>
       <c r="AJ340" t="inlineStr"/>
+      <c r="AK340" t="inlineStr"/>
+      <c r="AL340" t="inlineStr"/>
+      <c r="AM340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -19789,6 +20981,9 @@
       <c r="AH341" t="inlineStr"/>
       <c r="AI341" t="inlineStr"/>
       <c r="AJ341" t="inlineStr"/>
+      <c r="AK341" t="inlineStr"/>
+      <c r="AL341" t="inlineStr"/>
+      <c r="AM341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -19843,6 +21038,9 @@
       <c r="AH342" t="inlineStr"/>
       <c r="AI342" t="inlineStr"/>
       <c r="AJ342" t="inlineStr"/>
+      <c r="AK342" t="inlineStr"/>
+      <c r="AL342" t="inlineStr"/>
+      <c r="AM342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -19897,6 +21095,9 @@
       <c r="AH343" t="inlineStr"/>
       <c r="AI343" t="inlineStr"/>
       <c r="AJ343" t="inlineStr"/>
+      <c r="AK343" t="inlineStr"/>
+      <c r="AL343" t="inlineStr"/>
+      <c r="AM343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -19951,6 +21152,9 @@
       <c r="AH344" t="inlineStr"/>
       <c r="AI344" t="inlineStr"/>
       <c r="AJ344" t="inlineStr"/>
+      <c r="AK344" t="inlineStr"/>
+      <c r="AL344" t="inlineStr"/>
+      <c r="AM344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -20005,6 +21209,9 @@
       <c r="AH345" t="inlineStr"/>
       <c r="AI345" t="inlineStr"/>
       <c r="AJ345" t="inlineStr"/>
+      <c r="AK345" t="inlineStr"/>
+      <c r="AL345" t="inlineStr"/>
+      <c r="AM345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -20059,6 +21266,9 @@
       <c r="AH346" t="inlineStr"/>
       <c r="AI346" t="inlineStr"/>
       <c r="AJ346" t="inlineStr"/>
+      <c r="AK346" t="inlineStr"/>
+      <c r="AL346" t="inlineStr"/>
+      <c r="AM346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -20113,6 +21323,9 @@
       <c r="AH347" t="inlineStr"/>
       <c r="AI347" t="inlineStr"/>
       <c r="AJ347" t="inlineStr"/>
+      <c r="AK347" t="inlineStr"/>
+      <c r="AL347" t="inlineStr"/>
+      <c r="AM347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -20167,6 +21380,9 @@
       <c r="AH348" t="inlineStr"/>
       <c r="AI348" t="inlineStr"/>
       <c r="AJ348" t="inlineStr"/>
+      <c r="AK348" t="inlineStr"/>
+      <c r="AL348" t="inlineStr"/>
+      <c r="AM348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -20221,6 +21437,9 @@
       <c r="AH349" t="inlineStr"/>
       <c r="AI349" t="inlineStr"/>
       <c r="AJ349" t="inlineStr"/>
+      <c r="AK349" t="inlineStr"/>
+      <c r="AL349" t="inlineStr"/>
+      <c r="AM349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -20275,6 +21494,9 @@
       <c r="AH350" t="inlineStr"/>
       <c r="AI350" t="inlineStr"/>
       <c r="AJ350" t="inlineStr"/>
+      <c r="AK350" t="inlineStr"/>
+      <c r="AL350" t="inlineStr"/>
+      <c r="AM350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -20329,6 +21551,9 @@
       <c r="AH351" t="inlineStr"/>
       <c r="AI351" t="inlineStr"/>
       <c r="AJ351" t="inlineStr"/>
+      <c r="AK351" t="inlineStr"/>
+      <c r="AL351" t="inlineStr"/>
+      <c r="AM351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -20383,6 +21608,9 @@
       <c r="AH352" t="inlineStr"/>
       <c r="AI352" t="inlineStr"/>
       <c r="AJ352" t="inlineStr"/>
+      <c r="AK352" t="inlineStr"/>
+      <c r="AL352" t="inlineStr"/>
+      <c r="AM352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -20437,6 +21665,9 @@
       <c r="AH353" t="inlineStr"/>
       <c r="AI353" t="inlineStr"/>
       <c r="AJ353" t="inlineStr"/>
+      <c r="AK353" t="inlineStr"/>
+      <c r="AL353" t="inlineStr"/>
+      <c r="AM353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -20491,6 +21722,9 @@
       <c r="AH354" t="inlineStr"/>
       <c r="AI354" t="inlineStr"/>
       <c r="AJ354" t="inlineStr"/>
+      <c r="AK354" t="inlineStr"/>
+      <c r="AL354" t="inlineStr"/>
+      <c r="AM354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -20545,6 +21779,9 @@
       <c r="AH355" t="inlineStr"/>
       <c r="AI355" t="inlineStr"/>
       <c r="AJ355" t="inlineStr"/>
+      <c r="AK355" t="inlineStr"/>
+      <c r="AL355" t="inlineStr"/>
+      <c r="AM355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -20599,6 +21836,9 @@
       <c r="AH356" t="inlineStr"/>
       <c r="AI356" t="inlineStr"/>
       <c r="AJ356" t="inlineStr"/>
+      <c r="AK356" t="inlineStr"/>
+      <c r="AL356" t="inlineStr"/>
+      <c r="AM356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -20653,6 +21893,9 @@
       <c r="AH357" t="inlineStr"/>
       <c r="AI357" t="inlineStr"/>
       <c r="AJ357" t="inlineStr"/>
+      <c r="AK357" t="inlineStr"/>
+      <c r="AL357" t="inlineStr"/>
+      <c r="AM357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -20707,6 +21950,9 @@
       <c r="AH358" t="inlineStr"/>
       <c r="AI358" t="inlineStr"/>
       <c r="AJ358" t="inlineStr"/>
+      <c r="AK358" t="inlineStr"/>
+      <c r="AL358" t="inlineStr"/>
+      <c r="AM358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -20761,6 +22007,9 @@
       <c r="AH359" t="inlineStr"/>
       <c r="AI359" t="inlineStr"/>
       <c r="AJ359" t="inlineStr"/>
+      <c r="AK359" t="inlineStr"/>
+      <c r="AL359" t="inlineStr"/>
+      <c r="AM359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -20815,6 +22064,9 @@
       <c r="AH360" t="inlineStr"/>
       <c r="AI360" t="inlineStr"/>
       <c r="AJ360" t="inlineStr"/>
+      <c r="AK360" t="inlineStr"/>
+      <c r="AL360" t="inlineStr"/>
+      <c r="AM360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -20869,6 +22121,9 @@
       <c r="AH361" t="inlineStr"/>
       <c r="AI361" t="inlineStr"/>
       <c r="AJ361" t="inlineStr"/>
+      <c r="AK361" t="inlineStr"/>
+      <c r="AL361" t="inlineStr"/>
+      <c r="AM361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -20923,6 +22178,9 @@
       <c r="AH362" t="inlineStr"/>
       <c r="AI362" t="inlineStr"/>
       <c r="AJ362" t="inlineStr"/>
+      <c r="AK362" t="inlineStr"/>
+      <c r="AL362" t="inlineStr"/>
+      <c r="AM362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -20977,6 +22235,9 @@
       <c r="AH363" t="inlineStr"/>
       <c r="AI363" t="inlineStr"/>
       <c r="AJ363" t="inlineStr"/>
+      <c r="AK363" t="inlineStr"/>
+      <c r="AL363" t="inlineStr"/>
+      <c r="AM363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -21031,6 +22292,9 @@
       <c r="AH364" t="inlineStr"/>
       <c r="AI364" t="inlineStr"/>
       <c r="AJ364" t="inlineStr"/>
+      <c r="AK364" t="inlineStr"/>
+      <c r="AL364" t="inlineStr"/>
+      <c r="AM364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -21085,6 +22349,9 @@
       <c r="AH365" t="inlineStr"/>
       <c r="AI365" t="inlineStr"/>
       <c r="AJ365" t="inlineStr"/>
+      <c r="AK365" t="inlineStr"/>
+      <c r="AL365" t="inlineStr"/>
+      <c r="AM365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -21139,6 +22406,9 @@
       <c r="AH366" t="inlineStr"/>
       <c r="AI366" t="inlineStr"/>
       <c r="AJ366" t="inlineStr"/>
+      <c r="AK366" t="inlineStr"/>
+      <c r="AL366" t="inlineStr"/>
+      <c r="AM366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -21193,6 +22463,9 @@
       <c r="AH367" t="inlineStr"/>
       <c r="AI367" t="inlineStr"/>
       <c r="AJ367" t="inlineStr"/>
+      <c r="AK367" t="inlineStr"/>
+      <c r="AL367" t="inlineStr"/>
+      <c r="AM367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -21247,6 +22520,9 @@
       <c r="AH368" t="inlineStr"/>
       <c r="AI368" t="inlineStr"/>
       <c r="AJ368" t="inlineStr"/>
+      <c r="AK368" t="inlineStr"/>
+      <c r="AL368" t="inlineStr"/>
+      <c r="AM368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -21301,6 +22577,9 @@
       <c r="AH369" t="inlineStr"/>
       <c r="AI369" t="inlineStr"/>
       <c r="AJ369" t="inlineStr"/>
+      <c r="AK369" t="inlineStr"/>
+      <c r="AL369" t="inlineStr"/>
+      <c r="AM369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -21355,6 +22634,9 @@
       <c r="AH370" t="inlineStr"/>
       <c r="AI370" t="inlineStr"/>
       <c r="AJ370" t="inlineStr"/>
+      <c r="AK370" t="inlineStr"/>
+      <c r="AL370" t="inlineStr"/>
+      <c r="AM370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -21409,6 +22691,9 @@
       <c r="AH371" t="inlineStr"/>
       <c r="AI371" t="inlineStr"/>
       <c r="AJ371" t="inlineStr"/>
+      <c r="AK371" t="inlineStr"/>
+      <c r="AL371" t="inlineStr"/>
+      <c r="AM371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -21463,6 +22748,9 @@
       <c r="AH372" t="inlineStr"/>
       <c r="AI372" t="inlineStr"/>
       <c r="AJ372" t="inlineStr"/>
+      <c r="AK372" t="inlineStr"/>
+      <c r="AL372" t="inlineStr"/>
+      <c r="AM372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -21517,6 +22805,9 @@
       <c r="AH373" t="inlineStr"/>
       <c r="AI373" t="inlineStr"/>
       <c r="AJ373" t="inlineStr"/>
+      <c r="AK373" t="inlineStr"/>
+      <c r="AL373" t="inlineStr"/>
+      <c r="AM373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -21571,6 +22862,9 @@
       <c r="AH374" t="inlineStr"/>
       <c r="AI374" t="inlineStr"/>
       <c r="AJ374" t="inlineStr"/>
+      <c r="AK374" t="inlineStr"/>
+      <c r="AL374" t="inlineStr"/>
+      <c r="AM374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -21625,6 +22919,9 @@
       <c r="AH375" t="inlineStr"/>
       <c r="AI375" t="inlineStr"/>
       <c r="AJ375" t="inlineStr"/>
+      <c r="AK375" t="inlineStr"/>
+      <c r="AL375" t="inlineStr"/>
+      <c r="AM375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -21679,6 +22976,9 @@
       <c r="AH376" t="inlineStr"/>
       <c r="AI376" t="inlineStr"/>
       <c r="AJ376" t="inlineStr"/>
+      <c r="AK376" t="inlineStr"/>
+      <c r="AL376" t="inlineStr"/>
+      <c r="AM376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -21733,6 +23033,9 @@
       <c r="AH377" t="inlineStr"/>
       <c r="AI377" t="inlineStr"/>
       <c r="AJ377" t="inlineStr"/>
+      <c r="AK377" t="inlineStr"/>
+      <c r="AL377" t="inlineStr"/>
+      <c r="AM377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -21787,6 +23090,9 @@
       <c r="AH378" t="inlineStr"/>
       <c r="AI378" t="inlineStr"/>
       <c r="AJ378" t="inlineStr"/>
+      <c r="AK378" t="inlineStr"/>
+      <c r="AL378" t="inlineStr"/>
+      <c r="AM378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -21841,6 +23147,9 @@
       <c r="AH379" t="inlineStr"/>
       <c r="AI379" t="inlineStr"/>
       <c r="AJ379" t="inlineStr"/>
+      <c r="AK379" t="inlineStr"/>
+      <c r="AL379" t="inlineStr"/>
+      <c r="AM379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -21895,6 +23204,9 @@
       <c r="AH380" t="inlineStr"/>
       <c r="AI380" t="inlineStr"/>
       <c r="AJ380" t="inlineStr"/>
+      <c r="AK380" t="inlineStr"/>
+      <c r="AL380" t="inlineStr"/>
+      <c r="AM380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -21949,6 +23261,9 @@
       <c r="AH381" t="inlineStr"/>
       <c r="AI381" t="inlineStr"/>
       <c r="AJ381" t="inlineStr"/>
+      <c r="AK381" t="inlineStr"/>
+      <c r="AL381" t="inlineStr"/>
+      <c r="AM381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -22003,6 +23318,9 @@
       <c r="AH382" t="inlineStr"/>
       <c r="AI382" t="inlineStr"/>
       <c r="AJ382" t="inlineStr"/>
+      <c r="AK382" t="inlineStr"/>
+      <c r="AL382" t="inlineStr"/>
+      <c r="AM382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -22057,6 +23375,9 @@
       <c r="AH383" t="inlineStr"/>
       <c r="AI383" t="inlineStr"/>
       <c r="AJ383" t="inlineStr"/>
+      <c r="AK383" t="inlineStr"/>
+      <c r="AL383" t="inlineStr"/>
+      <c r="AM383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -22111,6 +23432,9 @@
       <c r="AH384" t="inlineStr"/>
       <c r="AI384" t="inlineStr"/>
       <c r="AJ384" t="inlineStr"/>
+      <c r="AK384" t="inlineStr"/>
+      <c r="AL384" t="inlineStr"/>
+      <c r="AM384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -22165,6 +23489,9 @@
       <c r="AH385" t="inlineStr"/>
       <c r="AI385" t="inlineStr"/>
       <c r="AJ385" t="inlineStr"/>
+      <c r="AK385" t="inlineStr"/>
+      <c r="AL385" t="inlineStr"/>
+      <c r="AM385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -22219,6 +23546,9 @@
       <c r="AH386" t="inlineStr"/>
       <c r="AI386" t="inlineStr"/>
       <c r="AJ386" t="inlineStr"/>
+      <c r="AK386" t="inlineStr"/>
+      <c r="AL386" t="inlineStr"/>
+      <c r="AM386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -22273,6 +23603,9 @@
       <c r="AH387" t="inlineStr"/>
       <c r="AI387" t="inlineStr"/>
       <c r="AJ387" t="inlineStr"/>
+      <c r="AK387" t="inlineStr"/>
+      <c r="AL387" t="inlineStr"/>
+      <c r="AM387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -22327,6 +23660,9 @@
       <c r="AH388" t="inlineStr"/>
       <c r="AI388" t="inlineStr"/>
       <c r="AJ388" t="inlineStr"/>
+      <c r="AK388" t="inlineStr"/>
+      <c r="AL388" t="inlineStr"/>
+      <c r="AM388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -22381,6 +23717,9 @@
       <c r="AH389" t="inlineStr"/>
       <c r="AI389" t="inlineStr"/>
       <c r="AJ389" t="inlineStr"/>
+      <c r="AK389" t="inlineStr"/>
+      <c r="AL389" t="inlineStr"/>
+      <c r="AM389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -22435,6 +23774,9 @@
       <c r="AH390" t="inlineStr"/>
       <c r="AI390" t="inlineStr"/>
       <c r="AJ390" t="inlineStr"/>
+      <c r="AK390" t="inlineStr"/>
+      <c r="AL390" t="inlineStr"/>
+      <c r="AM390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -22489,6 +23831,9 @@
       <c r="AH391" t="inlineStr"/>
       <c r="AI391" t="inlineStr"/>
       <c r="AJ391" t="inlineStr"/>
+      <c r="AK391" t="inlineStr"/>
+      <c r="AL391" t="inlineStr"/>
+      <c r="AM391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -22543,6 +23888,9 @@
       <c r="AH392" t="inlineStr"/>
       <c r="AI392" t="inlineStr"/>
       <c r="AJ392" t="inlineStr"/>
+      <c r="AK392" t="inlineStr"/>
+      <c r="AL392" t="inlineStr"/>
+      <c r="AM392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -22597,6 +23945,9 @@
       <c r="AH393" t="inlineStr"/>
       <c r="AI393" t="inlineStr"/>
       <c r="AJ393" t="inlineStr"/>
+      <c r="AK393" t="inlineStr"/>
+      <c r="AL393" t="inlineStr"/>
+      <c r="AM393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -22651,6 +24002,9 @@
       <c r="AH394" t="inlineStr"/>
       <c r="AI394" t="inlineStr"/>
       <c r="AJ394" t="inlineStr"/>
+      <c r="AK394" t="inlineStr"/>
+      <c r="AL394" t="inlineStr"/>
+      <c r="AM394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -22705,6 +24059,9 @@
       <c r="AH395" t="inlineStr"/>
       <c r="AI395" t="inlineStr"/>
       <c r="AJ395" t="inlineStr"/>
+      <c r="AK395" t="inlineStr"/>
+      <c r="AL395" t="inlineStr"/>
+      <c r="AM395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -22759,6 +24116,9 @@
       <c r="AH396" t="inlineStr"/>
       <c r="AI396" t="inlineStr"/>
       <c r="AJ396" t="inlineStr"/>
+      <c r="AK396" t="inlineStr"/>
+      <c r="AL396" t="inlineStr"/>
+      <c r="AM396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -22813,6 +24173,9 @@
       <c r="AH397" t="inlineStr"/>
       <c r="AI397" t="inlineStr"/>
       <c r="AJ397" t="inlineStr"/>
+      <c r="AK397" t="inlineStr"/>
+      <c r="AL397" t="inlineStr"/>
+      <c r="AM397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -22867,6 +24230,9 @@
       <c r="AH398" t="inlineStr"/>
       <c r="AI398" t="inlineStr"/>
       <c r="AJ398" t="inlineStr"/>
+      <c r="AK398" t="inlineStr"/>
+      <c r="AL398" t="inlineStr"/>
+      <c r="AM398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -22921,6 +24287,9 @@
       <c r="AH399" t="inlineStr"/>
       <c r="AI399" t="inlineStr"/>
       <c r="AJ399" t="inlineStr"/>
+      <c r="AK399" t="inlineStr"/>
+      <c r="AL399" t="inlineStr"/>
+      <c r="AM399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -22975,6 +24344,9 @@
       <c r="AH400" t="inlineStr"/>
       <c r="AI400" t="inlineStr"/>
       <c r="AJ400" t="inlineStr"/>
+      <c r="AK400" t="inlineStr"/>
+      <c r="AL400" t="inlineStr"/>
+      <c r="AM400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -23029,6 +24401,9 @@
       <c r="AH401" t="inlineStr"/>
       <c r="AI401" t="inlineStr"/>
       <c r="AJ401" t="inlineStr"/>
+      <c r="AK401" t="inlineStr"/>
+      <c r="AL401" t="inlineStr"/>
+      <c r="AM401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -23083,6 +24458,9 @@
       <c r="AH402" t="inlineStr"/>
       <c r="AI402" t="inlineStr"/>
       <c r="AJ402" t="inlineStr"/>
+      <c r="AK402" t="inlineStr"/>
+      <c r="AL402" t="inlineStr"/>
+      <c r="AM402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -23137,6 +24515,9 @@
       <c r="AH403" t="inlineStr"/>
       <c r="AI403" t="inlineStr"/>
       <c r="AJ403" t="inlineStr"/>
+      <c r="AK403" t="inlineStr"/>
+      <c r="AL403" t="inlineStr"/>
+      <c r="AM403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -23191,6 +24572,9 @@
       <c r="AH404" t="inlineStr"/>
       <c r="AI404" t="inlineStr"/>
       <c r="AJ404" t="inlineStr"/>
+      <c r="AK404" t="inlineStr"/>
+      <c r="AL404" t="inlineStr"/>
+      <c r="AM404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -23245,6 +24629,9 @@
       <c r="AH405" t="inlineStr"/>
       <c r="AI405" t="inlineStr"/>
       <c r="AJ405" t="inlineStr"/>
+      <c r="AK405" t="inlineStr"/>
+      <c r="AL405" t="inlineStr"/>
+      <c r="AM405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -23299,6 +24686,9 @@
       <c r="AH406" t="inlineStr"/>
       <c r="AI406" t="inlineStr"/>
       <c r="AJ406" t="inlineStr"/>
+      <c r="AK406" t="inlineStr"/>
+      <c r="AL406" t="inlineStr"/>
+      <c r="AM406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -23353,6 +24743,9 @@
       <c r="AH407" t="inlineStr"/>
       <c r="AI407" t="inlineStr"/>
       <c r="AJ407" t="inlineStr"/>
+      <c r="AK407" t="inlineStr"/>
+      <c r="AL407" t="inlineStr"/>
+      <c r="AM407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -23407,6 +24800,9 @@
       <c r="AH408" t="inlineStr"/>
       <c r="AI408" t="inlineStr"/>
       <c r="AJ408" t="inlineStr"/>
+      <c r="AK408" t="inlineStr"/>
+      <c r="AL408" t="inlineStr"/>
+      <c r="AM408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -23467,6 +24863,9 @@
       <c r="AH409" t="inlineStr"/>
       <c r="AI409" t="inlineStr"/>
       <c r="AJ409" t="inlineStr"/>
+      <c r="AK409" t="inlineStr"/>
+      <c r="AL409" t="inlineStr"/>
+      <c r="AM409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -23527,6 +24926,9 @@
       <c r="AH410" t="inlineStr"/>
       <c r="AI410" t="inlineStr"/>
       <c r="AJ410" t="inlineStr"/>
+      <c r="AK410" t="inlineStr"/>
+      <c r="AL410" t="inlineStr"/>
+      <c r="AM410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -23587,6 +24989,9 @@
       <c r="AH411" t="inlineStr"/>
       <c r="AI411" t="inlineStr"/>
       <c r="AJ411" t="inlineStr"/>
+      <c r="AK411" t="inlineStr"/>
+      <c r="AL411" t="inlineStr"/>
+      <c r="AM411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -23647,6 +25052,9 @@
       <c r="AH412" t="inlineStr"/>
       <c r="AI412" t="inlineStr"/>
       <c r="AJ412" t="inlineStr"/>
+      <c r="AK412" t="inlineStr"/>
+      <c r="AL412" t="inlineStr"/>
+      <c r="AM412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -23707,6 +25115,9 @@
       <c r="AH413" t="inlineStr"/>
       <c r="AI413" t="inlineStr"/>
       <c r="AJ413" t="inlineStr"/>
+      <c r="AK413" t="inlineStr"/>
+      <c r="AL413" t="inlineStr"/>
+      <c r="AM413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -23767,6 +25178,9 @@
       <c r="AH414" t="inlineStr"/>
       <c r="AI414" t="inlineStr"/>
       <c r="AJ414" t="inlineStr"/>
+      <c r="AK414" t="inlineStr"/>
+      <c r="AL414" t="inlineStr"/>
+      <c r="AM414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -23827,6 +25241,9 @@
       <c r="AH415" t="inlineStr"/>
       <c r="AI415" t="inlineStr"/>
       <c r="AJ415" t="inlineStr"/>
+      <c r="AK415" t="inlineStr"/>
+      <c r="AL415" t="inlineStr"/>
+      <c r="AM415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -23887,6 +25304,9 @@
       <c r="AH416" t="inlineStr"/>
       <c r="AI416" t="inlineStr"/>
       <c r="AJ416" t="inlineStr"/>
+      <c r="AK416" t="inlineStr"/>
+      <c r="AL416" t="inlineStr"/>
+      <c r="AM416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -23947,6 +25367,9 @@
       <c r="AH417" t="inlineStr"/>
       <c r="AI417" t="inlineStr"/>
       <c r="AJ417" t="inlineStr"/>
+      <c r="AK417" t="inlineStr"/>
+      <c r="AL417" t="inlineStr"/>
+      <c r="AM417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -24007,6 +25430,9 @@
       <c r="AH418" t="inlineStr"/>
       <c r="AI418" t="inlineStr"/>
       <c r="AJ418" t="inlineStr"/>
+      <c r="AK418" t="inlineStr"/>
+      <c r="AL418" t="inlineStr"/>
+      <c r="AM418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -24067,6 +25493,9 @@
       <c r="AH419" t="inlineStr"/>
       <c r="AI419" t="inlineStr"/>
       <c r="AJ419" t="inlineStr"/>
+      <c r="AK419" t="inlineStr"/>
+      <c r="AL419" t="inlineStr"/>
+      <c r="AM419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -24127,6 +25556,9 @@
       <c r="AH420" t="inlineStr"/>
       <c r="AI420" t="inlineStr"/>
       <c r="AJ420" t="inlineStr"/>
+      <c r="AK420" t="inlineStr"/>
+      <c r="AL420" t="inlineStr"/>
+      <c r="AM420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -24187,6 +25619,9 @@
       <c r="AH421" t="inlineStr"/>
       <c r="AI421" t="inlineStr"/>
       <c r="AJ421" t="inlineStr"/>
+      <c r="AK421" t="inlineStr"/>
+      <c r="AL421" t="inlineStr"/>
+      <c r="AM421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -24247,6 +25682,9 @@
       <c r="AH422" t="inlineStr"/>
       <c r="AI422" t="inlineStr"/>
       <c r="AJ422" t="inlineStr"/>
+      <c r="AK422" t="inlineStr"/>
+      <c r="AL422" t="inlineStr"/>
+      <c r="AM422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -24307,6 +25745,9 @@
       <c r="AH423" t="inlineStr"/>
       <c r="AI423" t="inlineStr"/>
       <c r="AJ423" t="inlineStr"/>
+      <c r="AK423" t="inlineStr"/>
+      <c r="AL423" t="inlineStr"/>
+      <c r="AM423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -24367,6 +25808,9 @@
       <c r="AH424" t="inlineStr"/>
       <c r="AI424" t="inlineStr"/>
       <c r="AJ424" t="inlineStr"/>
+      <c r="AK424" t="inlineStr"/>
+      <c r="AL424" t="inlineStr"/>
+      <c r="AM424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -24427,6 +25871,9 @@
       <c r="AH425" t="inlineStr"/>
       <c r="AI425" t="inlineStr"/>
       <c r="AJ425" t="inlineStr"/>
+      <c r="AK425" t="inlineStr"/>
+      <c r="AL425" t="inlineStr"/>
+      <c r="AM425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -24487,6 +25934,9 @@
       <c r="AH426" t="inlineStr"/>
       <c r="AI426" t="inlineStr"/>
       <c r="AJ426" t="inlineStr"/>
+      <c r="AK426" t="inlineStr"/>
+      <c r="AL426" t="inlineStr"/>
+      <c r="AM426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -24547,6 +25997,9 @@
       <c r="AH427" t="inlineStr"/>
       <c r="AI427" t="inlineStr"/>
       <c r="AJ427" t="inlineStr"/>
+      <c r="AK427" t="inlineStr"/>
+      <c r="AL427" t="inlineStr"/>
+      <c r="AM427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -24607,6 +26060,9 @@
       <c r="AH428" t="inlineStr"/>
       <c r="AI428" t="inlineStr"/>
       <c r="AJ428" t="inlineStr"/>
+      <c r="AK428" t="inlineStr"/>
+      <c r="AL428" t="inlineStr"/>
+      <c r="AM428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -24667,6 +26123,9 @@
       <c r="AH429" t="inlineStr"/>
       <c r="AI429" t="inlineStr"/>
       <c r="AJ429" t="inlineStr"/>
+      <c r="AK429" t="inlineStr"/>
+      <c r="AL429" t="inlineStr"/>
+      <c r="AM429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -24727,6 +26186,9 @@
       <c r="AH430" t="inlineStr"/>
       <c r="AI430" t="inlineStr"/>
       <c r="AJ430" t="inlineStr"/>
+      <c r="AK430" t="inlineStr"/>
+      <c r="AL430" t="inlineStr"/>
+      <c r="AM430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -24787,6 +26249,9 @@
       <c r="AH431" t="inlineStr"/>
       <c r="AI431" t="inlineStr"/>
       <c r="AJ431" t="inlineStr"/>
+      <c r="AK431" t="inlineStr"/>
+      <c r="AL431" t="inlineStr"/>
+      <c r="AM431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -24847,6 +26312,9 @@
       <c r="AH432" t="inlineStr"/>
       <c r="AI432" t="inlineStr"/>
       <c r="AJ432" t="inlineStr"/>
+      <c r="AK432" t="inlineStr"/>
+      <c r="AL432" t="inlineStr"/>
+      <c r="AM432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -24907,6 +26375,9 @@
       <c r="AH433" t="inlineStr"/>
       <c r="AI433" t="inlineStr"/>
       <c r="AJ433" t="inlineStr"/>
+      <c r="AK433" t="inlineStr"/>
+      <c r="AL433" t="inlineStr"/>
+      <c r="AM433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -24967,6 +26438,9 @@
       <c r="AH434" t="inlineStr"/>
       <c r="AI434" t="inlineStr"/>
       <c r="AJ434" t="inlineStr"/>
+      <c r="AK434" t="inlineStr"/>
+      <c r="AL434" t="inlineStr"/>
+      <c r="AM434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -25027,6 +26501,9 @@
       <c r="AH435" t="inlineStr"/>
       <c r="AI435" t="inlineStr"/>
       <c r="AJ435" t="inlineStr"/>
+      <c r="AK435" t="inlineStr"/>
+      <c r="AL435" t="inlineStr"/>
+      <c r="AM435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -25087,6 +26564,9 @@
       <c r="AH436" t="inlineStr"/>
       <c r="AI436" t="inlineStr"/>
       <c r="AJ436" t="inlineStr"/>
+      <c r="AK436" t="inlineStr"/>
+      <c r="AL436" t="inlineStr"/>
+      <c r="AM436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -25147,6 +26627,9 @@
       <c r="AH437" t="inlineStr"/>
       <c r="AI437" t="inlineStr"/>
       <c r="AJ437" t="inlineStr"/>
+      <c r="AK437" t="inlineStr"/>
+      <c r="AL437" t="inlineStr"/>
+      <c r="AM437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -25207,6 +26690,9 @@
       <c r="AH438" t="inlineStr"/>
       <c r="AI438" t="inlineStr"/>
       <c r="AJ438" t="inlineStr"/>
+      <c r="AK438" t="inlineStr"/>
+      <c r="AL438" t="inlineStr"/>
+      <c r="AM438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -25267,6 +26753,9 @@
       <c r="AH439" t="inlineStr"/>
       <c r="AI439" t="inlineStr"/>
       <c r="AJ439" t="inlineStr"/>
+      <c r="AK439" t="inlineStr"/>
+      <c r="AL439" t="inlineStr"/>
+      <c r="AM439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -25327,6 +26816,9 @@
       <c r="AH440" t="inlineStr"/>
       <c r="AI440" t="inlineStr"/>
       <c r="AJ440" t="inlineStr"/>
+      <c r="AK440" t="inlineStr"/>
+      <c r="AL440" t="inlineStr"/>
+      <c r="AM440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -25387,6 +26879,9 @@
       <c r="AH441" t="inlineStr"/>
       <c r="AI441" t="inlineStr"/>
       <c r="AJ441" t="inlineStr"/>
+      <c r="AK441" t="inlineStr"/>
+      <c r="AL441" t="inlineStr"/>
+      <c r="AM441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -25447,6 +26942,9 @@
       <c r="AH442" t="inlineStr"/>
       <c r="AI442" t="inlineStr"/>
       <c r="AJ442" t="inlineStr"/>
+      <c r="AK442" t="inlineStr"/>
+      <c r="AL442" t="inlineStr"/>
+      <c r="AM442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -25507,6 +27005,9 @@
       <c r="AH443" t="inlineStr"/>
       <c r="AI443" t="inlineStr"/>
       <c r="AJ443" t="inlineStr"/>
+      <c r="AK443" t="inlineStr"/>
+      <c r="AL443" t="inlineStr"/>
+      <c r="AM443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -25567,6 +27068,9 @@
       <c r="AH444" t="inlineStr"/>
       <c r="AI444" t="inlineStr"/>
       <c r="AJ444" t="inlineStr"/>
+      <c r="AK444" t="inlineStr"/>
+      <c r="AL444" t="inlineStr"/>
+      <c r="AM444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -25627,6 +27131,9 @@
       <c r="AH445" t="inlineStr"/>
       <c r="AI445" t="inlineStr"/>
       <c r="AJ445" t="inlineStr"/>
+      <c r="AK445" t="inlineStr"/>
+      <c r="AL445" t="inlineStr"/>
+      <c r="AM445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -25687,6 +27194,9 @@
       <c r="AH446" t="inlineStr"/>
       <c r="AI446" t="inlineStr"/>
       <c r="AJ446" t="inlineStr"/>
+      <c r="AK446" t="inlineStr"/>
+      <c r="AL446" t="inlineStr"/>
+      <c r="AM446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -25747,6 +27257,9 @@
       <c r="AH447" t="inlineStr"/>
       <c r="AI447" t="inlineStr"/>
       <c r="AJ447" t="inlineStr"/>
+      <c r="AK447" t="inlineStr"/>
+      <c r="AL447" t="inlineStr"/>
+      <c r="AM447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -25807,6 +27320,9 @@
       <c r="AH448" t="inlineStr"/>
       <c r="AI448" t="inlineStr"/>
       <c r="AJ448" t="inlineStr"/>
+      <c r="AK448" t="inlineStr"/>
+      <c r="AL448" t="inlineStr"/>
+      <c r="AM448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -25867,6 +27383,9 @@
       <c r="AH449" t="inlineStr"/>
       <c r="AI449" t="inlineStr"/>
       <c r="AJ449" t="inlineStr"/>
+      <c r="AK449" t="inlineStr"/>
+      <c r="AL449" t="inlineStr"/>
+      <c r="AM449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -25927,6 +27446,9 @@
       <c r="AH450" t="inlineStr"/>
       <c r="AI450" t="inlineStr"/>
       <c r="AJ450" t="inlineStr"/>
+      <c r="AK450" t="inlineStr"/>
+      <c r="AL450" t="inlineStr"/>
+      <c r="AM450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -25987,6 +27509,9 @@
       <c r="AH451" t="inlineStr"/>
       <c r="AI451" t="inlineStr"/>
       <c r="AJ451" t="inlineStr"/>
+      <c r="AK451" t="inlineStr"/>
+      <c r="AL451" t="inlineStr"/>
+      <c r="AM451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -26047,6 +27572,9 @@
       <c r="AH452" t="inlineStr"/>
       <c r="AI452" t="inlineStr"/>
       <c r="AJ452" t="inlineStr"/>
+      <c r="AK452" t="inlineStr"/>
+      <c r="AL452" t="inlineStr"/>
+      <c r="AM452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -26107,6 +27635,9 @@
       <c r="AH453" t="inlineStr"/>
       <c r="AI453" t="inlineStr"/>
       <c r="AJ453" t="inlineStr"/>
+      <c r="AK453" t="inlineStr"/>
+      <c r="AL453" t="inlineStr"/>
+      <c r="AM453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -26167,6 +27698,9 @@
       <c r="AH454" t="inlineStr"/>
       <c r="AI454" t="inlineStr"/>
       <c r="AJ454" t="inlineStr"/>
+      <c r="AK454" t="inlineStr"/>
+      <c r="AL454" t="inlineStr"/>
+      <c r="AM454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -26227,6 +27761,9 @@
       <c r="AH455" t="inlineStr"/>
       <c r="AI455" t="inlineStr"/>
       <c r="AJ455" t="inlineStr"/>
+      <c r="AK455" t="inlineStr"/>
+      <c r="AL455" t="inlineStr"/>
+      <c r="AM455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -26287,6 +27824,9 @@
       <c r="AH456" t="inlineStr"/>
       <c r="AI456" t="inlineStr"/>
       <c r="AJ456" t="inlineStr"/>
+      <c r="AK456" t="inlineStr"/>
+      <c r="AL456" t="inlineStr"/>
+      <c r="AM456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -26347,6 +27887,9 @@
       <c r="AH457" t="inlineStr"/>
       <c r="AI457" t="inlineStr"/>
       <c r="AJ457" t="inlineStr"/>
+      <c r="AK457" t="inlineStr"/>
+      <c r="AL457" t="inlineStr"/>
+      <c r="AM457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -26407,6 +27950,9 @@
       <c r="AH458" t="inlineStr"/>
       <c r="AI458" t="inlineStr"/>
       <c r="AJ458" t="inlineStr"/>
+      <c r="AK458" t="inlineStr"/>
+      <c r="AL458" t="inlineStr"/>
+      <c r="AM458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -26467,6 +28013,9 @@
       <c r="AH459" t="inlineStr"/>
       <c r="AI459" t="inlineStr"/>
       <c r="AJ459" t="inlineStr"/>
+      <c r="AK459" t="inlineStr"/>
+      <c r="AL459" t="inlineStr"/>
+      <c r="AM459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -26527,6 +28076,9 @@
       <c r="AH460" t="inlineStr"/>
       <c r="AI460" t="inlineStr"/>
       <c r="AJ460" t="inlineStr"/>
+      <c r="AK460" t="inlineStr"/>
+      <c r="AL460" t="inlineStr"/>
+      <c r="AM460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -26587,6 +28139,9 @@
       <c r="AH461" t="inlineStr"/>
       <c r="AI461" t="inlineStr"/>
       <c r="AJ461" t="inlineStr"/>
+      <c r="AK461" t="inlineStr"/>
+      <c r="AL461" t="inlineStr"/>
+      <c r="AM461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -26647,6 +28202,9 @@
       <c r="AH462" t="inlineStr"/>
       <c r="AI462" t="inlineStr"/>
       <c r="AJ462" t="inlineStr"/>
+      <c r="AK462" t="inlineStr"/>
+      <c r="AL462" t="inlineStr"/>
+      <c r="AM462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -26707,6 +28265,9 @@
       <c r="AH463" t="inlineStr"/>
       <c r="AI463" t="inlineStr"/>
       <c r="AJ463" t="inlineStr"/>
+      <c r="AK463" t="inlineStr"/>
+      <c r="AL463" t="inlineStr"/>
+      <c r="AM463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -26767,6 +28328,9 @@
       <c r="AH464" t="inlineStr"/>
       <c r="AI464" t="inlineStr"/>
       <c r="AJ464" t="inlineStr"/>
+      <c r="AK464" t="inlineStr"/>
+      <c r="AL464" t="inlineStr"/>
+      <c r="AM464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -26827,6 +28391,9 @@
       <c r="AH465" t="inlineStr"/>
       <c r="AI465" t="inlineStr"/>
       <c r="AJ465" t="inlineStr"/>
+      <c r="AK465" t="inlineStr"/>
+      <c r="AL465" t="inlineStr"/>
+      <c r="AM465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -26887,6 +28454,9 @@
       <c r="AH466" t="inlineStr"/>
       <c r="AI466" t="inlineStr"/>
       <c r="AJ466" t="inlineStr"/>
+      <c r="AK466" t="inlineStr"/>
+      <c r="AL466" t="inlineStr"/>
+      <c r="AM466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -26947,6 +28517,9 @@
       <c r="AH467" t="inlineStr"/>
       <c r="AI467" t="inlineStr"/>
       <c r="AJ467" t="inlineStr"/>
+      <c r="AK467" t="inlineStr"/>
+      <c r="AL467" t="inlineStr"/>
+      <c r="AM467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -27007,6 +28580,9 @@
       <c r="AH468" t="inlineStr"/>
       <c r="AI468" t="inlineStr"/>
       <c r="AJ468" t="inlineStr"/>
+      <c r="AK468" t="inlineStr"/>
+      <c r="AL468" t="inlineStr"/>
+      <c r="AM468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -27067,6 +28643,9 @@
       <c r="AH469" t="inlineStr"/>
       <c r="AI469" t="inlineStr"/>
       <c r="AJ469" t="inlineStr"/>
+      <c r="AK469" t="inlineStr"/>
+      <c r="AL469" t="inlineStr"/>
+      <c r="AM469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -27127,6 +28706,9 @@
       <c r="AH470" t="inlineStr"/>
       <c r="AI470" t="inlineStr"/>
       <c r="AJ470" t="inlineStr"/>
+      <c r="AK470" t="inlineStr"/>
+      <c r="AL470" t="inlineStr"/>
+      <c r="AM470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -27187,6 +28769,9 @@
       <c r="AH471" t="inlineStr"/>
       <c r="AI471" t="inlineStr"/>
       <c r="AJ471" t="inlineStr"/>
+      <c r="AK471" t="inlineStr"/>
+      <c r="AL471" t="inlineStr"/>
+      <c r="AM471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -27247,6 +28832,9 @@
       <c r="AH472" t="inlineStr"/>
       <c r="AI472" t="inlineStr"/>
       <c r="AJ472" t="inlineStr"/>
+      <c r="AK472" t="inlineStr"/>
+      <c r="AL472" t="inlineStr"/>
+      <c r="AM472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -27307,6 +28895,9 @@
       <c r="AH473" t="inlineStr"/>
       <c r="AI473" t="inlineStr"/>
       <c r="AJ473" t="inlineStr"/>
+      <c r="AK473" t="inlineStr"/>
+      <c r="AL473" t="inlineStr"/>
+      <c r="AM473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -27367,6 +28958,9 @@
       <c r="AH474" t="inlineStr"/>
       <c r="AI474" t="inlineStr"/>
       <c r="AJ474" t="inlineStr"/>
+      <c r="AK474" t="inlineStr"/>
+      <c r="AL474" t="inlineStr"/>
+      <c r="AM474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -27427,6 +29021,9 @@
       <c r="AH475" t="inlineStr"/>
       <c r="AI475" t="inlineStr"/>
       <c r="AJ475" t="inlineStr"/>
+      <c r="AK475" t="inlineStr"/>
+      <c r="AL475" t="inlineStr"/>
+      <c r="AM475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -27487,6 +29084,9 @@
       <c r="AH476" t="inlineStr"/>
       <c r="AI476" t="inlineStr"/>
       <c r="AJ476" t="inlineStr"/>
+      <c r="AK476" t="inlineStr"/>
+      <c r="AL476" t="inlineStr"/>
+      <c r="AM476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -27547,6 +29147,9 @@
       <c r="AH477" t="inlineStr"/>
       <c r="AI477" t="inlineStr"/>
       <c r="AJ477" t="inlineStr"/>
+      <c r="AK477" t="inlineStr"/>
+      <c r="AL477" t="inlineStr"/>
+      <c r="AM477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -27607,6 +29210,9 @@
       <c r="AH478" t="inlineStr"/>
       <c r="AI478" t="inlineStr"/>
       <c r="AJ478" t="inlineStr"/>
+      <c r="AK478" t="inlineStr"/>
+      <c r="AL478" t="inlineStr"/>
+      <c r="AM478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -27667,6 +29273,9 @@
       <c r="AH479" t="inlineStr"/>
       <c r="AI479" t="inlineStr"/>
       <c r="AJ479" t="inlineStr"/>
+      <c r="AK479" t="inlineStr"/>
+      <c r="AL479" t="inlineStr"/>
+      <c r="AM479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -27727,6 +29336,9 @@
       <c r="AH480" t="inlineStr"/>
       <c r="AI480" t="inlineStr"/>
       <c r="AJ480" t="inlineStr"/>
+      <c r="AK480" t="inlineStr"/>
+      <c r="AL480" t="inlineStr"/>
+      <c r="AM480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -27787,6 +29399,9 @@
       <c r="AH481" t="inlineStr"/>
       <c r="AI481" t="inlineStr"/>
       <c r="AJ481" t="inlineStr"/>
+      <c r="AK481" t="inlineStr"/>
+      <c r="AL481" t="inlineStr"/>
+      <c r="AM481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -27847,6 +29462,9 @@
       <c r="AH482" t="inlineStr"/>
       <c r="AI482" t="inlineStr"/>
       <c r="AJ482" t="inlineStr"/>
+      <c r="AK482" t="inlineStr"/>
+      <c r="AL482" t="inlineStr"/>
+      <c r="AM482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -27907,6 +29525,9 @@
       <c r="AH483" t="inlineStr"/>
       <c r="AI483" t="inlineStr"/>
       <c r="AJ483" t="inlineStr"/>
+      <c r="AK483" t="inlineStr"/>
+      <c r="AL483" t="inlineStr"/>
+      <c r="AM483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -27967,6 +29588,9 @@
       <c r="AH484" t="inlineStr"/>
       <c r="AI484" t="inlineStr"/>
       <c r="AJ484" t="inlineStr"/>
+      <c r="AK484" t="inlineStr"/>
+      <c r="AL484" t="inlineStr"/>
+      <c r="AM484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -28027,6 +29651,9 @@
       <c r="AH485" t="inlineStr"/>
       <c r="AI485" t="inlineStr"/>
       <c r="AJ485" t="inlineStr"/>
+      <c r="AK485" t="inlineStr"/>
+      <c r="AL485" t="inlineStr"/>
+      <c r="AM485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -28087,6 +29714,9 @@
       <c r="AH486" t="inlineStr"/>
       <c r="AI486" t="inlineStr"/>
       <c r="AJ486" t="inlineStr"/>
+      <c r="AK486" t="inlineStr"/>
+      <c r="AL486" t="inlineStr"/>
+      <c r="AM486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -28147,6 +29777,9 @@
       <c r="AH487" t="inlineStr"/>
       <c r="AI487" t="inlineStr"/>
       <c r="AJ487" t="inlineStr"/>
+      <c r="AK487" t="inlineStr"/>
+      <c r="AL487" t="inlineStr"/>
+      <c r="AM487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -28207,6 +29840,9 @@
       <c r="AH488" t="inlineStr"/>
       <c r="AI488" t="inlineStr"/>
       <c r="AJ488" t="inlineStr"/>
+      <c r="AK488" t="inlineStr"/>
+      <c r="AL488" t="inlineStr"/>
+      <c r="AM488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -28267,6 +29903,9 @@
       <c r="AH489" t="inlineStr"/>
       <c r="AI489" t="inlineStr"/>
       <c r="AJ489" t="inlineStr"/>
+      <c r="AK489" t="inlineStr"/>
+      <c r="AL489" t="inlineStr"/>
+      <c r="AM489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -28323,6 +29962,9 @@
       <c r="AH490" t="inlineStr"/>
       <c r="AI490" t="inlineStr"/>
       <c r="AJ490" t="inlineStr"/>
+      <c r="AK490" t="inlineStr"/>
+      <c r="AL490" t="inlineStr"/>
+      <c r="AM490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -28379,6 +30021,9 @@
       <c r="AH491" t="inlineStr"/>
       <c r="AI491" t="inlineStr"/>
       <c r="AJ491" t="inlineStr"/>
+      <c r="AK491" t="inlineStr"/>
+      <c r="AL491" t="inlineStr"/>
+      <c r="AM491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -28435,6 +30080,9 @@
       <c r="AH492" t="inlineStr"/>
       <c r="AI492" t="inlineStr"/>
       <c r="AJ492" t="inlineStr"/>
+      <c r="AK492" t="inlineStr"/>
+      <c r="AL492" t="inlineStr"/>
+      <c r="AM492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -28491,6 +30139,9 @@
       <c r="AH493" t="inlineStr"/>
       <c r="AI493" t="inlineStr"/>
       <c r="AJ493" t="inlineStr"/>
+      <c r="AK493" t="inlineStr"/>
+      <c r="AL493" t="inlineStr"/>
+      <c r="AM493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -28547,6 +30198,9 @@
       <c r="AH494" t="inlineStr"/>
       <c r="AI494" t="inlineStr"/>
       <c r="AJ494" t="inlineStr"/>
+      <c r="AK494" t="inlineStr"/>
+      <c r="AL494" t="inlineStr"/>
+      <c r="AM494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -28603,6 +30257,9 @@
       <c r="AH495" t="inlineStr"/>
       <c r="AI495" t="inlineStr"/>
       <c r="AJ495" t="inlineStr"/>
+      <c r="AK495" t="inlineStr"/>
+      <c r="AL495" t="inlineStr"/>
+      <c r="AM495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -28653,6 +30310,9 @@
       <c r="AH496" t="inlineStr"/>
       <c r="AI496" t="inlineStr"/>
       <c r="AJ496" t="inlineStr"/>
+      <c r="AK496" t="inlineStr"/>
+      <c r="AL496" t="inlineStr"/>
+      <c r="AM496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -28703,6 +30363,9 @@
       <c r="AH497" t="inlineStr"/>
       <c r="AI497" t="inlineStr"/>
       <c r="AJ497" t="inlineStr"/>
+      <c r="AK497" t="inlineStr"/>
+      <c r="AL497" t="inlineStr"/>
+      <c r="AM497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -28753,6 +30416,9 @@
       <c r="AH498" t="inlineStr"/>
       <c r="AI498" t="inlineStr"/>
       <c r="AJ498" t="inlineStr"/>
+      <c r="AK498" t="inlineStr"/>
+      <c r="AL498" t="inlineStr"/>
+      <c r="AM498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -28803,6 +30469,9 @@
       <c r="AH499" t="inlineStr"/>
       <c r="AI499" t="inlineStr"/>
       <c r="AJ499" t="inlineStr"/>
+      <c r="AK499" t="inlineStr"/>
+      <c r="AL499" t="inlineStr"/>
+      <c r="AM499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -28853,6 +30522,9 @@
       <c r="AH500" t="inlineStr"/>
       <c r="AI500" t="inlineStr"/>
       <c r="AJ500" t="inlineStr"/>
+      <c r="AK500" t="inlineStr"/>
+      <c r="AL500" t="inlineStr"/>
+      <c r="AM500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -28903,6 +30575,9 @@
       <c r="AH501" t="inlineStr"/>
       <c r="AI501" t="inlineStr"/>
       <c r="AJ501" t="inlineStr"/>
+      <c r="AK501" t="inlineStr"/>
+      <c r="AL501" t="inlineStr"/>
+      <c r="AM501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -28953,6 +30628,9 @@
       <c r="AH502" t="inlineStr"/>
       <c r="AI502" t="inlineStr"/>
       <c r="AJ502" t="inlineStr"/>
+      <c r="AK502" t="inlineStr"/>
+      <c r="AL502" t="inlineStr"/>
+      <c r="AM502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -29003,6 +30681,9 @@
       <c r="AH503" t="inlineStr"/>
       <c r="AI503" t="inlineStr"/>
       <c r="AJ503" t="inlineStr"/>
+      <c r="AK503" t="inlineStr"/>
+      <c r="AL503" t="inlineStr"/>
+      <c r="AM503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -29053,6 +30734,9 @@
       <c r="AH504" t="inlineStr"/>
       <c r="AI504" t="inlineStr"/>
       <c r="AJ504" t="inlineStr"/>
+      <c r="AK504" t="inlineStr"/>
+      <c r="AL504" t="inlineStr"/>
+      <c r="AM504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -29103,6 +30787,9 @@
       <c r="AH505" t="inlineStr"/>
       <c r="AI505" t="inlineStr"/>
       <c r="AJ505" t="inlineStr"/>
+      <c r="AK505" t="inlineStr"/>
+      <c r="AL505" t="inlineStr"/>
+      <c r="AM505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -29153,6 +30840,9 @@
       <c r="AH506" t="inlineStr"/>
       <c r="AI506" t="inlineStr"/>
       <c r="AJ506" t="inlineStr"/>
+      <c r="AK506" t="inlineStr"/>
+      <c r="AL506" t="inlineStr"/>
+      <c r="AM506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -29203,6 +30893,9 @@
       <c r="AH507" t="inlineStr"/>
       <c r="AI507" t="inlineStr"/>
       <c r="AJ507" t="inlineStr"/>
+      <c r="AK507" t="inlineStr"/>
+      <c r="AL507" t="inlineStr"/>
+      <c r="AM507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -29253,6 +30946,9 @@
       <c r="AH508" t="inlineStr"/>
       <c r="AI508" t="inlineStr"/>
       <c r="AJ508" t="inlineStr"/>
+      <c r="AK508" t="inlineStr"/>
+      <c r="AL508" t="inlineStr"/>
+      <c r="AM508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -29305,13 +31001,17 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W509" t="inlineStr"/>
-      <c r="X509" t="inlineStr">
+      <c r="W509" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y509" t="inlineStr"/>
+      <c r="X509" t="inlineStr"/>
+      <c r="Y509" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Z509" t="inlineStr"/>
       <c r="AA509" t="inlineStr"/>
       <c r="AB509" t="inlineStr"/>
@@ -29323,6 +31023,9 @@
       <c r="AH509" t="inlineStr"/>
       <c r="AI509" t="inlineStr"/>
       <c r="AJ509" t="inlineStr"/>
+      <c r="AK509" t="inlineStr"/>
+      <c r="AL509" t="inlineStr"/>
+      <c r="AM509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -29375,28 +31078,63 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W510" t="inlineStr"/>
-      <c r="X510" t="inlineStr">
+      <c r="W510" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y510" t="inlineStr"/>
-      <c r="Z510" t="inlineStr">
-        <is>
-          <t>['ID: 1-1', 'ID: 3-1', 'ID: 5-2', 'ID: 6-0', 'ID: 7-3,4,5,1', 'ID: 8-1', 'ID: 9-1', 'ID: 10-0']</t>
-        </is>
-      </c>
+      <c r="X510" t="inlineStr"/>
+      <c r="Y510" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z510" t="inlineStr"/>
       <c r="AA510" t="inlineStr"/>
       <c r="AB510" t="inlineStr"/>
-      <c r="AC510" t="inlineStr"/>
+      <c r="AC510" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AD510" t="inlineStr"/>
-      <c r="AE510" t="inlineStr"/>
-      <c r="AF510" t="inlineStr"/>
-      <c r="AG510" t="inlineStr"/>
-      <c r="AH510" t="inlineStr"/>
-      <c r="AI510" t="inlineStr"/>
-      <c r="AJ510" t="inlineStr"/>
+      <c r="AE510" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF510" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AG510" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH510" t="inlineStr">
+        <is>
+          <t>3,4,5,1</t>
+        </is>
+      </c>
+      <c r="AI510" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ510" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK510" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL510" t="inlineStr"/>
+      <c r="AM510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr"/>
@@ -29435,6 +31173,9 @@
       <c r="AH511" t="inlineStr"/>
       <c r="AI511" t="inlineStr"/>
       <c r="AJ511" t="inlineStr"/>
+      <c r="AK511" t="inlineStr"/>
+      <c r="AL511" t="inlineStr"/>
+      <c r="AM511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -29489,6 +31230,9 @@
       <c r="AH512" t="inlineStr"/>
       <c r="AI512" t="inlineStr"/>
       <c r="AJ512" t="inlineStr"/>
+      <c r="AK512" t="inlineStr"/>
+      <c r="AL512" t="inlineStr"/>
+      <c r="AM512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -29543,6 +31287,9 @@
       <c r="AH513" t="inlineStr"/>
       <c r="AI513" t="inlineStr"/>
       <c r="AJ513" t="inlineStr"/>
+      <c r="AK513" t="inlineStr"/>
+      <c r="AL513" t="inlineStr"/>
+      <c r="AM513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -29597,6 +31344,9 @@
       <c r="AH514" t="inlineStr"/>
       <c r="AI514" t="inlineStr"/>
       <c r="AJ514" t="inlineStr"/>
+      <c r="AK514" t="inlineStr"/>
+      <c r="AL514" t="inlineStr"/>
+      <c r="AM514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -29649,7 +31399,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W515" t="inlineStr"/>
+      <c r="W515" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="X515" t="inlineStr">
         <is>
           <t>1</t>
@@ -29657,7 +31411,7 @@
       </c>
       <c r="Y515" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z515" t="inlineStr"/>
@@ -29671,6 +31425,9 @@
       <c r="AH515" t="inlineStr"/>
       <c r="AI515" t="inlineStr"/>
       <c r="AJ515" t="inlineStr"/>
+      <c r="AK515" t="inlineStr"/>
+      <c r="AL515" t="inlineStr"/>
+      <c r="AM515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr"/>
@@ -29709,6 +31466,9 @@
       <c r="AH516" t="inlineStr"/>
       <c r="AI516" t="inlineStr"/>
       <c r="AJ516" t="inlineStr"/>
+      <c r="AK516" t="inlineStr"/>
+      <c r="AL516" t="inlineStr"/>
+      <c r="AM516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -29763,6 +31523,9 @@
       <c r="AH517" t="inlineStr"/>
       <c r="AI517" t="inlineStr"/>
       <c r="AJ517" t="inlineStr"/>
+      <c r="AK517" t="inlineStr"/>
+      <c r="AL517" t="inlineStr"/>
+      <c r="AM517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -29817,6 +31580,9 @@
       <c r="AH518" t="inlineStr"/>
       <c r="AI518" t="inlineStr"/>
       <c r="AJ518" t="inlineStr"/>
+      <c r="AK518" t="inlineStr"/>
+      <c r="AL518" t="inlineStr"/>
+      <c r="AM518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -29871,6 +31637,9 @@
       <c r="AH519" t="inlineStr"/>
       <c r="AI519" t="inlineStr"/>
       <c r="AJ519" t="inlineStr"/>
+      <c r="AK519" t="inlineStr"/>
+      <c r="AL519" t="inlineStr"/>
+      <c r="AM519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -29925,6 +31694,9 @@
       <c r="AH520" t="inlineStr"/>
       <c r="AI520" t="inlineStr"/>
       <c r="AJ520" t="inlineStr"/>
+      <c r="AK520" t="inlineStr"/>
+      <c r="AL520" t="inlineStr"/>
+      <c r="AM520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -29979,6 +31751,9 @@
       <c r="AH521" t="inlineStr"/>
       <c r="AI521" t="inlineStr"/>
       <c r="AJ521" t="inlineStr"/>
+      <c r="AK521" t="inlineStr"/>
+      <c r="AL521" t="inlineStr"/>
+      <c r="AM521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -30033,6 +31808,9 @@
       <c r="AH522" t="inlineStr"/>
       <c r="AI522" t="inlineStr"/>
       <c r="AJ522" t="inlineStr"/>
+      <c r="AK522" t="inlineStr"/>
+      <c r="AL522" t="inlineStr"/>
+      <c r="AM522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -30087,6 +31865,9 @@
       <c r="AH523" t="inlineStr"/>
       <c r="AI523" t="inlineStr"/>
       <c r="AJ523" t="inlineStr"/>
+      <c r="AK523" t="inlineStr"/>
+      <c r="AL523" t="inlineStr"/>
+      <c r="AM523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -30141,6 +31922,9 @@
       <c r="AH524" t="inlineStr"/>
       <c r="AI524" t="inlineStr"/>
       <c r="AJ524" t="inlineStr"/>
+      <c r="AK524" t="inlineStr"/>
+      <c r="AL524" t="inlineStr"/>
+      <c r="AM524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -30195,6 +31979,9 @@
       <c r="AH525" t="inlineStr"/>
       <c r="AI525" t="inlineStr"/>
       <c r="AJ525" t="inlineStr"/>
+      <c r="AK525" t="inlineStr"/>
+      <c r="AL525" t="inlineStr"/>
+      <c r="AM525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -30249,6 +32036,9 @@
       <c r="AH526" t="inlineStr"/>
       <c r="AI526" t="inlineStr"/>
       <c r="AJ526" t="inlineStr"/>
+      <c r="AK526" t="inlineStr"/>
+      <c r="AL526" t="inlineStr"/>
+      <c r="AM526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -30303,6 +32093,9 @@
       <c r="AH527" t="inlineStr"/>
       <c r="AI527" t="inlineStr"/>
       <c r="AJ527" t="inlineStr"/>
+      <c r="AK527" t="inlineStr"/>
+      <c r="AL527" t="inlineStr"/>
+      <c r="AM527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -30357,6 +32150,9 @@
       <c r="AH528" t="inlineStr"/>
       <c r="AI528" t="inlineStr"/>
       <c r="AJ528" t="inlineStr"/>
+      <c r="AK528" t="inlineStr"/>
+      <c r="AL528" t="inlineStr"/>
+      <c r="AM528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -30411,6 +32207,9 @@
       <c r="AH529" t="inlineStr"/>
       <c r="AI529" t="inlineStr"/>
       <c r="AJ529" t="inlineStr"/>
+      <c r="AK529" t="inlineStr"/>
+      <c r="AL529" t="inlineStr"/>
+      <c r="AM529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -30465,6 +32264,9 @@
       <c r="AH530" t="inlineStr"/>
       <c r="AI530" t="inlineStr"/>
       <c r="AJ530" t="inlineStr"/>
+      <c r="AK530" t="inlineStr"/>
+      <c r="AL530" t="inlineStr"/>
+      <c r="AM530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -30519,6 +32321,9 @@
       <c r="AH531" t="inlineStr"/>
       <c r="AI531" t="inlineStr"/>
       <c r="AJ531" t="inlineStr"/>
+      <c r="AK531" t="inlineStr"/>
+      <c r="AL531" t="inlineStr"/>
+      <c r="AM531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -30573,6 +32378,9 @@
       <c r="AH532" t="inlineStr"/>
       <c r="AI532" t="inlineStr"/>
       <c r="AJ532" t="inlineStr"/>
+      <c r="AK532" t="inlineStr"/>
+      <c r="AL532" t="inlineStr"/>
+      <c r="AM532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -30627,6 +32435,9 @@
       <c r="AH533" t="inlineStr"/>
       <c r="AI533" t="inlineStr"/>
       <c r="AJ533" t="inlineStr"/>
+      <c r="AK533" t="inlineStr"/>
+      <c r="AL533" t="inlineStr"/>
+      <c r="AM533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -30681,6 +32492,9 @@
       <c r="AH534" t="inlineStr"/>
       <c r="AI534" t="inlineStr"/>
       <c r="AJ534" t="inlineStr"/>
+      <c r="AK534" t="inlineStr"/>
+      <c r="AL534" t="inlineStr"/>
+      <c r="AM534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -30735,6 +32549,9 @@
       <c r="AH535" t="inlineStr"/>
       <c r="AI535" t="inlineStr"/>
       <c r="AJ535" t="inlineStr"/>
+      <c r="AK535" t="inlineStr"/>
+      <c r="AL535" t="inlineStr"/>
+      <c r="AM535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -30789,6 +32606,9 @@
       <c r="AH536" t="inlineStr"/>
       <c r="AI536" t="inlineStr"/>
       <c r="AJ536" t="inlineStr"/>
+      <c r="AK536" t="inlineStr"/>
+      <c r="AL536" t="inlineStr"/>
+      <c r="AM536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -30843,6 +32663,9 @@
       <c r="AH537" t="inlineStr"/>
       <c r="AI537" t="inlineStr"/>
       <c r="AJ537" t="inlineStr"/>
+      <c r="AK537" t="inlineStr"/>
+      <c r="AL537" t="inlineStr"/>
+      <c r="AM537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -30897,6 +32720,9 @@
       <c r="AH538" t="inlineStr"/>
       <c r="AI538" t="inlineStr"/>
       <c r="AJ538" t="inlineStr"/>
+      <c r="AK538" t="inlineStr"/>
+      <c r="AL538" t="inlineStr"/>
+      <c r="AM538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -30951,6 +32777,9 @@
       <c r="AH539" t="inlineStr"/>
       <c r="AI539" t="inlineStr"/>
       <c r="AJ539" t="inlineStr"/>
+      <c r="AK539" t="inlineStr"/>
+      <c r="AL539" t="inlineStr"/>
+      <c r="AM539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -31005,6 +32834,9 @@
       <c r="AH540" t="inlineStr"/>
       <c r="AI540" t="inlineStr"/>
       <c r="AJ540" t="inlineStr"/>
+      <c r="AK540" t="inlineStr"/>
+      <c r="AL540" t="inlineStr"/>
+      <c r="AM540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -31059,6 +32891,9 @@
       <c r="AH541" t="inlineStr"/>
       <c r="AI541" t="inlineStr"/>
       <c r="AJ541" t="inlineStr"/>
+      <c r="AK541" t="inlineStr"/>
+      <c r="AL541" t="inlineStr"/>
+      <c r="AM541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -31113,6 +32948,9 @@
       <c r="AH542" t="inlineStr"/>
       <c r="AI542" t="inlineStr"/>
       <c r="AJ542" t="inlineStr"/>
+      <c r="AK542" t="inlineStr"/>
+      <c r="AL542" t="inlineStr"/>
+      <c r="AM542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -31167,6 +33005,9 @@
       <c r="AH543" t="inlineStr"/>
       <c r="AI543" t="inlineStr"/>
       <c r="AJ543" t="inlineStr"/>
+      <c r="AK543" t="inlineStr"/>
+      <c r="AL543" t="inlineStr"/>
+      <c r="AM543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -31221,6 +33062,9 @@
       <c r="AH544" t="inlineStr"/>
       <c r="AI544" t="inlineStr"/>
       <c r="AJ544" t="inlineStr"/>
+      <c r="AK544" t="inlineStr"/>
+      <c r="AL544" t="inlineStr"/>
+      <c r="AM544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -31275,6 +33119,9 @@
       <c r="AH545" t="inlineStr"/>
       <c r="AI545" t="inlineStr"/>
       <c r="AJ545" t="inlineStr"/>
+      <c r="AK545" t="inlineStr"/>
+      <c r="AL545" t="inlineStr"/>
+      <c r="AM545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -31329,6 +33176,9 @@
       <c r="AH546" t="inlineStr"/>
       <c r="AI546" t="inlineStr"/>
       <c r="AJ546" t="inlineStr"/>
+      <c r="AK546" t="inlineStr"/>
+      <c r="AL546" t="inlineStr"/>
+      <c r="AM546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -31383,6 +33233,9 @@
       <c r="AH547" t="inlineStr"/>
       <c r="AI547" t="inlineStr"/>
       <c r="AJ547" t="inlineStr"/>
+      <c r="AK547" t="inlineStr"/>
+      <c r="AL547" t="inlineStr"/>
+      <c r="AM547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -31437,6 +33290,9 @@
       <c r="AH548" t="inlineStr"/>
       <c r="AI548" t="inlineStr"/>
       <c r="AJ548" t="inlineStr"/>
+      <c r="AK548" t="inlineStr"/>
+      <c r="AL548" t="inlineStr"/>
+      <c r="AM548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -31491,6 +33347,9 @@
       <c r="AH549" t="inlineStr"/>
       <c r="AI549" t="inlineStr"/>
       <c r="AJ549" t="inlineStr"/>
+      <c r="AK549" t="inlineStr"/>
+      <c r="AL549" t="inlineStr"/>
+      <c r="AM549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -31545,6 +33404,9 @@
       <c r="AH550" t="inlineStr"/>
       <c r="AI550" t="inlineStr"/>
       <c r="AJ550" t="inlineStr"/>
+      <c r="AK550" t="inlineStr"/>
+      <c r="AL550" t="inlineStr"/>
+      <c r="AM550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -31599,6 +33461,9 @@
       <c r="AH551" t="inlineStr"/>
       <c r="AI551" t="inlineStr"/>
       <c r="AJ551" t="inlineStr"/>
+      <c r="AK551" t="inlineStr"/>
+      <c r="AL551" t="inlineStr"/>
+      <c r="AM551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -31653,6 +33518,9 @@
       <c r="AH552" t="inlineStr"/>
       <c r="AI552" t="inlineStr"/>
       <c r="AJ552" t="inlineStr"/>
+      <c r="AK552" t="inlineStr"/>
+      <c r="AL552" t="inlineStr"/>
+      <c r="AM552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -31707,6 +33575,9 @@
       <c r="AH553" t="inlineStr"/>
       <c r="AI553" t="inlineStr"/>
       <c r="AJ553" t="inlineStr"/>
+      <c r="AK553" t="inlineStr"/>
+      <c r="AL553" t="inlineStr"/>
+      <c r="AM553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -31761,6 +33632,9 @@
       <c r="AH554" t="inlineStr"/>
       <c r="AI554" t="inlineStr"/>
       <c r="AJ554" t="inlineStr"/>
+      <c r="AK554" t="inlineStr"/>
+      <c r="AL554" t="inlineStr"/>
+      <c r="AM554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -31815,6 +33689,9 @@
       <c r="AH555" t="inlineStr"/>
       <c r="AI555" t="inlineStr"/>
       <c r="AJ555" t="inlineStr"/>
+      <c r="AK555" t="inlineStr"/>
+      <c r="AL555" t="inlineStr"/>
+      <c r="AM555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -31869,6 +33746,9 @@
       <c r="AH556" t="inlineStr"/>
       <c r="AI556" t="inlineStr"/>
       <c r="AJ556" t="inlineStr"/>
+      <c r="AK556" t="inlineStr"/>
+      <c r="AL556" t="inlineStr"/>
+      <c r="AM556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -31923,6 +33803,9 @@
       <c r="AH557" t="inlineStr"/>
       <c r="AI557" t="inlineStr"/>
       <c r="AJ557" t="inlineStr"/>
+      <c r="AK557" t="inlineStr"/>
+      <c r="AL557" t="inlineStr"/>
+      <c r="AM557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -31977,6 +33860,9 @@
       <c r="AH558" t="inlineStr"/>
       <c r="AI558" t="inlineStr"/>
       <c r="AJ558" t="inlineStr"/>
+      <c r="AK558" t="inlineStr"/>
+      <c r="AL558" t="inlineStr"/>
+      <c r="AM558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -32031,6 +33917,9 @@
       <c r="AH559" t="inlineStr"/>
       <c r="AI559" t="inlineStr"/>
       <c r="AJ559" t="inlineStr"/>
+      <c r="AK559" t="inlineStr"/>
+      <c r="AL559" t="inlineStr"/>
+      <c r="AM559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -32085,6 +33974,9 @@
       <c r="AH560" t="inlineStr"/>
       <c r="AI560" t="inlineStr"/>
       <c r="AJ560" t="inlineStr"/>
+      <c r="AK560" t="inlineStr"/>
+      <c r="AL560" t="inlineStr"/>
+      <c r="AM560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -32139,6 +34031,9 @@
       <c r="AH561" t="inlineStr"/>
       <c r="AI561" t="inlineStr"/>
       <c r="AJ561" t="inlineStr"/>
+      <c r="AK561" t="inlineStr"/>
+      <c r="AL561" t="inlineStr"/>
+      <c r="AM561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -32193,6 +34088,9 @@
       <c r="AH562" t="inlineStr"/>
       <c r="AI562" t="inlineStr"/>
       <c r="AJ562" t="inlineStr"/>
+      <c r="AK562" t="inlineStr"/>
+      <c r="AL562" t="inlineStr"/>
+      <c r="AM562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -32247,6 +34145,9 @@
       <c r="AH563" t="inlineStr"/>
       <c r="AI563" t="inlineStr"/>
       <c r="AJ563" t="inlineStr"/>
+      <c r="AK563" t="inlineStr"/>
+      <c r="AL563" t="inlineStr"/>
+      <c r="AM563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -32301,6 +34202,9 @@
       <c r="AH564" t="inlineStr"/>
       <c r="AI564" t="inlineStr"/>
       <c r="AJ564" t="inlineStr"/>
+      <c r="AK564" t="inlineStr"/>
+      <c r="AL564" t="inlineStr"/>
+      <c r="AM564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -32355,6 +34259,9 @@
       <c r="AH565" t="inlineStr"/>
       <c r="AI565" t="inlineStr"/>
       <c r="AJ565" t="inlineStr"/>
+      <c r="AK565" t="inlineStr"/>
+      <c r="AL565" t="inlineStr"/>
+      <c r="AM565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -32409,6 +34316,9 @@
       <c r="AH566" t="inlineStr"/>
       <c r="AI566" t="inlineStr"/>
       <c r="AJ566" t="inlineStr"/>
+      <c r="AK566" t="inlineStr"/>
+      <c r="AL566" t="inlineStr"/>
+      <c r="AM566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -32463,6 +34373,9 @@
       <c r="AH567" t="inlineStr"/>
       <c r="AI567" t="inlineStr"/>
       <c r="AJ567" t="inlineStr"/>
+      <c r="AK567" t="inlineStr"/>
+      <c r="AL567" t="inlineStr"/>
+      <c r="AM567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -32517,6 +34430,9 @@
       <c r="AH568" t="inlineStr"/>
       <c r="AI568" t="inlineStr"/>
       <c r="AJ568" t="inlineStr"/>
+      <c r="AK568" t="inlineStr"/>
+      <c r="AL568" t="inlineStr"/>
+      <c r="AM568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -32571,6 +34487,9 @@
       <c r="AH569" t="inlineStr"/>
       <c r="AI569" t="inlineStr"/>
       <c r="AJ569" t="inlineStr"/>
+      <c r="AK569" t="inlineStr"/>
+      <c r="AL569" t="inlineStr"/>
+      <c r="AM569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -32625,6 +34544,9 @@
       <c r="AH570" t="inlineStr"/>
       <c r="AI570" t="inlineStr"/>
       <c r="AJ570" t="inlineStr"/>
+      <c r="AK570" t="inlineStr"/>
+      <c r="AL570" t="inlineStr"/>
+      <c r="AM570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -32679,6 +34601,9 @@
       <c r="AH571" t="inlineStr"/>
       <c r="AI571" t="inlineStr"/>
       <c r="AJ571" t="inlineStr"/>
+      <c r="AK571" t="inlineStr"/>
+      <c r="AL571" t="inlineStr"/>
+      <c r="AM571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -32733,6 +34658,9 @@
       <c r="AH572" t="inlineStr"/>
       <c r="AI572" t="inlineStr"/>
       <c r="AJ572" t="inlineStr"/>
+      <c r="AK572" t="inlineStr"/>
+      <c r="AL572" t="inlineStr"/>
+      <c r="AM572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -32787,6 +34715,9 @@
       <c r="AH573" t="inlineStr"/>
       <c r="AI573" t="inlineStr"/>
       <c r="AJ573" t="inlineStr"/>
+      <c r="AK573" t="inlineStr"/>
+      <c r="AL573" t="inlineStr"/>
+      <c r="AM573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -32841,6 +34772,9 @@
       <c r="AH574" t="inlineStr"/>
       <c r="AI574" t="inlineStr"/>
       <c r="AJ574" t="inlineStr"/>
+      <c r="AK574" t="inlineStr"/>
+      <c r="AL574" t="inlineStr"/>
+      <c r="AM574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -32895,6 +34829,9 @@
       <c r="AH575" t="inlineStr"/>
       <c r="AI575" t="inlineStr"/>
       <c r="AJ575" t="inlineStr"/>
+      <c r="AK575" t="inlineStr"/>
+      <c r="AL575" t="inlineStr"/>
+      <c r="AM575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -32949,6 +34886,9 @@
       <c r="AH576" t="inlineStr"/>
       <c r="AI576" t="inlineStr"/>
       <c r="AJ576" t="inlineStr"/>
+      <c r="AK576" t="inlineStr"/>
+      <c r="AL576" t="inlineStr"/>
+      <c r="AM576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -33003,6 +34943,9 @@
       <c r="AH577" t="inlineStr"/>
       <c r="AI577" t="inlineStr"/>
       <c r="AJ577" t="inlineStr"/>
+      <c r="AK577" t="inlineStr"/>
+      <c r="AL577" t="inlineStr"/>
+      <c r="AM577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -33057,6 +35000,9 @@
       <c r="AH578" t="inlineStr"/>
       <c r="AI578" t="inlineStr"/>
       <c r="AJ578" t="inlineStr"/>
+      <c r="AK578" t="inlineStr"/>
+      <c r="AL578" t="inlineStr"/>
+      <c r="AM578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -33111,6 +35057,9 @@
       <c r="AH579" t="inlineStr"/>
       <c r="AI579" t="inlineStr"/>
       <c r="AJ579" t="inlineStr"/>
+      <c r="AK579" t="inlineStr"/>
+      <c r="AL579" t="inlineStr"/>
+      <c r="AM579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -33165,6 +35114,9 @@
       <c r="AH580" t="inlineStr"/>
       <c r="AI580" t="inlineStr"/>
       <c r="AJ580" t="inlineStr"/>
+      <c r="AK580" t="inlineStr"/>
+      <c r="AL580" t="inlineStr"/>
+      <c r="AM580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -33219,6 +35171,9 @@
       <c r="AH581" t="inlineStr"/>
       <c r="AI581" t="inlineStr"/>
       <c r="AJ581" t="inlineStr"/>
+      <c r="AK581" t="inlineStr"/>
+      <c r="AL581" t="inlineStr"/>
+      <c r="AM581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -33273,6 +35228,9 @@
       <c r="AH582" t="inlineStr"/>
       <c r="AI582" t="inlineStr"/>
       <c r="AJ582" t="inlineStr"/>
+      <c r="AK582" t="inlineStr"/>
+      <c r="AL582" t="inlineStr"/>
+      <c r="AM582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -33327,6 +35285,9 @@
       <c r="AH583" t="inlineStr"/>
       <c r="AI583" t="inlineStr"/>
       <c r="AJ583" t="inlineStr"/>
+      <c r="AK583" t="inlineStr"/>
+      <c r="AL583" t="inlineStr"/>
+      <c r="AM583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -33381,6 +35342,9 @@
       <c r="AH584" t="inlineStr"/>
       <c r="AI584" t="inlineStr"/>
       <c r="AJ584" t="inlineStr"/>
+      <c r="AK584" t="inlineStr"/>
+      <c r="AL584" t="inlineStr"/>
+      <c r="AM584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -33435,6 +35399,9 @@
       <c r="AH585" t="inlineStr"/>
       <c r="AI585" t="inlineStr"/>
       <c r="AJ585" t="inlineStr"/>
+      <c r="AK585" t="inlineStr"/>
+      <c r="AL585" t="inlineStr"/>
+      <c r="AM585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -33489,6 +35456,9 @@
       <c r="AH586" t="inlineStr"/>
       <c r="AI586" t="inlineStr"/>
       <c r="AJ586" t="inlineStr"/>
+      <c r="AK586" t="inlineStr"/>
+      <c r="AL586" t="inlineStr"/>
+      <c r="AM586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -33543,6 +35513,9 @@
       <c r="AH587" t="inlineStr"/>
       <c r="AI587" t="inlineStr"/>
       <c r="AJ587" t="inlineStr"/>
+      <c r="AK587" t="inlineStr"/>
+      <c r="AL587" t="inlineStr"/>
+      <c r="AM587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -33597,6 +35570,9 @@
       <c r="AH588" t="inlineStr"/>
       <c r="AI588" t="inlineStr"/>
       <c r="AJ588" t="inlineStr"/>
+      <c r="AK588" t="inlineStr"/>
+      <c r="AL588" t="inlineStr"/>
+      <c r="AM588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -33657,6 +35633,9 @@
       <c r="AH589" t="inlineStr"/>
       <c r="AI589" t="inlineStr"/>
       <c r="AJ589" t="inlineStr"/>
+      <c r="AK589" t="inlineStr"/>
+      <c r="AL589" t="inlineStr"/>
+      <c r="AM589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -33717,6 +35696,9 @@
       <c r="AH590" t="inlineStr"/>
       <c r="AI590" t="inlineStr"/>
       <c r="AJ590" t="inlineStr"/>
+      <c r="AK590" t="inlineStr"/>
+      <c r="AL590" t="inlineStr"/>
+      <c r="AM590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -33777,6 +35759,9 @@
       <c r="AH591" t="inlineStr"/>
       <c r="AI591" t="inlineStr"/>
       <c r="AJ591" t="inlineStr"/>
+      <c r="AK591" t="inlineStr"/>
+      <c r="AL591" t="inlineStr"/>
+      <c r="AM591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -33837,6 +35822,9 @@
       <c r="AH592" t="inlineStr"/>
       <c r="AI592" t="inlineStr"/>
       <c r="AJ592" t="inlineStr"/>
+      <c r="AK592" t="inlineStr"/>
+      <c r="AL592" t="inlineStr"/>
+      <c r="AM592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -33897,6 +35885,9 @@
       <c r="AH593" t="inlineStr"/>
       <c r="AI593" t="inlineStr"/>
       <c r="AJ593" t="inlineStr"/>
+      <c r="AK593" t="inlineStr"/>
+      <c r="AL593" t="inlineStr"/>
+      <c r="AM593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -33957,6 +35948,9 @@
       <c r="AH594" t="inlineStr"/>
       <c r="AI594" t="inlineStr"/>
       <c r="AJ594" t="inlineStr"/>
+      <c r="AK594" t="inlineStr"/>
+      <c r="AL594" t="inlineStr"/>
+      <c r="AM594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -34017,6 +36011,9 @@
       <c r="AH595" t="inlineStr"/>
       <c r="AI595" t="inlineStr"/>
       <c r="AJ595" t="inlineStr"/>
+      <c r="AK595" t="inlineStr"/>
+      <c r="AL595" t="inlineStr"/>
+      <c r="AM595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -34077,6 +36074,9 @@
       <c r="AH596" t="inlineStr"/>
       <c r="AI596" t="inlineStr"/>
       <c r="AJ596" t="inlineStr"/>
+      <c r="AK596" t="inlineStr"/>
+      <c r="AL596" t="inlineStr"/>
+      <c r="AM596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -34137,6 +36137,9 @@
       <c r="AH597" t="inlineStr"/>
       <c r="AI597" t="inlineStr"/>
       <c r="AJ597" t="inlineStr"/>
+      <c r="AK597" t="inlineStr"/>
+      <c r="AL597" t="inlineStr"/>
+      <c r="AM597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -34197,6 +36200,9 @@
       <c r="AH598" t="inlineStr"/>
       <c r="AI598" t="inlineStr"/>
       <c r="AJ598" t="inlineStr"/>
+      <c r="AK598" t="inlineStr"/>
+      <c r="AL598" t="inlineStr"/>
+      <c r="AM598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -34257,6 +36263,9 @@
       <c r="AH599" t="inlineStr"/>
       <c r="AI599" t="inlineStr"/>
       <c r="AJ599" t="inlineStr"/>
+      <c r="AK599" t="inlineStr"/>
+      <c r="AL599" t="inlineStr"/>
+      <c r="AM599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -34317,6 +36326,9 @@
       <c r="AH600" t="inlineStr"/>
       <c r="AI600" t="inlineStr"/>
       <c r="AJ600" t="inlineStr"/>
+      <c r="AK600" t="inlineStr"/>
+      <c r="AL600" t="inlineStr"/>
+      <c r="AM600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -34377,6 +36389,9 @@
       <c r="AH601" t="inlineStr"/>
       <c r="AI601" t="inlineStr"/>
       <c r="AJ601" t="inlineStr"/>
+      <c r="AK601" t="inlineStr"/>
+      <c r="AL601" t="inlineStr"/>
+      <c r="AM601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -34437,6 +36452,9 @@
       <c r="AH602" t="inlineStr"/>
       <c r="AI602" t="inlineStr"/>
       <c r="AJ602" t="inlineStr"/>
+      <c r="AK602" t="inlineStr"/>
+      <c r="AL602" t="inlineStr"/>
+      <c r="AM602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -34497,6 +36515,9 @@
       <c r="AH603" t="inlineStr"/>
       <c r="AI603" t="inlineStr"/>
       <c r="AJ603" t="inlineStr"/>
+      <c r="AK603" t="inlineStr"/>
+      <c r="AL603" t="inlineStr"/>
+      <c r="AM603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -34557,6 +36578,9 @@
       <c r="AH604" t="inlineStr"/>
       <c r="AI604" t="inlineStr"/>
       <c r="AJ604" t="inlineStr"/>
+      <c r="AK604" t="inlineStr"/>
+      <c r="AL604" t="inlineStr"/>
+      <c r="AM604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -34617,6 +36641,9 @@
       <c r="AH605" t="inlineStr"/>
       <c r="AI605" t="inlineStr"/>
       <c r="AJ605" t="inlineStr"/>
+      <c r="AK605" t="inlineStr"/>
+      <c r="AL605" t="inlineStr"/>
+      <c r="AM605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -34677,6 +36704,9 @@
       <c r="AH606" t="inlineStr"/>
       <c r="AI606" t="inlineStr"/>
       <c r="AJ606" t="inlineStr"/>
+      <c r="AK606" t="inlineStr"/>
+      <c r="AL606" t="inlineStr"/>
+      <c r="AM606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -34737,6 +36767,9 @@
       <c r="AH607" t="inlineStr"/>
       <c r="AI607" t="inlineStr"/>
       <c r="AJ607" t="inlineStr"/>
+      <c r="AK607" t="inlineStr"/>
+      <c r="AL607" t="inlineStr"/>
+      <c r="AM607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -34797,6 +36830,9 @@
       <c r="AH608" t="inlineStr"/>
       <c r="AI608" t="inlineStr"/>
       <c r="AJ608" t="inlineStr"/>
+      <c r="AK608" t="inlineStr"/>
+      <c r="AL608" t="inlineStr"/>
+      <c r="AM608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -34857,6 +36893,9 @@
       <c r="AH609" t="inlineStr"/>
       <c r="AI609" t="inlineStr"/>
       <c r="AJ609" t="inlineStr"/>
+      <c r="AK609" t="inlineStr"/>
+      <c r="AL609" t="inlineStr"/>
+      <c r="AM609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -34917,6 +36956,9 @@
       <c r="AH610" t="inlineStr"/>
       <c r="AI610" t="inlineStr"/>
       <c r="AJ610" t="inlineStr"/>
+      <c r="AK610" t="inlineStr"/>
+      <c r="AL610" t="inlineStr"/>
+      <c r="AM610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -34977,6 +37019,9 @@
       <c r="AH611" t="inlineStr"/>
       <c r="AI611" t="inlineStr"/>
       <c r="AJ611" t="inlineStr"/>
+      <c r="AK611" t="inlineStr"/>
+      <c r="AL611" t="inlineStr"/>
+      <c r="AM611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -35037,6 +37082,9 @@
       <c r="AH612" t="inlineStr"/>
       <c r="AI612" t="inlineStr"/>
       <c r="AJ612" t="inlineStr"/>
+      <c r="AK612" t="inlineStr"/>
+      <c r="AL612" t="inlineStr"/>
+      <c r="AM612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -35097,6 +37145,9 @@
       <c r="AH613" t="inlineStr"/>
       <c r="AI613" t="inlineStr"/>
       <c r="AJ613" t="inlineStr"/>
+      <c r="AK613" t="inlineStr"/>
+      <c r="AL613" t="inlineStr"/>
+      <c r="AM613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -35157,6 +37208,9 @@
       <c r="AH614" t="inlineStr"/>
       <c r="AI614" t="inlineStr"/>
       <c r="AJ614" t="inlineStr"/>
+      <c r="AK614" t="inlineStr"/>
+      <c r="AL614" t="inlineStr"/>
+      <c r="AM614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" t="n">
@@ -35217,6 +37271,9 @@
       <c r="AH615" t="inlineStr"/>
       <c r="AI615" t="inlineStr"/>
       <c r="AJ615" t="inlineStr"/>
+      <c r="AK615" t="inlineStr"/>
+      <c r="AL615" t="inlineStr"/>
+      <c r="AM615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -35277,6 +37334,9 @@
       <c r="AH616" t="inlineStr"/>
       <c r="AI616" t="inlineStr"/>
       <c r="AJ616" t="inlineStr"/>
+      <c r="AK616" t="inlineStr"/>
+      <c r="AL616" t="inlineStr"/>
+      <c r="AM616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="n">
@@ -35337,6 +37397,9 @@
       <c r="AH617" t="inlineStr"/>
       <c r="AI617" t="inlineStr"/>
       <c r="AJ617" t="inlineStr"/>
+      <c r="AK617" t="inlineStr"/>
+      <c r="AL617" t="inlineStr"/>
+      <c r="AM617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="n">
@@ -35397,6 +37460,9 @@
       <c r="AH618" t="inlineStr"/>
       <c r="AI618" t="inlineStr"/>
       <c r="AJ618" t="inlineStr"/>
+      <c r="AK618" t="inlineStr"/>
+      <c r="AL618" t="inlineStr"/>
+      <c r="AM618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -35457,6 +37523,9 @@
       <c r="AH619" t="inlineStr"/>
       <c r="AI619" t="inlineStr"/>
       <c r="AJ619" t="inlineStr"/>
+      <c r="AK619" t="inlineStr"/>
+      <c r="AL619" t="inlineStr"/>
+      <c r="AM619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="n">
@@ -35517,6 +37586,9 @@
       <c r="AH620" t="inlineStr"/>
       <c r="AI620" t="inlineStr"/>
       <c r="AJ620" t="inlineStr"/>
+      <c r="AK620" t="inlineStr"/>
+      <c r="AL620" t="inlineStr"/>
+      <c r="AM620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="n">
@@ -35577,6 +37649,9 @@
       <c r="AH621" t="inlineStr"/>
       <c r="AI621" t="inlineStr"/>
       <c r="AJ621" t="inlineStr"/>
+      <c r="AK621" t="inlineStr"/>
+      <c r="AL621" t="inlineStr"/>
+      <c r="AM621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="n">
@@ -35637,6 +37712,9 @@
       <c r="AH622" t="inlineStr"/>
       <c r="AI622" t="inlineStr"/>
       <c r="AJ622" t="inlineStr"/>
+      <c r="AK622" t="inlineStr"/>
+      <c r="AL622" t="inlineStr"/>
+      <c r="AM622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="n">
@@ -35697,6 +37775,9 @@
       <c r="AH623" t="inlineStr"/>
       <c r="AI623" t="inlineStr"/>
       <c r="AJ623" t="inlineStr"/>
+      <c r="AK623" t="inlineStr"/>
+      <c r="AL623" t="inlineStr"/>
+      <c r="AM623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -35757,6 +37838,9 @@
       <c r="AH624" t="inlineStr"/>
       <c r="AI624" t="inlineStr"/>
       <c r="AJ624" t="inlineStr"/>
+      <c r="AK624" t="inlineStr"/>
+      <c r="AL624" t="inlineStr"/>
+      <c r="AM624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="n">
@@ -35817,6 +37901,9 @@
       <c r="AH625" t="inlineStr"/>
       <c r="AI625" t="inlineStr"/>
       <c r="AJ625" t="inlineStr"/>
+      <c r="AK625" t="inlineStr"/>
+      <c r="AL625" t="inlineStr"/>
+      <c r="AM625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="n">
@@ -35877,6 +37964,9 @@
       <c r="AH626" t="inlineStr"/>
       <c r="AI626" t="inlineStr"/>
       <c r="AJ626" t="inlineStr"/>
+      <c r="AK626" t="inlineStr"/>
+      <c r="AL626" t="inlineStr"/>
+      <c r="AM626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="n">
@@ -35937,6 +38027,9 @@
       <c r="AH627" t="inlineStr"/>
       <c r="AI627" t="inlineStr"/>
       <c r="AJ627" t="inlineStr"/>
+      <c r="AK627" t="inlineStr"/>
+      <c r="AL627" t="inlineStr"/>
+      <c r="AM627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="n">
@@ -35997,6 +38090,9 @@
       <c r="AH628" t="inlineStr"/>
       <c r="AI628" t="inlineStr"/>
       <c r="AJ628" t="inlineStr"/>
+      <c r="AK628" t="inlineStr"/>
+      <c r="AL628" t="inlineStr"/>
+      <c r="AM628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="n">
@@ -36057,6 +38153,9 @@
       <c r="AH629" t="inlineStr"/>
       <c r="AI629" t="inlineStr"/>
       <c r="AJ629" t="inlineStr"/>
+      <c r="AK629" t="inlineStr"/>
+      <c r="AL629" t="inlineStr"/>
+      <c r="AM629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="n">
@@ -36117,6 +38216,9 @@
       <c r="AH630" t="inlineStr"/>
       <c r="AI630" t="inlineStr"/>
       <c r="AJ630" t="inlineStr"/>
+      <c r="AK630" t="inlineStr"/>
+      <c r="AL630" t="inlineStr"/>
+      <c r="AM630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="n">
@@ -36177,6 +38279,9 @@
       <c r="AH631" t="inlineStr"/>
       <c r="AI631" t="inlineStr"/>
       <c r="AJ631" t="inlineStr"/>
+      <c r="AK631" t="inlineStr"/>
+      <c r="AL631" t="inlineStr"/>
+      <c r="AM631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="n">
@@ -36233,6 +38338,9 @@
       <c r="AH632" t="inlineStr"/>
       <c r="AI632" t="inlineStr"/>
       <c r="AJ632" t="inlineStr"/>
+      <c r="AK632" t="inlineStr"/>
+      <c r="AL632" t="inlineStr"/>
+      <c r="AM632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -36283,6 +38391,9 @@
       <c r="AH633" t="inlineStr"/>
       <c r="AI633" t="inlineStr"/>
       <c r="AJ633" t="inlineStr"/>
+      <c r="AK633" t="inlineStr"/>
+      <c r="AL633" t="inlineStr"/>
+      <c r="AM633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="n">
@@ -36333,6 +38444,9 @@
       <c r="AH634" t="inlineStr"/>
       <c r="AI634" t="inlineStr"/>
       <c r="AJ634" t="inlineStr"/>
+      <c r="AK634" t="inlineStr"/>
+      <c r="AL634" t="inlineStr"/>
+      <c r="AM634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" t="n">
@@ -36383,6 +38497,9 @@
       <c r="AH635" t="inlineStr"/>
       <c r="AI635" t="inlineStr"/>
       <c r="AJ635" t="inlineStr"/>
+      <c r="AK635" t="inlineStr"/>
+      <c r="AL635" t="inlineStr"/>
+      <c r="AM635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" t="n">
@@ -36433,6 +38550,9 @@
       <c r="AH636" t="inlineStr"/>
       <c r="AI636" t="inlineStr"/>
       <c r="AJ636" t="inlineStr"/>
+      <c r="AK636" t="inlineStr"/>
+      <c r="AL636" t="inlineStr"/>
+      <c r="AM636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="n">
@@ -36483,6 +38603,9 @@
       <c r="AH637" t="inlineStr"/>
       <c r="AI637" t="inlineStr"/>
       <c r="AJ637" t="inlineStr"/>
+      <c r="AK637" t="inlineStr"/>
+      <c r="AL637" t="inlineStr"/>
+      <c r="AM637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" t="n">
@@ -36533,6 +38656,9 @@
       <c r="AH638" t="inlineStr"/>
       <c r="AI638" t="inlineStr"/>
       <c r="AJ638" t="inlineStr"/>
+      <c r="AK638" t="inlineStr"/>
+      <c r="AL638" t="inlineStr"/>
+      <c r="AM638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" t="n">
@@ -36583,6 +38709,9 @@
       <c r="AH639" t="inlineStr"/>
       <c r="AI639" t="inlineStr"/>
       <c r="AJ639" t="inlineStr"/>
+      <c r="AK639" t="inlineStr"/>
+      <c r="AL639" t="inlineStr"/>
+      <c r="AM639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" t="n">
@@ -36633,6 +38762,9 @@
       <c r="AH640" t="inlineStr"/>
       <c r="AI640" t="inlineStr"/>
       <c r="AJ640" t="inlineStr"/>
+      <c r="AK640" t="inlineStr"/>
+      <c r="AL640" t="inlineStr"/>
+      <c r="AM640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" t="n">
@@ -36683,6 +38815,9 @@
       <c r="AH641" t="inlineStr"/>
       <c r="AI641" t="inlineStr"/>
       <c r="AJ641" t="inlineStr"/>
+      <c r="AK641" t="inlineStr"/>
+      <c r="AL641" t="inlineStr"/>
+      <c r="AM641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" t="n">
@@ -36733,6 +38868,9 @@
       <c r="AH642" t="inlineStr"/>
       <c r="AI642" t="inlineStr"/>
       <c r="AJ642" t="inlineStr"/>
+      <c r="AK642" t="inlineStr"/>
+      <c r="AL642" t="inlineStr"/>
+      <c r="AM642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" t="n">
@@ -36783,6 +38921,9 @@
       <c r="AH643" t="inlineStr"/>
       <c r="AI643" t="inlineStr"/>
       <c r="AJ643" t="inlineStr"/>
+      <c r="AK643" t="inlineStr"/>
+      <c r="AL643" t="inlineStr"/>
+      <c r="AM643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="n">
@@ -36833,6 +38974,9 @@
       <c r="AH644" t="inlineStr"/>
       <c r="AI644" t="inlineStr"/>
       <c r="AJ644" t="inlineStr"/>
+      <c r="AK644" t="inlineStr"/>
+      <c r="AL644" t="inlineStr"/>
+      <c r="AM644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" t="n">
@@ -36883,6 +39027,9 @@
       <c r="AH645" t="inlineStr"/>
       <c r="AI645" t="inlineStr"/>
       <c r="AJ645" t="inlineStr"/>
+      <c r="AK645" t="inlineStr"/>
+      <c r="AL645" t="inlineStr"/>
+      <c r="AM645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="n">
@@ -36933,6 +39080,9 @@
       <c r="AH646" t="inlineStr"/>
       <c r="AI646" t="inlineStr"/>
       <c r="AJ646" t="inlineStr"/>
+      <c r="AK646" t="inlineStr"/>
+      <c r="AL646" t="inlineStr"/>
+      <c r="AM646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="n">
@@ -36983,6 +39133,9 @@
       <c r="AH647" t="inlineStr"/>
       <c r="AI647" t="inlineStr"/>
       <c r="AJ647" t="inlineStr"/>
+      <c r="AK647" t="inlineStr"/>
+      <c r="AL647" t="inlineStr"/>
+      <c r="AM647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="n">
@@ -37033,6 +39186,9 @@
       <c r="AH648" t="inlineStr"/>
       <c r="AI648" t="inlineStr"/>
       <c r="AJ648" t="inlineStr"/>
+      <c r="AK648" t="inlineStr"/>
+      <c r="AL648" t="inlineStr"/>
+      <c r="AM648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="n">
@@ -37083,6 +39239,9 @@
       <c r="AH649" t="inlineStr"/>
       <c r="AI649" t="inlineStr"/>
       <c r="AJ649" t="inlineStr"/>
+      <c r="AK649" t="inlineStr"/>
+      <c r="AL649" t="inlineStr"/>
+      <c r="AM649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="n">
@@ -37133,6 +39292,9 @@
       <c r="AH650" t="inlineStr"/>
       <c r="AI650" t="inlineStr"/>
       <c r="AJ650" t="inlineStr"/>
+      <c r="AK650" t="inlineStr"/>
+      <c r="AL650" t="inlineStr"/>
+      <c r="AM650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="n">
@@ -37183,6 +39345,9 @@
       <c r="AH651" t="inlineStr"/>
       <c r="AI651" t="inlineStr"/>
       <c r="AJ651" t="inlineStr"/>
+      <c r="AK651" t="inlineStr"/>
+      <c r="AL651" t="inlineStr"/>
+      <c r="AM651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="n">
@@ -37233,6 +39398,9 @@
       <c r="AH652" t="inlineStr"/>
       <c r="AI652" t="inlineStr"/>
       <c r="AJ652" t="inlineStr"/>
+      <c r="AK652" t="inlineStr"/>
+      <c r="AL652" t="inlineStr"/>
+      <c r="AM652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="n">
@@ -37283,6 +39451,9 @@
       <c r="AH653" t="inlineStr"/>
       <c r="AI653" t="inlineStr"/>
       <c r="AJ653" t="inlineStr"/>
+      <c r="AK653" t="inlineStr"/>
+      <c r="AL653" t="inlineStr"/>
+      <c r="AM653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="n">
@@ -37333,6 +39504,9 @@
       <c r="AH654" t="inlineStr"/>
       <c r="AI654" t="inlineStr"/>
       <c r="AJ654" t="inlineStr"/>
+      <c r="AK654" t="inlineStr"/>
+      <c r="AL654" t="inlineStr"/>
+      <c r="AM654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="n">
@@ -37383,6 +39557,9 @@
       <c r="AH655" t="inlineStr"/>
       <c r="AI655" t="inlineStr"/>
       <c r="AJ655" t="inlineStr"/>
+      <c r="AK655" t="inlineStr"/>
+      <c r="AL655" t="inlineStr"/>
+      <c r="AM655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="n">
@@ -37433,6 +39610,9 @@
       <c r="AH656" t="inlineStr"/>
       <c r="AI656" t="inlineStr"/>
       <c r="AJ656" t="inlineStr"/>
+      <c r="AK656" t="inlineStr"/>
+      <c r="AL656" t="inlineStr"/>
+      <c r="AM656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="n">
@@ -37483,6 +39663,9 @@
       <c r="AH657" t="inlineStr"/>
       <c r="AI657" t="inlineStr"/>
       <c r="AJ657" t="inlineStr"/>
+      <c r="AK657" t="inlineStr"/>
+      <c r="AL657" t="inlineStr"/>
+      <c r="AM657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="n">
@@ -37533,6 +39716,9 @@
       <c r="AH658" t="inlineStr"/>
       <c r="AI658" t="inlineStr"/>
       <c r="AJ658" t="inlineStr"/>
+      <c r="AK658" t="inlineStr"/>
+      <c r="AL658" t="inlineStr"/>
+      <c r="AM658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="n">
@@ -37583,6 +39769,9 @@
       <c r="AH659" t="inlineStr"/>
       <c r="AI659" t="inlineStr"/>
       <c r="AJ659" t="inlineStr"/>
+      <c r="AK659" t="inlineStr"/>
+      <c r="AL659" t="inlineStr"/>
+      <c r="AM659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="n">
@@ -37633,6 +39822,9 @@
       <c r="AH660" t="inlineStr"/>
       <c r="AI660" t="inlineStr"/>
       <c r="AJ660" t="inlineStr"/>
+      <c r="AK660" t="inlineStr"/>
+      <c r="AL660" t="inlineStr"/>
+      <c r="AM660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="n">
@@ -37683,6 +39875,9 @@
       <c r="AH661" t="inlineStr"/>
       <c r="AI661" t="inlineStr"/>
       <c r="AJ661" t="inlineStr"/>
+      <c r="AK661" t="inlineStr"/>
+      <c r="AL661" t="inlineStr"/>
+      <c r="AM661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="n">
@@ -37733,6 +39928,9 @@
       <c r="AH662" t="inlineStr"/>
       <c r="AI662" t="inlineStr"/>
       <c r="AJ662" t="inlineStr"/>
+      <c r="AK662" t="inlineStr"/>
+      <c r="AL662" t="inlineStr"/>
+      <c r="AM662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="n">
@@ -37783,6 +39981,9 @@
       <c r="AH663" t="inlineStr"/>
       <c r="AI663" t="inlineStr"/>
       <c r="AJ663" t="inlineStr"/>
+      <c r="AK663" t="inlineStr"/>
+      <c r="AL663" t="inlineStr"/>
+      <c r="AM663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="n">
@@ -37833,6 +40034,9 @@
       <c r="AH664" t="inlineStr"/>
       <c r="AI664" t="inlineStr"/>
       <c r="AJ664" t="inlineStr"/>
+      <c r="AK664" t="inlineStr"/>
+      <c r="AL664" t="inlineStr"/>
+      <c r="AM664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="n">
@@ -37883,6 +40087,9 @@
       <c r="AH665" t="inlineStr"/>
       <c r="AI665" t="inlineStr"/>
       <c r="AJ665" t="inlineStr"/>
+      <c r="AK665" t="inlineStr"/>
+      <c r="AL665" t="inlineStr"/>
+      <c r="AM665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="n">
@@ -37933,6 +40140,9 @@
       <c r="AH666" t="inlineStr"/>
       <c r="AI666" t="inlineStr"/>
       <c r="AJ666" t="inlineStr"/>
+      <c r="AK666" t="inlineStr"/>
+      <c r="AL666" t="inlineStr"/>
+      <c r="AM666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="n">
@@ -37983,6 +40193,9 @@
       <c r="AH667" t="inlineStr"/>
       <c r="AI667" t="inlineStr"/>
       <c r="AJ667" t="inlineStr"/>
+      <c r="AK667" t="inlineStr"/>
+      <c r="AL667" t="inlineStr"/>
+      <c r="AM667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="n">
@@ -38033,6 +40246,9 @@
       <c r="AH668" t="inlineStr"/>
       <c r="AI668" t="inlineStr"/>
       <c r="AJ668" t="inlineStr"/>
+      <c r="AK668" t="inlineStr"/>
+      <c r="AL668" t="inlineStr"/>
+      <c r="AM668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" t="n">
@@ -38083,6 +40299,9 @@
       <c r="AH669" t="inlineStr"/>
       <c r="AI669" t="inlineStr"/>
       <c r="AJ669" t="inlineStr"/>
+      <c r="AK669" t="inlineStr"/>
+      <c r="AL669" t="inlineStr"/>
+      <c r="AM669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="n">
@@ -38133,6 +40352,9 @@
       <c r="AH670" t="inlineStr"/>
       <c r="AI670" t="inlineStr"/>
       <c r="AJ670" t="inlineStr"/>
+      <c r="AK670" t="inlineStr"/>
+      <c r="AL670" t="inlineStr"/>
+      <c r="AM670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="n">
@@ -38183,6 +40405,9 @@
       <c r="AH671" t="inlineStr"/>
       <c r="AI671" t="inlineStr"/>
       <c r="AJ671" t="inlineStr"/>
+      <c r="AK671" t="inlineStr"/>
+      <c r="AL671" t="inlineStr"/>
+      <c r="AM671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="n">
@@ -38233,6 +40458,9 @@
       <c r="AH672" t="inlineStr"/>
       <c r="AI672" t="inlineStr"/>
       <c r="AJ672" t="inlineStr"/>
+      <c r="AK672" t="inlineStr"/>
+      <c r="AL672" t="inlineStr"/>
+      <c r="AM672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="n">
@@ -38283,6 +40511,9 @@
       <c r="AH673" t="inlineStr"/>
       <c r="AI673" t="inlineStr"/>
       <c r="AJ673" t="inlineStr"/>
+      <c r="AK673" t="inlineStr"/>
+      <c r="AL673" t="inlineStr"/>
+      <c r="AM673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="n">
@@ -38333,6 +40564,9 @@
       <c r="AH674" t="inlineStr"/>
       <c r="AI674" t="inlineStr"/>
       <c r="AJ674" t="inlineStr"/>
+      <c r="AK674" t="inlineStr"/>
+      <c r="AL674" t="inlineStr"/>
+      <c r="AM674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="n">
@@ -38383,6 +40617,9 @@
       <c r="AH675" t="inlineStr"/>
       <c r="AI675" t="inlineStr"/>
       <c r="AJ675" t="inlineStr"/>
+      <c r="AK675" t="inlineStr"/>
+      <c r="AL675" t="inlineStr"/>
+      <c r="AM675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="n">
@@ -38435,15 +40672,19 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W676" t="inlineStr"/>
+      <c r="W676" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="X676" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y676" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="Y676" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="Z676" t="inlineStr"/>
@@ -38457,6 +40698,9 @@
       <c r="AH676" t="inlineStr"/>
       <c r="AI676" t="inlineStr"/>
       <c r="AJ676" t="inlineStr"/>
+      <c r="AK676" t="inlineStr"/>
+      <c r="AL676" t="inlineStr"/>
+      <c r="AM676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="n">
@@ -38509,32 +40753,43 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W677" t="inlineStr"/>
+      <c r="W677" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="X677" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y677" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y677" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z677" t="inlineStr">
-        <is>
-          <t>['ID: 1-1', 'ID: 3-0']</t>
-        </is>
-      </c>
+      <c r="Z677" t="inlineStr"/>
       <c r="AA677" t="inlineStr"/>
       <c r="AB677" t="inlineStr"/>
-      <c r="AC677" t="inlineStr"/>
+      <c r="AC677" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AD677" t="inlineStr"/>
-      <c r="AE677" t="inlineStr"/>
+      <c r="AE677" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AF677" t="inlineStr"/>
       <c r="AG677" t="inlineStr"/>
       <c r="AH677" t="inlineStr"/>
       <c r="AI677" t="inlineStr"/>
       <c r="AJ677" t="inlineStr"/>
+      <c r="AK677" t="inlineStr"/>
+      <c r="AL677" t="inlineStr"/>
+      <c r="AM677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" t="n">
@@ -38587,32 +40842,43 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W678" t="inlineStr"/>
+      <c r="W678" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="X678" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y678" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y678" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z678" t="inlineStr">
-        <is>
-          <t>['ID: 1-1', 'ID: 3-0']</t>
-        </is>
-      </c>
+      <c r="Z678" t="inlineStr"/>
       <c r="AA678" t="inlineStr"/>
       <c r="AB678" t="inlineStr"/>
-      <c r="AC678" t="inlineStr"/>
+      <c r="AC678" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AD678" t="inlineStr"/>
-      <c r="AE678" t="inlineStr"/>
+      <c r="AE678" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AF678" t="inlineStr"/>
       <c r="AG678" t="inlineStr"/>
       <c r="AH678" t="inlineStr"/>
       <c r="AI678" t="inlineStr"/>
       <c r="AJ678" t="inlineStr"/>
+      <c r="AK678" t="inlineStr"/>
+      <c r="AL678" t="inlineStr"/>
+      <c r="AM678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr"/>
@@ -38651,6 +40917,9 @@
       <c r="AH679" t="inlineStr"/>
       <c r="AI679" t="inlineStr"/>
       <c r="AJ679" t="inlineStr"/>
+      <c r="AK679" t="inlineStr"/>
+      <c r="AL679" t="inlineStr"/>
+      <c r="AM679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" t="n">
@@ -38705,6 +40974,9 @@
       <c r="AH680" t="inlineStr"/>
       <c r="AI680" t="inlineStr"/>
       <c r="AJ680" t="inlineStr"/>
+      <c r="AK680" t="inlineStr"/>
+      <c r="AL680" t="inlineStr"/>
+      <c r="AM680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" t="n">
@@ -38759,6 +41031,9 @@
       <c r="AH681" t="inlineStr"/>
       <c r="AI681" t="inlineStr"/>
       <c r="AJ681" t="inlineStr"/>
+      <c r="AK681" t="inlineStr"/>
+      <c r="AL681" t="inlineStr"/>
+      <c r="AM681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="n">
@@ -38813,6 +41088,9 @@
       <c r="AH682" t="inlineStr"/>
       <c r="AI682" t="inlineStr"/>
       <c r="AJ682" t="inlineStr"/>
+      <c r="AK682" t="inlineStr"/>
+      <c r="AL682" t="inlineStr"/>
+      <c r="AM682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="n">
@@ -38873,6 +41151,9 @@
       <c r="AH683" t="inlineStr"/>
       <c r="AI683" t="inlineStr"/>
       <c r="AJ683" t="inlineStr"/>
+      <c r="AK683" t="inlineStr"/>
+      <c r="AL683" t="inlineStr"/>
+      <c r="AM683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" t="n">
@@ -38925,15 +41206,19 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W684" t="inlineStr"/>
+      <c r="W684" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="X684" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="Y684" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z684" t="inlineStr"/>
@@ -38947,6 +41232,9 @@
       <c r="AH684" t="inlineStr"/>
       <c r="AI684" t="inlineStr"/>
       <c r="AJ684" t="inlineStr"/>
+      <c r="AK684" t="inlineStr"/>
+      <c r="AL684" t="inlineStr"/>
+      <c r="AM684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr"/>
@@ -38985,6 +41273,9 @@
       <c r="AH685" t="inlineStr"/>
       <c r="AI685" t="inlineStr"/>
       <c r="AJ685" t="inlineStr"/>
+      <c r="AK685" t="inlineStr"/>
+      <c r="AL685" t="inlineStr"/>
+      <c r="AM685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" t="n">
@@ -39039,6 +41330,9 @@
       <c r="AH686" t="inlineStr"/>
       <c r="AI686" t="inlineStr"/>
       <c r="AJ686" t="inlineStr"/>
+      <c r="AK686" t="inlineStr"/>
+      <c r="AL686" t="inlineStr"/>
+      <c r="AM686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" t="n">
@@ -39093,6 +41387,9 @@
       <c r="AH687" t="inlineStr"/>
       <c r="AI687" t="inlineStr"/>
       <c r="AJ687" t="inlineStr"/>
+      <c r="AK687" t="inlineStr"/>
+      <c r="AL687" t="inlineStr"/>
+      <c r="AM687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="n">
@@ -39153,6 +41450,9 @@
       <c r="AH688" t="inlineStr"/>
       <c r="AI688" t="inlineStr"/>
       <c r="AJ688" t="inlineStr"/>
+      <c r="AK688" t="inlineStr"/>
+      <c r="AL688" t="inlineStr"/>
+      <c r="AM688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="n">
@@ -39205,10 +41505,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W689" t="inlineStr"/>
+      <c r="W689" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="X689" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y689" t="inlineStr">
@@ -39227,6 +41531,9 @@
       <c r="AH689" t="inlineStr"/>
       <c r="AI689" t="inlineStr"/>
       <c r="AJ689" t="inlineStr"/>
+      <c r="AK689" t="inlineStr"/>
+      <c r="AL689" t="inlineStr"/>
+      <c r="AM689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr"/>
@@ -39265,6 +41572,9 @@
       <c r="AH690" t="inlineStr"/>
       <c r="AI690" t="inlineStr"/>
       <c r="AJ690" t="inlineStr"/>
+      <c r="AK690" t="inlineStr"/>
+      <c r="AL690" t="inlineStr"/>
+      <c r="AM690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="n">
@@ -39319,6 +41629,9 @@
       <c r="AH691" t="inlineStr"/>
       <c r="AI691" t="inlineStr"/>
       <c r="AJ691" t="inlineStr"/>
+      <c r="AK691" t="inlineStr"/>
+      <c r="AL691" t="inlineStr"/>
+      <c r="AM691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="n">
@@ -39373,6 +41686,9 @@
       <c r="AH692" t="inlineStr"/>
       <c r="AI692" t="inlineStr"/>
       <c r="AJ692" t="inlineStr"/>
+      <c r="AK692" t="inlineStr"/>
+      <c r="AL692" t="inlineStr"/>
+      <c r="AM692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" t="n">
@@ -39427,6 +41743,9 @@
       <c r="AH693" t="inlineStr"/>
       <c r="AI693" t="inlineStr"/>
       <c r="AJ693" t="inlineStr"/>
+      <c r="AK693" t="inlineStr"/>
+      <c r="AL693" t="inlineStr"/>
+      <c r="AM693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" t="n">
@@ -39481,6 +41800,9 @@
       <c r="AH694" t="inlineStr"/>
       <c r="AI694" t="inlineStr"/>
       <c r="AJ694" t="inlineStr"/>
+      <c r="AK694" t="inlineStr"/>
+      <c r="AL694" t="inlineStr"/>
+      <c r="AM694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="n">
@@ -39535,6 +41857,9 @@
       <c r="AH695" t="inlineStr"/>
       <c r="AI695" t="inlineStr"/>
       <c r="AJ695" t="inlineStr"/>
+      <c r="AK695" t="inlineStr"/>
+      <c r="AL695" t="inlineStr"/>
+      <c r="AM695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" t="n">
@@ -39589,6 +41914,9 @@
       <c r="AH696" t="inlineStr"/>
       <c r="AI696" t="inlineStr"/>
       <c r="AJ696" t="inlineStr"/>
+      <c r="AK696" t="inlineStr"/>
+      <c r="AL696" t="inlineStr"/>
+      <c r="AM696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="n">
@@ -39643,6 +41971,9 @@
       <c r="AH697" t="inlineStr"/>
       <c r="AI697" t="inlineStr"/>
       <c r="AJ697" t="inlineStr"/>
+      <c r="AK697" t="inlineStr"/>
+      <c r="AL697" t="inlineStr"/>
+      <c r="AM697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="n">
@@ -39697,6 +42028,9 @@
       <c r="AH698" t="inlineStr"/>
       <c r="AI698" t="inlineStr"/>
       <c r="AJ698" t="inlineStr"/>
+      <c r="AK698" t="inlineStr"/>
+      <c r="AL698" t="inlineStr"/>
+      <c r="AM698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="n">
@@ -39751,6 +42085,9 @@
       <c r="AH699" t="inlineStr"/>
       <c r="AI699" t="inlineStr"/>
       <c r="AJ699" t="inlineStr"/>
+      <c r="AK699" t="inlineStr"/>
+      <c r="AL699" t="inlineStr"/>
+      <c r="AM699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" t="n">
@@ -39805,6 +42142,9 @@
       <c r="AH700" t="inlineStr"/>
       <c r="AI700" t="inlineStr"/>
       <c r="AJ700" t="inlineStr"/>
+      <c r="AK700" t="inlineStr"/>
+      <c r="AL700" t="inlineStr"/>
+      <c r="AM700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="n">
@@ -39859,6 +42199,9 @@
       <c r="AH701" t="inlineStr"/>
       <c r="AI701" t="inlineStr"/>
       <c r="AJ701" t="inlineStr"/>
+      <c r="AK701" t="inlineStr"/>
+      <c r="AL701" t="inlineStr"/>
+      <c r="AM701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="n">
@@ -39913,6 +42256,9 @@
       <c r="AH702" t="inlineStr"/>
       <c r="AI702" t="inlineStr"/>
       <c r="AJ702" t="inlineStr"/>
+      <c r="AK702" t="inlineStr"/>
+      <c r="AL702" t="inlineStr"/>
+      <c r="AM702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" t="n">
@@ -39967,6 +42313,9 @@
       <c r="AH703" t="inlineStr"/>
       <c r="AI703" t="inlineStr"/>
       <c r="AJ703" t="inlineStr"/>
+      <c r="AK703" t="inlineStr"/>
+      <c r="AL703" t="inlineStr"/>
+      <c r="AM703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" t="n">
@@ -40021,6 +42370,9 @@
       <c r="AH704" t="inlineStr"/>
       <c r="AI704" t="inlineStr"/>
       <c r="AJ704" t="inlineStr"/>
+      <c r="AK704" t="inlineStr"/>
+      <c r="AL704" t="inlineStr"/>
+      <c r="AM704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" t="n">
@@ -40075,6 +42427,9 @@
       <c r="AH705" t="inlineStr"/>
       <c r="AI705" t="inlineStr"/>
       <c r="AJ705" t="inlineStr"/>
+      <c r="AK705" t="inlineStr"/>
+      <c r="AL705" t="inlineStr"/>
+      <c r="AM705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" t="n">
@@ -40129,6 +42484,9 @@
       <c r="AH706" t="inlineStr"/>
       <c r="AI706" t="inlineStr"/>
       <c r="AJ706" t="inlineStr"/>
+      <c r="AK706" t="inlineStr"/>
+      <c r="AL706" t="inlineStr"/>
+      <c r="AM706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" t="n">
@@ -40183,6 +42541,9 @@
       <c r="AH707" t="inlineStr"/>
       <c r="AI707" t="inlineStr"/>
       <c r="AJ707" t="inlineStr"/>
+      <c r="AK707" t="inlineStr"/>
+      <c r="AL707" t="inlineStr"/>
+      <c r="AM707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" t="n">
@@ -40237,6 +42598,9 @@
       <c r="AH708" t="inlineStr"/>
       <c r="AI708" t="inlineStr"/>
       <c r="AJ708" t="inlineStr"/>
+      <c r="AK708" t="inlineStr"/>
+      <c r="AL708" t="inlineStr"/>
+      <c r="AM708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" t="n">
@@ -40291,6 +42655,9 @@
       <c r="AH709" t="inlineStr"/>
       <c r="AI709" t="inlineStr"/>
       <c r="AJ709" t="inlineStr"/>
+      <c r="AK709" t="inlineStr"/>
+      <c r="AL709" t="inlineStr"/>
+      <c r="AM709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="n">
@@ -40345,6 +42712,9 @@
       <c r="AH710" t="inlineStr"/>
       <c r="AI710" t="inlineStr"/>
       <c r="AJ710" t="inlineStr"/>
+      <c r="AK710" t="inlineStr"/>
+      <c r="AL710" t="inlineStr"/>
+      <c r="AM710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" t="n">
@@ -40399,6 +42769,9 @@
       <c r="AH711" t="inlineStr"/>
       <c r="AI711" t="inlineStr"/>
       <c r="AJ711" t="inlineStr"/>
+      <c r="AK711" t="inlineStr"/>
+      <c r="AL711" t="inlineStr"/>
+      <c r="AM711" t="inlineStr"/>
     </row>
     <row r="712">
       <c r="A712" t="n">
@@ -40453,6 +42826,9 @@
       <c r="AH712" t="inlineStr"/>
       <c r="AI712" t="inlineStr"/>
       <c r="AJ712" t="inlineStr"/>
+      <c r="AK712" t="inlineStr"/>
+      <c r="AL712" t="inlineStr"/>
+      <c r="AM712" t="inlineStr"/>
     </row>
     <row r="713">
       <c r="A713" t="n">
@@ -40507,6 +42883,9 @@
       <c r="AH713" t="inlineStr"/>
       <c r="AI713" t="inlineStr"/>
       <c r="AJ713" t="inlineStr"/>
+      <c r="AK713" t="inlineStr"/>
+      <c r="AL713" t="inlineStr"/>
+      <c r="AM713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" t="n">
@@ -40561,6 +42940,9 @@
       <c r="AH714" t="inlineStr"/>
       <c r="AI714" t="inlineStr"/>
       <c r="AJ714" t="inlineStr"/>
+      <c r="AK714" t="inlineStr"/>
+      <c r="AL714" t="inlineStr"/>
+      <c r="AM714" t="inlineStr"/>
     </row>
     <row r="715">
       <c r="A715" t="n">
@@ -40615,6 +42997,9 @@
       <c r="AH715" t="inlineStr"/>
       <c r="AI715" t="inlineStr"/>
       <c r="AJ715" t="inlineStr"/>
+      <c r="AK715" t="inlineStr"/>
+      <c r="AL715" t="inlineStr"/>
+      <c r="AM715" t="inlineStr"/>
     </row>
     <row r="716">
       <c r="A716" t="n">
@@ -40669,6 +43054,9 @@
       <c r="AH716" t="inlineStr"/>
       <c r="AI716" t="inlineStr"/>
       <c r="AJ716" t="inlineStr"/>
+      <c r="AK716" t="inlineStr"/>
+      <c r="AL716" t="inlineStr"/>
+      <c r="AM716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" t="n">
@@ -40723,6 +43111,9 @@
       <c r="AH717" t="inlineStr"/>
       <c r="AI717" t="inlineStr"/>
       <c r="AJ717" t="inlineStr"/>
+      <c r="AK717" t="inlineStr"/>
+      <c r="AL717" t="inlineStr"/>
+      <c r="AM717" t="inlineStr"/>
     </row>
     <row r="718">
       <c r="A718" t="n">
@@ -40777,6 +43168,9 @@
       <c r="AH718" t="inlineStr"/>
       <c r="AI718" t="inlineStr"/>
       <c r="AJ718" t="inlineStr"/>
+      <c r="AK718" t="inlineStr"/>
+      <c r="AL718" t="inlineStr"/>
+      <c r="AM718" t="inlineStr"/>
     </row>
     <row r="719">
       <c r="A719" t="n">
@@ -40831,6 +43225,9 @@
       <c r="AH719" t="inlineStr"/>
       <c r="AI719" t="inlineStr"/>
       <c r="AJ719" t="inlineStr"/>
+      <c r="AK719" t="inlineStr"/>
+      <c r="AL719" t="inlineStr"/>
+      <c r="AM719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" t="n">
@@ -40885,6 +43282,9 @@
       <c r="AH720" t="inlineStr"/>
       <c r="AI720" t="inlineStr"/>
       <c r="AJ720" t="inlineStr"/>
+      <c r="AK720" t="inlineStr"/>
+      <c r="AL720" t="inlineStr"/>
+      <c r="AM720" t="inlineStr"/>
     </row>
     <row r="721">
       <c r="A721" t="n">
@@ -40939,6 +43339,9 @@
       <c r="AH721" t="inlineStr"/>
       <c r="AI721" t="inlineStr"/>
       <c r="AJ721" t="inlineStr"/>
+      <c r="AK721" t="inlineStr"/>
+      <c r="AL721" t="inlineStr"/>
+      <c r="AM721" t="inlineStr"/>
     </row>
     <row r="722">
       <c r="A722" t="n">
@@ -40993,6 +43396,9 @@
       <c r="AH722" t="inlineStr"/>
       <c r="AI722" t="inlineStr"/>
       <c r="AJ722" t="inlineStr"/>
+      <c r="AK722" t="inlineStr"/>
+      <c r="AL722" t="inlineStr"/>
+      <c r="AM722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" t="n">
@@ -41047,6 +43453,9 @@
       <c r="AH723" t="inlineStr"/>
       <c r="AI723" t="inlineStr"/>
       <c r="AJ723" t="inlineStr"/>
+      <c r="AK723" t="inlineStr"/>
+      <c r="AL723" t="inlineStr"/>
+      <c r="AM723" t="inlineStr"/>
     </row>
     <row r="724">
       <c r="A724" t="n">
@@ -41101,6 +43510,9 @@
       <c r="AH724" t="inlineStr"/>
       <c r="AI724" t="inlineStr"/>
       <c r="AJ724" t="inlineStr"/>
+      <c r="AK724" t="inlineStr"/>
+      <c r="AL724" t="inlineStr"/>
+      <c r="AM724" t="inlineStr"/>
     </row>
     <row r="725">
       <c r="A725" t="n">
@@ -41155,6 +43567,9 @@
       <c r="AH725" t="inlineStr"/>
       <c r="AI725" t="inlineStr"/>
       <c r="AJ725" t="inlineStr"/>
+      <c r="AK725" t="inlineStr"/>
+      <c r="AL725" t="inlineStr"/>
+      <c r="AM725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" t="n">
@@ -41209,6 +43624,9 @@
       <c r="AH726" t="inlineStr"/>
       <c r="AI726" t="inlineStr"/>
       <c r="AJ726" t="inlineStr"/>
+      <c r="AK726" t="inlineStr"/>
+      <c r="AL726" t="inlineStr"/>
+      <c r="AM726" t="inlineStr"/>
     </row>
     <row r="727">
       <c r="A727" t="n">
@@ -41263,6 +43681,9 @@
       <c r="AH727" t="inlineStr"/>
       <c r="AI727" t="inlineStr"/>
       <c r="AJ727" t="inlineStr"/>
+      <c r="AK727" t="inlineStr"/>
+      <c r="AL727" t="inlineStr"/>
+      <c r="AM727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" t="n">
@@ -41317,6 +43738,9 @@
       <c r="AH728" t="inlineStr"/>
       <c r="AI728" t="inlineStr"/>
       <c r="AJ728" t="inlineStr"/>
+      <c r="AK728" t="inlineStr"/>
+      <c r="AL728" t="inlineStr"/>
+      <c r="AM728" t="inlineStr"/>
     </row>
     <row r="729">
       <c r="A729" t="n">
@@ -41371,6 +43795,9 @@
       <c r="AH729" t="inlineStr"/>
       <c r="AI729" t="inlineStr"/>
       <c r="AJ729" t="inlineStr"/>
+      <c r="AK729" t="inlineStr"/>
+      <c r="AL729" t="inlineStr"/>
+      <c r="AM729" t="inlineStr"/>
     </row>
     <row r="730">
       <c r="A730" t="n">
@@ -41425,6 +43852,9 @@
       <c r="AH730" t="inlineStr"/>
       <c r="AI730" t="inlineStr"/>
       <c r="AJ730" t="inlineStr"/>
+      <c r="AK730" t="inlineStr"/>
+      <c r="AL730" t="inlineStr"/>
+      <c r="AM730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" t="n">
@@ -41479,6 +43909,9 @@
       <c r="AH731" t="inlineStr"/>
       <c r="AI731" t="inlineStr"/>
       <c r="AJ731" t="inlineStr"/>
+      <c r="AK731" t="inlineStr"/>
+      <c r="AL731" t="inlineStr"/>
+      <c r="AM731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" t="n">
@@ -41533,6 +43966,9 @@
       <c r="AH732" t="inlineStr"/>
       <c r="AI732" t="inlineStr"/>
       <c r="AJ732" t="inlineStr"/>
+      <c r="AK732" t="inlineStr"/>
+      <c r="AL732" t="inlineStr"/>
+      <c r="AM732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" t="n">
@@ -41587,6 +44023,9 @@
       <c r="AH733" t="inlineStr"/>
       <c r="AI733" t="inlineStr"/>
       <c r="AJ733" t="inlineStr"/>
+      <c r="AK733" t="inlineStr"/>
+      <c r="AL733" t="inlineStr"/>
+      <c r="AM733" t="inlineStr"/>
     </row>
     <row r="734">
       <c r="A734" t="n">
@@ -41641,6 +44080,9 @@
       <c r="AH734" t="inlineStr"/>
       <c r="AI734" t="inlineStr"/>
       <c r="AJ734" t="inlineStr"/>
+      <c r="AK734" t="inlineStr"/>
+      <c r="AL734" t="inlineStr"/>
+      <c r="AM734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" t="n">
@@ -41695,6 +44137,9 @@
       <c r="AH735" t="inlineStr"/>
       <c r="AI735" t="inlineStr"/>
       <c r="AJ735" t="inlineStr"/>
+      <c r="AK735" t="inlineStr"/>
+      <c r="AL735" t="inlineStr"/>
+      <c r="AM735" t="inlineStr"/>
     </row>
     <row r="736">
       <c r="A736" t="n">
@@ -41749,6 +44194,9 @@
       <c r="AH736" t="inlineStr"/>
       <c r="AI736" t="inlineStr"/>
       <c r="AJ736" t="inlineStr"/>
+      <c r="AK736" t="inlineStr"/>
+      <c r="AL736" t="inlineStr"/>
+      <c r="AM736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" t="n">
@@ -41803,6 +44251,9 @@
       <c r="AH737" t="inlineStr"/>
       <c r="AI737" t="inlineStr"/>
       <c r="AJ737" t="inlineStr"/>
+      <c r="AK737" t="inlineStr"/>
+      <c r="AL737" t="inlineStr"/>
+      <c r="AM737" t="inlineStr"/>
     </row>
     <row r="738">
       <c r="A738" t="n">
@@ -41857,6 +44308,9 @@
       <c r="AH738" t="inlineStr"/>
       <c r="AI738" t="inlineStr"/>
       <c r="AJ738" t="inlineStr"/>
+      <c r="AK738" t="inlineStr"/>
+      <c r="AL738" t="inlineStr"/>
+      <c r="AM738" t="inlineStr"/>
     </row>
     <row r="739">
       <c r="A739" t="n">
@@ -41911,6 +44365,9 @@
       <c r="AH739" t="inlineStr"/>
       <c r="AI739" t="inlineStr"/>
       <c r="AJ739" t="inlineStr"/>
+      <c r="AK739" t="inlineStr"/>
+      <c r="AL739" t="inlineStr"/>
+      <c r="AM739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" t="n">
@@ -41965,6 +44422,9 @@
       <c r="AH740" t="inlineStr"/>
       <c r="AI740" t="inlineStr"/>
       <c r="AJ740" t="inlineStr"/>
+      <c r="AK740" t="inlineStr"/>
+      <c r="AL740" t="inlineStr"/>
+      <c r="AM740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" t="n">
@@ -42019,6 +44479,9 @@
       <c r="AH741" t="inlineStr"/>
       <c r="AI741" t="inlineStr"/>
       <c r="AJ741" t="inlineStr"/>
+      <c r="AK741" t="inlineStr"/>
+      <c r="AL741" t="inlineStr"/>
+      <c r="AM741" t="inlineStr"/>
     </row>
     <row r="742">
       <c r="A742" t="n">
@@ -42073,6 +44536,9 @@
       <c r="AH742" t="inlineStr"/>
       <c r="AI742" t="inlineStr"/>
       <c r="AJ742" t="inlineStr"/>
+      <c r="AK742" t="inlineStr"/>
+      <c r="AL742" t="inlineStr"/>
+      <c r="AM742" t="inlineStr"/>
     </row>
     <row r="743">
       <c r="A743" t="n">
@@ -42127,6 +44593,9 @@
       <c r="AH743" t="inlineStr"/>
       <c r="AI743" t="inlineStr"/>
       <c r="AJ743" t="inlineStr"/>
+      <c r="AK743" t="inlineStr"/>
+      <c r="AL743" t="inlineStr"/>
+      <c r="AM743" t="inlineStr"/>
     </row>
     <row r="744">
       <c r="A744" t="n">
@@ -42181,6 +44650,9 @@
       <c r="AH744" t="inlineStr"/>
       <c r="AI744" t="inlineStr"/>
       <c r="AJ744" t="inlineStr"/>
+      <c r="AK744" t="inlineStr"/>
+      <c r="AL744" t="inlineStr"/>
+      <c r="AM744" t="inlineStr"/>
     </row>
     <row r="745">
       <c r="A745" t="n">
@@ -42235,6 +44707,9 @@
       <c r="AH745" t="inlineStr"/>
       <c r="AI745" t="inlineStr"/>
       <c r="AJ745" t="inlineStr"/>
+      <c r="AK745" t="inlineStr"/>
+      <c r="AL745" t="inlineStr"/>
+      <c r="AM745" t="inlineStr"/>
     </row>
     <row r="746">
       <c r="A746" t="n">
@@ -42289,6 +44764,9 @@
       <c r="AH746" t="inlineStr"/>
       <c r="AI746" t="inlineStr"/>
       <c r="AJ746" t="inlineStr"/>
+      <c r="AK746" t="inlineStr"/>
+      <c r="AL746" t="inlineStr"/>
+      <c r="AM746" t="inlineStr"/>
     </row>
     <row r="747">
       <c r="A747" t="n">
@@ -42343,6 +44821,9 @@
       <c r="AH747" t="inlineStr"/>
       <c r="AI747" t="inlineStr"/>
       <c r="AJ747" t="inlineStr"/>
+      <c r="AK747" t="inlineStr"/>
+      <c r="AL747" t="inlineStr"/>
+      <c r="AM747" t="inlineStr"/>
     </row>
     <row r="748">
       <c r="A748" t="n">
@@ -42397,6 +44878,9 @@
       <c r="AH748" t="inlineStr"/>
       <c r="AI748" t="inlineStr"/>
       <c r="AJ748" t="inlineStr"/>
+      <c r="AK748" t="inlineStr"/>
+      <c r="AL748" t="inlineStr"/>
+      <c r="AM748" t="inlineStr"/>
     </row>
     <row r="749">
       <c r="A749" t="n">
@@ -42457,6 +44941,9 @@
       <c r="AH749" t="inlineStr"/>
       <c r="AI749" t="inlineStr"/>
       <c r="AJ749" t="inlineStr"/>
+      <c r="AK749" t="inlineStr"/>
+      <c r="AL749" t="inlineStr"/>
+      <c r="AM749" t="inlineStr"/>
     </row>
     <row r="750">
       <c r="A750" t="n">
@@ -42517,6 +45004,9 @@
       <c r="AH750" t="inlineStr"/>
       <c r="AI750" t="inlineStr"/>
       <c r="AJ750" t="inlineStr"/>
+      <c r="AK750" t="inlineStr"/>
+      <c r="AL750" t="inlineStr"/>
+      <c r="AM750" t="inlineStr"/>
     </row>
     <row r="751">
       <c r="A751" t="n">
@@ -42577,6 +45067,9 @@
       <c r="AH751" t="inlineStr"/>
       <c r="AI751" t="inlineStr"/>
       <c r="AJ751" t="inlineStr"/>
+      <c r="AK751" t="inlineStr"/>
+      <c r="AL751" t="inlineStr"/>
+      <c r="AM751" t="inlineStr"/>
     </row>
     <row r="752">
       <c r="A752" t="n">
@@ -42637,6 +45130,9 @@
       <c r="AH752" t="inlineStr"/>
       <c r="AI752" t="inlineStr"/>
       <c r="AJ752" t="inlineStr"/>
+      <c r="AK752" t="inlineStr"/>
+      <c r="AL752" t="inlineStr"/>
+      <c r="AM752" t="inlineStr"/>
     </row>
     <row r="753">
       <c r="A753" t="n">
@@ -42697,6 +45193,9 @@
       <c r="AH753" t="inlineStr"/>
       <c r="AI753" t="inlineStr"/>
       <c r="AJ753" t="inlineStr"/>
+      <c r="AK753" t="inlineStr"/>
+      <c r="AL753" t="inlineStr"/>
+      <c r="AM753" t="inlineStr"/>
     </row>
     <row r="754">
       <c r="A754" t="n">
@@ -42757,6 +45256,9 @@
       <c r="AH754" t="inlineStr"/>
       <c r="AI754" t="inlineStr"/>
       <c r="AJ754" t="inlineStr"/>
+      <c r="AK754" t="inlineStr"/>
+      <c r="AL754" t="inlineStr"/>
+      <c r="AM754" t="inlineStr"/>
     </row>
     <row r="755">
       <c r="A755" t="n">
@@ -42817,6 +45319,9 @@
       <c r="AH755" t="inlineStr"/>
       <c r="AI755" t="inlineStr"/>
       <c r="AJ755" t="inlineStr"/>
+      <c r="AK755" t="inlineStr"/>
+      <c r="AL755" t="inlineStr"/>
+      <c r="AM755" t="inlineStr"/>
     </row>
     <row r="756">
       <c r="A756" t="n">
@@ -42877,6 +45382,9 @@
       <c r="AH756" t="inlineStr"/>
       <c r="AI756" t="inlineStr"/>
       <c r="AJ756" t="inlineStr"/>
+      <c r="AK756" t="inlineStr"/>
+      <c r="AL756" t="inlineStr"/>
+      <c r="AM756" t="inlineStr"/>
     </row>
     <row r="757">
       <c r="A757" t="n">
@@ -42937,6 +45445,9 @@
       <c r="AH757" t="inlineStr"/>
       <c r="AI757" t="inlineStr"/>
       <c r="AJ757" t="inlineStr"/>
+      <c r="AK757" t="inlineStr"/>
+      <c r="AL757" t="inlineStr"/>
+      <c r="AM757" t="inlineStr"/>
     </row>
     <row r="758">
       <c r="A758" t="n">
@@ -42997,6 +45508,9 @@
       <c r="AH758" t="inlineStr"/>
       <c r="AI758" t="inlineStr"/>
       <c r="AJ758" t="inlineStr"/>
+      <c r="AK758" t="inlineStr"/>
+      <c r="AL758" t="inlineStr"/>
+      <c r="AM758" t="inlineStr"/>
     </row>
     <row r="759">
       <c r="A759" t="n">
@@ -43057,6 +45571,9 @@
       <c r="AH759" t="inlineStr"/>
       <c r="AI759" t="inlineStr"/>
       <c r="AJ759" t="inlineStr"/>
+      <c r="AK759" t="inlineStr"/>
+      <c r="AL759" t="inlineStr"/>
+      <c r="AM759" t="inlineStr"/>
     </row>
     <row r="760">
       <c r="A760" t="n">
@@ -43117,6 +45634,9 @@
       <c r="AH760" t="inlineStr"/>
       <c r="AI760" t="inlineStr"/>
       <c r="AJ760" t="inlineStr"/>
+      <c r="AK760" t="inlineStr"/>
+      <c r="AL760" t="inlineStr"/>
+      <c r="AM760" t="inlineStr"/>
     </row>
     <row r="761">
       <c r="A761" t="n">
@@ -43177,6 +45697,9 @@
       <c r="AH761" t="inlineStr"/>
       <c r="AI761" t="inlineStr"/>
       <c r="AJ761" t="inlineStr"/>
+      <c r="AK761" t="inlineStr"/>
+      <c r="AL761" t="inlineStr"/>
+      <c r="AM761" t="inlineStr"/>
     </row>
     <row r="762">
       <c r="A762" t="n">
@@ -43237,6 +45760,9 @@
       <c r="AH762" t="inlineStr"/>
       <c r="AI762" t="inlineStr"/>
       <c r="AJ762" t="inlineStr"/>
+      <c r="AK762" t="inlineStr"/>
+      <c r="AL762" t="inlineStr"/>
+      <c r="AM762" t="inlineStr"/>
     </row>
     <row r="763">
       <c r="A763" t="n">
@@ -43297,6 +45823,9 @@
       <c r="AH763" t="inlineStr"/>
       <c r="AI763" t="inlineStr"/>
       <c r="AJ763" t="inlineStr"/>
+      <c r="AK763" t="inlineStr"/>
+      <c r="AL763" t="inlineStr"/>
+      <c r="AM763" t="inlineStr"/>
     </row>
     <row r="764">
       <c r="A764" t="n">
@@ -43357,6 +45886,9 @@
       <c r="AH764" t="inlineStr"/>
       <c r="AI764" t="inlineStr"/>
       <c r="AJ764" t="inlineStr"/>
+      <c r="AK764" t="inlineStr"/>
+      <c r="AL764" t="inlineStr"/>
+      <c r="AM764" t="inlineStr"/>
     </row>
     <row r="765">
       <c r="A765" t="n">
@@ -43417,6 +45949,9 @@
       <c r="AH765" t="inlineStr"/>
       <c r="AI765" t="inlineStr"/>
       <c r="AJ765" t="inlineStr"/>
+      <c r="AK765" t="inlineStr"/>
+      <c r="AL765" t="inlineStr"/>
+      <c r="AM765" t="inlineStr"/>
     </row>
     <row r="766">
       <c r="A766" t="n">
@@ -43477,6 +46012,9 @@
       <c r="AH766" t="inlineStr"/>
       <c r="AI766" t="inlineStr"/>
       <c r="AJ766" t="inlineStr"/>
+      <c r="AK766" t="inlineStr"/>
+      <c r="AL766" t="inlineStr"/>
+      <c r="AM766" t="inlineStr"/>
     </row>
     <row r="767">
       <c r="A767" t="n">
@@ -43537,6 +46075,9 @@
       <c r="AH767" t="inlineStr"/>
       <c r="AI767" t="inlineStr"/>
       <c r="AJ767" t="inlineStr"/>
+      <c r="AK767" t="inlineStr"/>
+      <c r="AL767" t="inlineStr"/>
+      <c r="AM767" t="inlineStr"/>
     </row>
     <row r="768">
       <c r="A768" t="n">
@@ -43597,6 +46138,9 @@
       <c r="AH768" t="inlineStr"/>
       <c r="AI768" t="inlineStr"/>
       <c r="AJ768" t="inlineStr"/>
+      <c r="AK768" t="inlineStr"/>
+      <c r="AL768" t="inlineStr"/>
+      <c r="AM768" t="inlineStr"/>
     </row>
     <row r="769">
       <c r="A769" t="n">
@@ -43657,6 +46201,9 @@
       <c r="AH769" t="inlineStr"/>
       <c r="AI769" t="inlineStr"/>
       <c r="AJ769" t="inlineStr"/>
+      <c r="AK769" t="inlineStr"/>
+      <c r="AL769" t="inlineStr"/>
+      <c r="AM769" t="inlineStr"/>
     </row>
     <row r="770">
       <c r="A770" t="n">
@@ -43717,6 +46264,9 @@
       <c r="AH770" t="inlineStr"/>
       <c r="AI770" t="inlineStr"/>
       <c r="AJ770" t="inlineStr"/>
+      <c r="AK770" t="inlineStr"/>
+      <c r="AL770" t="inlineStr"/>
+      <c r="AM770" t="inlineStr"/>
     </row>
     <row r="771">
       <c r="A771" t="n">
@@ -43777,6 +46327,9 @@
       <c r="AH771" t="inlineStr"/>
       <c r="AI771" t="inlineStr"/>
       <c r="AJ771" t="inlineStr"/>
+      <c r="AK771" t="inlineStr"/>
+      <c r="AL771" t="inlineStr"/>
+      <c r="AM771" t="inlineStr"/>
     </row>
     <row r="772">
       <c r="A772" t="n">
@@ -43837,6 +46390,9 @@
       <c r="AH772" t="inlineStr"/>
       <c r="AI772" t="inlineStr"/>
       <c r="AJ772" t="inlineStr"/>
+      <c r="AK772" t="inlineStr"/>
+      <c r="AL772" t="inlineStr"/>
+      <c r="AM772" t="inlineStr"/>
     </row>
     <row r="773">
       <c r="A773" t="n">
@@ -43897,6 +46453,9 @@
       <c r="AH773" t="inlineStr"/>
       <c r="AI773" t="inlineStr"/>
       <c r="AJ773" t="inlineStr"/>
+      <c r="AK773" t="inlineStr"/>
+      <c r="AL773" t="inlineStr"/>
+      <c r="AM773" t="inlineStr"/>
     </row>
     <row r="774">
       <c r="A774" t="n">
@@ -43957,6 +46516,9 @@
       <c r="AH774" t="inlineStr"/>
       <c r="AI774" t="inlineStr"/>
       <c r="AJ774" t="inlineStr"/>
+      <c r="AK774" t="inlineStr"/>
+      <c r="AL774" t="inlineStr"/>
+      <c r="AM774" t="inlineStr"/>
     </row>
     <row r="775">
       <c r="A775" t="n">
@@ -44017,6 +46579,9 @@
       <c r="AH775" t="inlineStr"/>
       <c r="AI775" t="inlineStr"/>
       <c r="AJ775" t="inlineStr"/>
+      <c r="AK775" t="inlineStr"/>
+      <c r="AL775" t="inlineStr"/>
+      <c r="AM775" t="inlineStr"/>
     </row>
     <row r="776">
       <c r="A776" t="n">
@@ -44077,6 +46642,9 @@
       <c r="AH776" t="inlineStr"/>
       <c r="AI776" t="inlineStr"/>
       <c r="AJ776" t="inlineStr"/>
+      <c r="AK776" t="inlineStr"/>
+      <c r="AL776" t="inlineStr"/>
+      <c r="AM776" t="inlineStr"/>
     </row>
     <row r="777">
       <c r="A777" t="n">
@@ -44137,6 +46705,9 @@
       <c r="AH777" t="inlineStr"/>
       <c r="AI777" t="inlineStr"/>
       <c r="AJ777" t="inlineStr"/>
+      <c r="AK777" t="inlineStr"/>
+      <c r="AL777" t="inlineStr"/>
+      <c r="AM777" t="inlineStr"/>
     </row>
     <row r="778">
       <c r="A778" t="n">
@@ -44197,6 +46768,9 @@
       <c r="AH778" t="inlineStr"/>
       <c r="AI778" t="inlineStr"/>
       <c r="AJ778" t="inlineStr"/>
+      <c r="AK778" t="inlineStr"/>
+      <c r="AL778" t="inlineStr"/>
+      <c r="AM778" t="inlineStr"/>
     </row>
     <row r="779">
       <c r="A779" t="n">
@@ -44257,6 +46831,9 @@
       <c r="AH779" t="inlineStr"/>
       <c r="AI779" t="inlineStr"/>
       <c r="AJ779" t="inlineStr"/>
+      <c r="AK779" t="inlineStr"/>
+      <c r="AL779" t="inlineStr"/>
+      <c r="AM779" t="inlineStr"/>
     </row>
     <row r="780">
       <c r="A780" t="n">
@@ -44317,6 +46894,9 @@
       <c r="AH780" t="inlineStr"/>
       <c r="AI780" t="inlineStr"/>
       <c r="AJ780" t="inlineStr"/>
+      <c r="AK780" t="inlineStr"/>
+      <c r="AL780" t="inlineStr"/>
+      <c r="AM780" t="inlineStr"/>
     </row>
     <row r="781">
       <c r="A781" t="n">
@@ -44377,6 +46957,9 @@
       <c r="AH781" t="inlineStr"/>
       <c r="AI781" t="inlineStr"/>
       <c r="AJ781" t="inlineStr"/>
+      <c r="AK781" t="inlineStr"/>
+      <c r="AL781" t="inlineStr"/>
+      <c r="AM781" t="inlineStr"/>
     </row>
     <row r="782">
       <c r="A782" t="n">
@@ -44437,6 +47020,9 @@
       <c r="AH782" t="inlineStr"/>
       <c r="AI782" t="inlineStr"/>
       <c r="AJ782" t="inlineStr"/>
+      <c r="AK782" t="inlineStr"/>
+      <c r="AL782" t="inlineStr"/>
+      <c r="AM782" t="inlineStr"/>
     </row>
     <row r="783">
       <c r="A783" t="n">
@@ -44497,6 +47083,9 @@
       <c r="AH783" t="inlineStr"/>
       <c r="AI783" t="inlineStr"/>
       <c r="AJ783" t="inlineStr"/>
+      <c r="AK783" t="inlineStr"/>
+      <c r="AL783" t="inlineStr"/>
+      <c r="AM783" t="inlineStr"/>
     </row>
     <row r="784">
       <c r="A784" t="n">
@@ -44557,6 +47146,9 @@
       <c r="AH784" t="inlineStr"/>
       <c r="AI784" t="inlineStr"/>
       <c r="AJ784" t="inlineStr"/>
+      <c r="AK784" t="inlineStr"/>
+      <c r="AL784" t="inlineStr"/>
+      <c r="AM784" t="inlineStr"/>
     </row>
     <row r="785">
       <c r="A785" t="n">
@@ -44617,6 +47209,9 @@
       <c r="AH785" t="inlineStr"/>
       <c r="AI785" t="inlineStr"/>
       <c r="AJ785" t="inlineStr"/>
+      <c r="AK785" t="inlineStr"/>
+      <c r="AL785" t="inlineStr"/>
+      <c r="AM785" t="inlineStr"/>
     </row>
     <row r="786">
       <c r="A786" t="n">
@@ -44677,6 +47272,9 @@
       <c r="AH786" t="inlineStr"/>
       <c r="AI786" t="inlineStr"/>
       <c r="AJ786" t="inlineStr"/>
+      <c r="AK786" t="inlineStr"/>
+      <c r="AL786" t="inlineStr"/>
+      <c r="AM786" t="inlineStr"/>
     </row>
     <row r="787">
       <c r="A787" t="n">
@@ -44737,6 +47335,9 @@
       <c r="AH787" t="inlineStr"/>
       <c r="AI787" t="inlineStr"/>
       <c r="AJ787" t="inlineStr"/>
+      <c r="AK787" t="inlineStr"/>
+      <c r="AL787" t="inlineStr"/>
+      <c r="AM787" t="inlineStr"/>
     </row>
     <row r="788">
       <c r="A788" t="n">
@@ -44797,6 +47398,9 @@
       <c r="AH788" t="inlineStr"/>
       <c r="AI788" t="inlineStr"/>
       <c r="AJ788" t="inlineStr"/>
+      <c r="AK788" t="inlineStr"/>
+      <c r="AL788" t="inlineStr"/>
+      <c r="AM788" t="inlineStr"/>
     </row>
     <row r="789">
       <c r="A789" t="n">
@@ -44857,6 +47461,9 @@
       <c r="AH789" t="inlineStr"/>
       <c r="AI789" t="inlineStr"/>
       <c r="AJ789" t="inlineStr"/>
+      <c r="AK789" t="inlineStr"/>
+      <c r="AL789" t="inlineStr"/>
+      <c r="AM789" t="inlineStr"/>
     </row>
     <row r="790">
       <c r="A790" t="n">
@@ -44917,6 +47524,9 @@
       <c r="AH790" t="inlineStr"/>
       <c r="AI790" t="inlineStr"/>
       <c r="AJ790" t="inlineStr"/>
+      <c r="AK790" t="inlineStr"/>
+      <c r="AL790" t="inlineStr"/>
+      <c r="AM790" t="inlineStr"/>
     </row>
     <row r="791">
       <c r="A791" t="n">
@@ -44977,6 +47587,9 @@
       <c r="AH791" t="inlineStr"/>
       <c r="AI791" t="inlineStr"/>
       <c r="AJ791" t="inlineStr"/>
+      <c r="AK791" t="inlineStr"/>
+      <c r="AL791" t="inlineStr"/>
+      <c r="AM791" t="inlineStr"/>
     </row>
     <row r="792">
       <c r="A792" t="n">
@@ -45037,6 +47650,9 @@
       <c r="AH792" t="inlineStr"/>
       <c r="AI792" t="inlineStr"/>
       <c r="AJ792" t="inlineStr"/>
+      <c r="AK792" t="inlineStr"/>
+      <c r="AL792" t="inlineStr"/>
+      <c r="AM792" t="inlineStr"/>
     </row>
     <row r="793">
       <c r="A793" t="n">
@@ -45097,6 +47713,9 @@
       <c r="AH793" t="inlineStr"/>
       <c r="AI793" t="inlineStr"/>
       <c r="AJ793" t="inlineStr"/>
+      <c r="AK793" t="inlineStr"/>
+      <c r="AL793" t="inlineStr"/>
+      <c r="AM793" t="inlineStr"/>
     </row>
     <row r="794">
       <c r="A794" t="n">
@@ -45157,6 +47776,9 @@
       <c r="AH794" t="inlineStr"/>
       <c r="AI794" t="inlineStr"/>
       <c r="AJ794" t="inlineStr"/>
+      <c r="AK794" t="inlineStr"/>
+      <c r="AL794" t="inlineStr"/>
+      <c r="AM794" t="inlineStr"/>
     </row>
     <row r="795">
       <c r="A795" t="n">
@@ -45217,6 +47839,9 @@
       <c r="AH795" t="inlineStr"/>
       <c r="AI795" t="inlineStr"/>
       <c r="AJ795" t="inlineStr"/>
+      <c r="AK795" t="inlineStr"/>
+      <c r="AL795" t="inlineStr"/>
+      <c r="AM795" t="inlineStr"/>
     </row>
     <row r="796">
       <c r="A796" t="n">
@@ -45277,6 +47902,9 @@
       <c r="AH796" t="inlineStr"/>
       <c r="AI796" t="inlineStr"/>
       <c r="AJ796" t="inlineStr"/>
+      <c r="AK796" t="inlineStr"/>
+      <c r="AL796" t="inlineStr"/>
+      <c r="AM796" t="inlineStr"/>
     </row>
     <row r="797">
       <c r="A797" t="n">
@@ -45337,6 +47965,9 @@
       <c r="AH797" t="inlineStr"/>
       <c r="AI797" t="inlineStr"/>
       <c r="AJ797" t="inlineStr"/>
+      <c r="AK797" t="inlineStr"/>
+      <c r="AL797" t="inlineStr"/>
+      <c r="AM797" t="inlineStr"/>
     </row>
     <row r="798">
       <c r="A798" t="n">
@@ -45397,6 +48028,9 @@
       <c r="AH798" t="inlineStr"/>
       <c r="AI798" t="inlineStr"/>
       <c r="AJ798" t="inlineStr"/>
+      <c r="AK798" t="inlineStr"/>
+      <c r="AL798" t="inlineStr"/>
+      <c r="AM798" t="inlineStr"/>
     </row>
     <row r="799">
       <c r="A799" t="n">
@@ -45457,6 +48091,9 @@
       <c r="AH799" t="inlineStr"/>
       <c r="AI799" t="inlineStr"/>
       <c r="AJ799" t="inlineStr"/>
+      <c r="AK799" t="inlineStr"/>
+      <c r="AL799" t="inlineStr"/>
+      <c r="AM799" t="inlineStr"/>
     </row>
     <row r="800">
       <c r="A800" t="n">
@@ -45517,6 +48154,9 @@
       <c r="AH800" t="inlineStr"/>
       <c r="AI800" t="inlineStr"/>
       <c r="AJ800" t="inlineStr"/>
+      <c r="AK800" t="inlineStr"/>
+      <c r="AL800" t="inlineStr"/>
+      <c r="AM800" t="inlineStr"/>
     </row>
     <row r="801">
       <c r="A801" t="n">
@@ -45577,6 +48217,9 @@
       <c r="AH801" t="inlineStr"/>
       <c r="AI801" t="inlineStr"/>
       <c r="AJ801" t="inlineStr"/>
+      <c r="AK801" t="inlineStr"/>
+      <c r="AL801" t="inlineStr"/>
+      <c r="AM801" t="inlineStr"/>
     </row>
     <row r="802">
       <c r="A802" t="n">
@@ -45637,6 +48280,9 @@
       <c r="AH802" t="inlineStr"/>
       <c r="AI802" t="inlineStr"/>
       <c r="AJ802" t="inlineStr"/>
+      <c r="AK802" t="inlineStr"/>
+      <c r="AL802" t="inlineStr"/>
+      <c r="AM802" t="inlineStr"/>
     </row>
     <row r="803">
       <c r="A803" t="n">
@@ -45697,6 +48343,9 @@
       <c r="AH803" t="inlineStr"/>
       <c r="AI803" t="inlineStr"/>
       <c r="AJ803" t="inlineStr"/>
+      <c r="AK803" t="inlineStr"/>
+      <c r="AL803" t="inlineStr"/>
+      <c r="AM803" t="inlineStr"/>
     </row>
     <row r="804">
       <c r="A804" t="n">
@@ -45757,6 +48406,9 @@
       <c r="AH804" t="inlineStr"/>
       <c r="AI804" t="inlineStr"/>
       <c r="AJ804" t="inlineStr"/>
+      <c r="AK804" t="inlineStr"/>
+      <c r="AL804" t="inlineStr"/>
+      <c r="AM804" t="inlineStr"/>
     </row>
     <row r="805">
       <c r="A805" t="n">
@@ -45817,6 +48469,9 @@
       <c r="AH805" t="inlineStr"/>
       <c r="AI805" t="inlineStr"/>
       <c r="AJ805" t="inlineStr"/>
+      <c r="AK805" t="inlineStr"/>
+      <c r="AL805" t="inlineStr"/>
+      <c r="AM805" t="inlineStr"/>
     </row>
     <row r="806">
       <c r="A806" t="n">
@@ -45877,6 +48532,9 @@
       <c r="AH806" t="inlineStr"/>
       <c r="AI806" t="inlineStr"/>
       <c r="AJ806" t="inlineStr"/>
+      <c r="AK806" t="inlineStr"/>
+      <c r="AL806" t="inlineStr"/>
+      <c r="AM806" t="inlineStr"/>
     </row>
     <row r="807">
       <c r="A807" t="n">
@@ -45937,6 +48595,9 @@
       <c r="AH807" t="inlineStr"/>
       <c r="AI807" t="inlineStr"/>
       <c r="AJ807" t="inlineStr"/>
+      <c r="AK807" t="inlineStr"/>
+      <c r="AL807" t="inlineStr"/>
+      <c r="AM807" t="inlineStr"/>
     </row>
     <row r="808">
       <c r="A808" t="n">
@@ -45997,6 +48658,9 @@
       <c r="AH808" t="inlineStr"/>
       <c r="AI808" t="inlineStr"/>
       <c r="AJ808" t="inlineStr"/>
+      <c r="AK808" t="inlineStr"/>
+      <c r="AL808" t="inlineStr"/>
+      <c r="AM808" t="inlineStr"/>
     </row>
     <row r="809">
       <c r="A809" t="n">
@@ -46057,6 +48721,9 @@
       <c r="AH809" t="inlineStr"/>
       <c r="AI809" t="inlineStr"/>
       <c r="AJ809" t="inlineStr"/>
+      <c r="AK809" t="inlineStr"/>
+      <c r="AL809" t="inlineStr"/>
+      <c r="AM809" t="inlineStr"/>
     </row>
     <row r="810">
       <c r="A810" t="n">
@@ -46117,6 +48784,9 @@
       <c r="AH810" t="inlineStr"/>
       <c r="AI810" t="inlineStr"/>
       <c r="AJ810" t="inlineStr"/>
+      <c r="AK810" t="inlineStr"/>
+      <c r="AL810" t="inlineStr"/>
+      <c r="AM810" t="inlineStr"/>
     </row>
     <row r="811">
       <c r="A811" t="n">
@@ -46177,6 +48847,9 @@
       <c r="AH811" t="inlineStr"/>
       <c r="AI811" t="inlineStr"/>
       <c r="AJ811" t="inlineStr"/>
+      <c r="AK811" t="inlineStr"/>
+      <c r="AL811" t="inlineStr"/>
+      <c r="AM811" t="inlineStr"/>
     </row>
     <row r="812">
       <c r="A812" t="n">
@@ -46237,6 +48910,9 @@
       <c r="AH812" t="inlineStr"/>
       <c r="AI812" t="inlineStr"/>
       <c r="AJ812" t="inlineStr"/>
+      <c r="AK812" t="inlineStr"/>
+      <c r="AL812" t="inlineStr"/>
+      <c r="AM812" t="inlineStr"/>
     </row>
     <row r="813">
       <c r="A813" t="n">
@@ -46297,6 +48973,9 @@
       <c r="AH813" t="inlineStr"/>
       <c r="AI813" t="inlineStr"/>
       <c r="AJ813" t="inlineStr"/>
+      <c r="AK813" t="inlineStr"/>
+      <c r="AL813" t="inlineStr"/>
+      <c r="AM813" t="inlineStr"/>
     </row>
     <row r="814">
       <c r="A814" t="n">
@@ -46357,6 +49036,9 @@
       <c r="AH814" t="inlineStr"/>
       <c r="AI814" t="inlineStr"/>
       <c r="AJ814" t="inlineStr"/>
+      <c r="AK814" t="inlineStr"/>
+      <c r="AL814" t="inlineStr"/>
+      <c r="AM814" t="inlineStr"/>
     </row>
     <row r="815">
       <c r="A815" t="n">
@@ -46417,6 +49099,9 @@
       <c r="AH815" t="inlineStr"/>
       <c r="AI815" t="inlineStr"/>
       <c r="AJ815" t="inlineStr"/>
+      <c r="AK815" t="inlineStr"/>
+      <c r="AL815" t="inlineStr"/>
+      <c r="AM815" t="inlineStr"/>
     </row>
     <row r="816">
       <c r="A816" t="n">
@@ -46477,6 +49162,9 @@
       <c r="AH816" t="inlineStr"/>
       <c r="AI816" t="inlineStr"/>
       <c r="AJ816" t="inlineStr"/>
+      <c r="AK816" t="inlineStr"/>
+      <c r="AL816" t="inlineStr"/>
+      <c r="AM816" t="inlineStr"/>
     </row>
     <row r="817">
       <c r="A817" t="n">
@@ -46537,6 +49225,9 @@
       <c r="AH817" t="inlineStr"/>
       <c r="AI817" t="inlineStr"/>
       <c r="AJ817" t="inlineStr"/>
+      <c r="AK817" t="inlineStr"/>
+      <c r="AL817" t="inlineStr"/>
+      <c r="AM817" t="inlineStr"/>
     </row>
     <row r="818">
       <c r="A818" t="n">
@@ -46597,6 +49288,9 @@
       <c r="AH818" t="inlineStr"/>
       <c r="AI818" t="inlineStr"/>
       <c r="AJ818" t="inlineStr"/>
+      <c r="AK818" t="inlineStr"/>
+      <c r="AL818" t="inlineStr"/>
+      <c r="AM818" t="inlineStr"/>
     </row>
     <row r="819">
       <c r="A819" t="n">
@@ -46657,6 +49351,9 @@
       <c r="AH819" t="inlineStr"/>
       <c r="AI819" t="inlineStr"/>
       <c r="AJ819" t="inlineStr"/>
+      <c r="AK819" t="inlineStr"/>
+      <c r="AL819" t="inlineStr"/>
+      <c r="AM819" t="inlineStr"/>
     </row>
     <row r="820">
       <c r="A820" t="n">
@@ -46717,6 +49414,9 @@
       <c r="AH820" t="inlineStr"/>
       <c r="AI820" t="inlineStr"/>
       <c r="AJ820" t="inlineStr"/>
+      <c r="AK820" t="inlineStr"/>
+      <c r="AL820" t="inlineStr"/>
+      <c r="AM820" t="inlineStr"/>
     </row>
     <row r="821">
       <c r="A821" t="n">
@@ -46777,6 +49477,9 @@
       <c r="AH821" t="inlineStr"/>
       <c r="AI821" t="inlineStr"/>
       <c r="AJ821" t="inlineStr"/>
+      <c r="AK821" t="inlineStr"/>
+      <c r="AL821" t="inlineStr"/>
+      <c r="AM821" t="inlineStr"/>
     </row>
     <row r="822">
       <c r="A822" t="n">
@@ -46837,6 +49540,9 @@
       <c r="AH822" t="inlineStr"/>
       <c r="AI822" t="inlineStr"/>
       <c r="AJ822" t="inlineStr"/>
+      <c r="AK822" t="inlineStr"/>
+      <c r="AL822" t="inlineStr"/>
+      <c r="AM822" t="inlineStr"/>
     </row>
     <row r="823">
       <c r="A823" t="n">
@@ -46897,6 +49603,9 @@
       <c r="AH823" t="inlineStr"/>
       <c r="AI823" t="inlineStr"/>
       <c r="AJ823" t="inlineStr"/>
+      <c r="AK823" t="inlineStr"/>
+      <c r="AL823" t="inlineStr"/>
+      <c r="AM823" t="inlineStr"/>
     </row>
     <row r="824">
       <c r="A824" t="n">
@@ -46957,6 +49666,9 @@
       <c r="AH824" t="inlineStr"/>
       <c r="AI824" t="inlineStr"/>
       <c r="AJ824" t="inlineStr"/>
+      <c r="AK824" t="inlineStr"/>
+      <c r="AL824" t="inlineStr"/>
+      <c r="AM824" t="inlineStr"/>
     </row>
     <row r="825">
       <c r="A825" t="n">
@@ -47017,6 +49729,9 @@
       <c r="AH825" t="inlineStr"/>
       <c r="AI825" t="inlineStr"/>
       <c r="AJ825" t="inlineStr"/>
+      <c r="AK825" t="inlineStr"/>
+      <c r="AL825" t="inlineStr"/>
+      <c r="AM825" t="inlineStr"/>
     </row>
     <row r="826">
       <c r="A826" t="n">
@@ -47077,6 +49792,9 @@
       <c r="AH826" t="inlineStr"/>
       <c r="AI826" t="inlineStr"/>
       <c r="AJ826" t="inlineStr"/>
+      <c r="AK826" t="inlineStr"/>
+      <c r="AL826" t="inlineStr"/>
+      <c r="AM826" t="inlineStr"/>
     </row>
     <row r="827">
       <c r="A827" t="n">
@@ -47137,6 +49855,9 @@
       <c r="AH827" t="inlineStr"/>
       <c r="AI827" t="inlineStr"/>
       <c r="AJ827" t="inlineStr"/>
+      <c r="AK827" t="inlineStr"/>
+      <c r="AL827" t="inlineStr"/>
+      <c r="AM827" t="inlineStr"/>
     </row>
     <row r="828">
       <c r="A828" t="n">
@@ -47187,6 +49908,9 @@
       <c r="AH828" t="inlineStr"/>
       <c r="AI828" t="inlineStr"/>
       <c r="AJ828" t="inlineStr"/>
+      <c r="AK828" t="inlineStr"/>
+      <c r="AL828" t="inlineStr"/>
+      <c r="AM828" t="inlineStr"/>
     </row>
     <row r="829">
       <c r="A829" t="n">
@@ -47237,6 +49961,9 @@
       <c r="AH829" t="inlineStr"/>
       <c r="AI829" t="inlineStr"/>
       <c r="AJ829" t="inlineStr"/>
+      <c r="AK829" t="inlineStr"/>
+      <c r="AL829" t="inlineStr"/>
+      <c r="AM829" t="inlineStr"/>
     </row>
     <row r="830">
       <c r="A830" t="n">
@@ -47287,6 +50014,9 @@
       <c r="AH830" t="inlineStr"/>
       <c r="AI830" t="inlineStr"/>
       <c r="AJ830" t="inlineStr"/>
+      <c r="AK830" t="inlineStr"/>
+      <c r="AL830" t="inlineStr"/>
+      <c r="AM830" t="inlineStr"/>
     </row>
     <row r="831">
       <c r="A831" t="n">
@@ -47337,6 +50067,9 @@
       <c r="AH831" t="inlineStr"/>
       <c r="AI831" t="inlineStr"/>
       <c r="AJ831" t="inlineStr"/>
+      <c r="AK831" t="inlineStr"/>
+      <c r="AL831" t="inlineStr"/>
+      <c r="AM831" t="inlineStr"/>
     </row>
     <row r="832">
       <c r="A832" t="n">
@@ -47387,6 +50120,9 @@
       <c r="AH832" t="inlineStr"/>
       <c r="AI832" t="inlineStr"/>
       <c r="AJ832" t="inlineStr"/>
+      <c r="AK832" t="inlineStr"/>
+      <c r="AL832" t="inlineStr"/>
+      <c r="AM832" t="inlineStr"/>
     </row>
     <row r="833">
       <c r="A833" t="n">
@@ -47437,6 +50173,9 @@
       <c r="AH833" t="inlineStr"/>
       <c r="AI833" t="inlineStr"/>
       <c r="AJ833" t="inlineStr"/>
+      <c r="AK833" t="inlineStr"/>
+      <c r="AL833" t="inlineStr"/>
+      <c r="AM833" t="inlineStr"/>
     </row>
     <row r="834">
       <c r="A834" t="n">
@@ -47487,6 +50226,9 @@
       <c r="AH834" t="inlineStr"/>
       <c r="AI834" t="inlineStr"/>
       <c r="AJ834" t="inlineStr"/>
+      <c r="AK834" t="inlineStr"/>
+      <c r="AL834" t="inlineStr"/>
+      <c r="AM834" t="inlineStr"/>
     </row>
     <row r="835">
       <c r="A835" t="n">
@@ -47537,6 +50279,9 @@
       <c r="AH835" t="inlineStr"/>
       <c r="AI835" t="inlineStr"/>
       <c r="AJ835" t="inlineStr"/>
+      <c r="AK835" t="inlineStr"/>
+      <c r="AL835" t="inlineStr"/>
+      <c r="AM835" t="inlineStr"/>
     </row>
     <row r="836">
       <c r="A836" t="n">
@@ -47587,6 +50332,9 @@
       <c r="AH836" t="inlineStr"/>
       <c r="AI836" t="inlineStr"/>
       <c r="AJ836" t="inlineStr"/>
+      <c r="AK836" t="inlineStr"/>
+      <c r="AL836" t="inlineStr"/>
+      <c r="AM836" t="inlineStr"/>
     </row>
     <row r="837">
       <c r="A837" t="n">
@@ -47637,6 +50385,9 @@
       <c r="AH837" t="inlineStr"/>
       <c r="AI837" t="inlineStr"/>
       <c r="AJ837" t="inlineStr"/>
+      <c r="AK837" t="inlineStr"/>
+      <c r="AL837" t="inlineStr"/>
+      <c r="AM837" t="inlineStr"/>
     </row>
     <row r="838">
       <c r="A838" t="n">
@@ -47687,6 +50438,9 @@
       <c r="AH838" t="inlineStr"/>
       <c r="AI838" t="inlineStr"/>
       <c r="AJ838" t="inlineStr"/>
+      <c r="AK838" t="inlineStr"/>
+      <c r="AL838" t="inlineStr"/>
+      <c r="AM838" t="inlineStr"/>
     </row>
     <row r="839">
       <c r="A839" t="n">
@@ -47737,6 +50491,9 @@
       <c r="AH839" t="inlineStr"/>
       <c r="AI839" t="inlineStr"/>
       <c r="AJ839" t="inlineStr"/>
+      <c r="AK839" t="inlineStr"/>
+      <c r="AL839" t="inlineStr"/>
+      <c r="AM839" t="inlineStr"/>
     </row>
     <row r="840">
       <c r="A840" t="n">
@@ -47787,6 +50544,9 @@
       <c r="AH840" t="inlineStr"/>
       <c r="AI840" t="inlineStr"/>
       <c r="AJ840" t="inlineStr"/>
+      <c r="AK840" t="inlineStr"/>
+      <c r="AL840" t="inlineStr"/>
+      <c r="AM840" t="inlineStr"/>
     </row>
     <row r="841">
       <c r="A841" t="n">
@@ -47837,6 +50597,9 @@
       <c r="AH841" t="inlineStr"/>
       <c r="AI841" t="inlineStr"/>
       <c r="AJ841" t="inlineStr"/>
+      <c r="AK841" t="inlineStr"/>
+      <c r="AL841" t="inlineStr"/>
+      <c r="AM841" t="inlineStr"/>
     </row>
     <row r="842">
       <c r="A842" t="n">
@@ -47889,15 +50652,19 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W842" t="inlineStr"/>
+      <c r="W842" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="X842" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y842" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z842" t="inlineStr"/>
@@ -47911,6 +50678,9 @@
       <c r="AH842" t="inlineStr"/>
       <c r="AI842" t="inlineStr"/>
       <c r="AJ842" t="inlineStr"/>
+      <c r="AK842" t="inlineStr"/>
+      <c r="AL842" t="inlineStr"/>
+      <c r="AM842" t="inlineStr"/>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr"/>
@@ -47949,6 +50719,9 @@
       <c r="AH843" t="inlineStr"/>
       <c r="AI843" t="inlineStr"/>
       <c r="AJ843" t="inlineStr"/>
+      <c r="AK843" t="inlineStr"/>
+      <c r="AL843" t="inlineStr"/>
+      <c r="AM843" t="inlineStr"/>
     </row>
     <row r="844">
       <c r="A844" t="n">
@@ -48003,6 +50776,9 @@
       <c r="AH844" t="inlineStr"/>
       <c r="AI844" t="inlineStr"/>
       <c r="AJ844" t="inlineStr"/>
+      <c r="AK844" t="inlineStr"/>
+      <c r="AL844" t="inlineStr"/>
+      <c r="AM844" t="inlineStr"/>
     </row>
     <row r="845">
       <c r="A845" t="n">
@@ -48057,6 +50833,9 @@
       <c r="AH845" t="inlineStr"/>
       <c r="AI845" t="inlineStr"/>
       <c r="AJ845" t="inlineStr"/>
+      <c r="AK845" t="inlineStr"/>
+      <c r="AL845" t="inlineStr"/>
+      <c r="AM845" t="inlineStr"/>
     </row>
     <row r="846">
       <c r="A846" t="n">
@@ -48111,6 +50890,9 @@
       <c r="AH846" t="inlineStr"/>
       <c r="AI846" t="inlineStr"/>
       <c r="AJ846" t="inlineStr"/>
+      <c r="AK846" t="inlineStr"/>
+      <c r="AL846" t="inlineStr"/>
+      <c r="AM846" t="inlineStr"/>
     </row>
     <row r="847">
       <c r="A847" t="n">
@@ -48165,6 +50947,9 @@
       <c r="AH847" t="inlineStr"/>
       <c r="AI847" t="inlineStr"/>
       <c r="AJ847" t="inlineStr"/>
+      <c r="AK847" t="inlineStr"/>
+      <c r="AL847" t="inlineStr"/>
+      <c r="AM847" t="inlineStr"/>
     </row>
     <row r="848">
       <c r="A848" t="n">
@@ -48225,6 +51010,9 @@
       <c r="AH848" t="inlineStr"/>
       <c r="AI848" t="inlineStr"/>
       <c r="AJ848" t="inlineStr"/>
+      <c r="AK848" t="inlineStr"/>
+      <c r="AL848" t="inlineStr"/>
+      <c r="AM848" t="inlineStr"/>
     </row>
     <row r="849">
       <c r="A849" t="n">
@@ -48285,6 +51073,9 @@
       <c r="AH849" t="inlineStr"/>
       <c r="AI849" t="inlineStr"/>
       <c r="AJ849" t="inlineStr"/>
+      <c r="AK849" t="inlineStr"/>
+      <c r="AL849" t="inlineStr"/>
+      <c r="AM849" t="inlineStr"/>
     </row>
     <row r="850">
       <c r="A850" t="n">
@@ -48345,6 +51136,9 @@
       <c r="AH850" t="inlineStr"/>
       <c r="AI850" t="inlineStr"/>
       <c r="AJ850" t="inlineStr"/>
+      <c r="AK850" t="inlineStr"/>
+      <c r="AL850" t="inlineStr"/>
+      <c r="AM850" t="inlineStr"/>
     </row>
     <row r="851">
       <c r="A851" t="n">
@@ -48401,6 +51195,9 @@
       <c r="AH851" t="inlineStr"/>
       <c r="AI851" t="inlineStr"/>
       <c r="AJ851" t="inlineStr"/>
+      <c r="AK851" t="inlineStr"/>
+      <c r="AL851" t="inlineStr"/>
+      <c r="AM851" t="inlineStr"/>
     </row>
     <row r="852">
       <c r="A852" t="n">
@@ -48451,6 +51248,9 @@
       <c r="AH852" t="inlineStr"/>
       <c r="AI852" t="inlineStr"/>
       <c r="AJ852" t="inlineStr"/>
+      <c r="AK852" t="inlineStr"/>
+      <c r="AL852" t="inlineStr"/>
+      <c r="AM852" t="inlineStr"/>
     </row>
     <row r="853">
       <c r="A853" t="n">
@@ -48501,6 +51301,9 @@
       <c r="AH853" t="inlineStr"/>
       <c r="AI853" t="inlineStr"/>
       <c r="AJ853" t="inlineStr"/>
+      <c r="AK853" t="inlineStr"/>
+      <c r="AL853" t="inlineStr"/>
+      <c r="AM853" t="inlineStr"/>
     </row>
     <row r="854">
       <c r="A854" t="n">
@@ -48553,10 +51356,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W854" t="inlineStr"/>
+      <c r="W854" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="X854" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y854" t="inlineStr">
@@ -48575,6 +51382,9 @@
       <c r="AH854" t="inlineStr"/>
       <c r="AI854" t="inlineStr"/>
       <c r="AJ854" t="inlineStr"/>
+      <c r="AK854" t="inlineStr"/>
+      <c r="AL854" t="inlineStr"/>
+      <c r="AM854" t="inlineStr"/>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr"/>
@@ -48613,6 +51423,9 @@
       <c r="AH855" t="inlineStr"/>
       <c r="AI855" t="inlineStr"/>
       <c r="AJ855" t="inlineStr"/>
+      <c r="AK855" t="inlineStr"/>
+      <c r="AL855" t="inlineStr"/>
+      <c r="AM855" t="inlineStr"/>
     </row>
     <row r="856">
       <c r="A856" t="n">
@@ -48667,6 +51480,9 @@
       <c r="AH856" t="inlineStr"/>
       <c r="AI856" t="inlineStr"/>
       <c r="AJ856" t="inlineStr"/>
+      <c r="AK856" t="inlineStr"/>
+      <c r="AL856" t="inlineStr"/>
+      <c r="AM856" t="inlineStr"/>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr"/>
@@ -48705,6 +51521,9 @@
       <c r="AH857" t="inlineStr"/>
       <c r="AI857" t="inlineStr"/>
       <c r="AJ857" t="inlineStr"/>
+      <c r="AK857" t="inlineStr"/>
+      <c r="AL857" t="inlineStr"/>
+      <c r="AM857" t="inlineStr"/>
     </row>
     <row r="858">
       <c r="A858" t="n">
@@ -48759,6 +51578,9 @@
       <c r="AH858" t="inlineStr"/>
       <c r="AI858" t="inlineStr"/>
       <c r="AJ858" t="inlineStr"/>
+      <c r="AK858" t="inlineStr"/>
+      <c r="AL858" t="inlineStr"/>
+      <c r="AM858" t="inlineStr"/>
     </row>
     <row r="859">
       <c r="A859" t="n">
@@ -48813,6 +51635,9 @@
       <c r="AH859" t="inlineStr"/>
       <c r="AI859" t="inlineStr"/>
       <c r="AJ859" t="inlineStr"/>
+      <c r="AK859" t="inlineStr"/>
+      <c r="AL859" t="inlineStr"/>
+      <c r="AM859" t="inlineStr"/>
     </row>
     <row r="860">
       <c r="A860" t="n">
@@ -48867,6 +51692,9 @@
       <c r="AH860" t="inlineStr"/>
       <c r="AI860" t="inlineStr"/>
       <c r="AJ860" t="inlineStr"/>
+      <c r="AK860" t="inlineStr"/>
+      <c r="AL860" t="inlineStr"/>
+      <c r="AM860" t="inlineStr"/>
     </row>
     <row r="861">
       <c r="A861" t="n">
@@ -48921,6 +51749,9 @@
       <c r="AH861" t="inlineStr"/>
       <c r="AI861" t="inlineStr"/>
       <c r="AJ861" t="inlineStr"/>
+      <c r="AK861" t="inlineStr"/>
+      <c r="AL861" t="inlineStr"/>
+      <c r="AM861" t="inlineStr"/>
     </row>
     <row r="862">
       <c r="A862" t="n">
@@ -48975,6 +51806,9 @@
       <c r="AH862" t="inlineStr"/>
       <c r="AI862" t="inlineStr"/>
       <c r="AJ862" t="inlineStr"/>
+      <c r="AK862" t="inlineStr"/>
+      <c r="AL862" t="inlineStr"/>
+      <c r="AM862" t="inlineStr"/>
     </row>
     <row r="863">
       <c r="A863" t="n">
@@ -49027,15 +51861,19 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W863" t="inlineStr"/>
+      <c r="W863" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="X863" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y863" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z863" t="inlineStr"/>
@@ -49049,6 +51887,9 @@
       <c r="AH863" t="inlineStr"/>
       <c r="AI863" t="inlineStr"/>
       <c r="AJ863" t="inlineStr"/>
+      <c r="AK863" t="inlineStr"/>
+      <c r="AL863" t="inlineStr"/>
+      <c r="AM863" t="inlineStr"/>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr"/>
@@ -49087,6 +51928,9 @@
       <c r="AH864" t="inlineStr"/>
       <c r="AI864" t="inlineStr"/>
       <c r="AJ864" t="inlineStr"/>
+      <c r="AK864" t="inlineStr"/>
+      <c r="AL864" t="inlineStr"/>
+      <c r="AM864" t="inlineStr"/>
     </row>
     <row r="865">
       <c r="A865" t="n">
@@ -49141,6 +51985,9 @@
       <c r="AH865" t="inlineStr"/>
       <c r="AI865" t="inlineStr"/>
       <c r="AJ865" t="inlineStr"/>
+      <c r="AK865" t="inlineStr"/>
+      <c r="AL865" t="inlineStr"/>
+      <c r="AM865" t="inlineStr"/>
     </row>
     <row r="866">
       <c r="A866" t="n">
@@ -49195,6 +52042,9 @@
       <c r="AH866" t="inlineStr"/>
       <c r="AI866" t="inlineStr"/>
       <c r="AJ866" t="inlineStr"/>
+      <c r="AK866" t="inlineStr"/>
+      <c r="AL866" t="inlineStr"/>
+      <c r="AM866" t="inlineStr"/>
     </row>
     <row r="867">
       <c r="A867" t="n">
@@ -49247,15 +52097,19 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W867" t="inlineStr"/>
+      <c r="W867" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="X867" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="Y867" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z867" t="inlineStr"/>
@@ -49269,6 +52123,9 @@
       <c r="AH867" t="inlineStr"/>
       <c r="AI867" t="inlineStr"/>
       <c r="AJ867" t="inlineStr"/>
+      <c r="AK867" t="inlineStr"/>
+      <c r="AL867" t="inlineStr"/>
+      <c r="AM867" t="inlineStr"/>
     </row>
     <row r="868">
       <c r="A868" t="n">
@@ -49321,32 +52178,47 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W868" t="inlineStr"/>
+      <c r="W868" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="X868" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="Y868" t="inlineStr">
         <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="Z868" t="inlineStr">
-        <is>
-          <t>['ID: 1-2', 'ID: 2-7', 'ID: 3-0']</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z868" t="inlineStr"/>
       <c r="AA868" t="inlineStr"/>
       <c r="AB868" t="inlineStr"/>
-      <c r="AC868" t="inlineStr"/>
-      <c r="AD868" t="inlineStr"/>
-      <c r="AE868" t="inlineStr"/>
+      <c r="AC868" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AD868" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AE868" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AF868" t="inlineStr"/>
       <c r="AG868" t="inlineStr"/>
       <c r="AH868" t="inlineStr"/>
       <c r="AI868" t="inlineStr"/>
       <c r="AJ868" t="inlineStr"/>
+      <c r="AK868" t="inlineStr"/>
+      <c r="AL868" t="inlineStr"/>
+      <c r="AM868" t="inlineStr"/>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr"/>
@@ -49385,6 +52257,9 @@
       <c r="AH869" t="inlineStr"/>
       <c r="AI869" t="inlineStr"/>
       <c r="AJ869" t="inlineStr"/>
+      <c r="AK869" t="inlineStr"/>
+      <c r="AL869" t="inlineStr"/>
+      <c r="AM869" t="inlineStr"/>
     </row>
     <row r="870">
       <c r="A870" t="n">
@@ -49439,6 +52314,9 @@
       <c r="AH870" t="inlineStr"/>
       <c r="AI870" t="inlineStr"/>
       <c r="AJ870" t="inlineStr"/>
+      <c r="AK870" t="inlineStr"/>
+      <c r="AL870" t="inlineStr"/>
+      <c r="AM870" t="inlineStr"/>
     </row>
     <row r="871">
       <c r="A871" t="n">
@@ -49493,6 +52371,9 @@
       <c r="AH871" t="inlineStr"/>
       <c r="AI871" t="inlineStr"/>
       <c r="AJ871" t="inlineStr"/>
+      <c r="AK871" t="inlineStr"/>
+      <c r="AL871" t="inlineStr"/>
+      <c r="AM871" t="inlineStr"/>
     </row>
     <row r="872">
       <c r="A872" t="n">
@@ -49547,6 +52428,9 @@
       <c r="AH872" t="inlineStr"/>
       <c r="AI872" t="inlineStr"/>
       <c r="AJ872" t="inlineStr"/>
+      <c r="AK872" t="inlineStr"/>
+      <c r="AL872" t="inlineStr"/>
+      <c r="AM872" t="inlineStr"/>
     </row>
     <row r="873">
       <c r="A873" t="n">
@@ -49597,6 +52481,9 @@
       <c r="AH873" t="inlineStr"/>
       <c r="AI873" t="inlineStr"/>
       <c r="AJ873" t="inlineStr"/>
+      <c r="AK873" t="inlineStr"/>
+      <c r="AL873" t="inlineStr"/>
+      <c r="AM873" t="inlineStr"/>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr"/>
@@ -49635,6 +52522,9 @@
       <c r="AH874" t="inlineStr"/>
       <c r="AI874" t="inlineStr"/>
       <c r="AJ874" t="inlineStr"/>
+      <c r="AK874" t="inlineStr"/>
+      <c r="AL874" t="inlineStr"/>
+      <c r="AM874" t="inlineStr"/>
     </row>
     <row r="875">
       <c r="A875" t="n">
@@ -49689,6 +52579,9 @@
       <c r="AH875" t="inlineStr"/>
       <c r="AI875" t="inlineStr"/>
       <c r="AJ875" t="inlineStr"/>
+      <c r="AK875" t="inlineStr"/>
+      <c r="AL875" t="inlineStr"/>
+      <c r="AM875" t="inlineStr"/>
     </row>
     <row r="876">
       <c r="A876" t="n">
@@ -49743,6 +52636,9 @@
       <c r="AH876" t="inlineStr"/>
       <c r="AI876" t="inlineStr"/>
       <c r="AJ876" t="inlineStr"/>
+      <c r="AK876" t="inlineStr"/>
+      <c r="AL876" t="inlineStr"/>
+      <c r="AM876" t="inlineStr"/>
     </row>
     <row r="877">
       <c r="A877" t="n">
@@ -49795,15 +52691,19 @@
           <t>2</t>
         </is>
       </c>
-      <c r="W877" t="inlineStr"/>
+      <c r="W877" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="X877" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y877" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="Y877" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="Z877" t="inlineStr"/>
@@ -49817,6 +52717,9 @@
       <c r="AH877" t="inlineStr"/>
       <c r="AI877" t="inlineStr"/>
       <c r="AJ877" t="inlineStr"/>
+      <c r="AK877" t="inlineStr"/>
+      <c r="AL877" t="inlineStr"/>
+      <c r="AM877" t="inlineStr"/>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr"/>
@@ -49855,6 +52758,9 @@
       <c r="AH878" t="inlineStr"/>
       <c r="AI878" t="inlineStr"/>
       <c r="AJ878" t="inlineStr"/>
+      <c r="AK878" t="inlineStr"/>
+      <c r="AL878" t="inlineStr"/>
+      <c r="AM878" t="inlineStr"/>
     </row>
     <row r="879">
       <c r="A879" t="n">
@@ -49909,6 +52815,9 @@
       <c r="AH879" t="inlineStr"/>
       <c r="AI879" t="inlineStr"/>
       <c r="AJ879" t="inlineStr"/>
+      <c r="AK879" t="inlineStr"/>
+      <c r="AL879" t="inlineStr"/>
+      <c r="AM879" t="inlineStr"/>
     </row>
     <row r="880">
       <c r="A880" t="n">
@@ -49963,6 +52872,9 @@
       <c r="AH880" t="inlineStr"/>
       <c r="AI880" t="inlineStr"/>
       <c r="AJ880" t="inlineStr"/>
+      <c r="AK880" t="inlineStr"/>
+      <c r="AL880" t="inlineStr"/>
+      <c r="AM880" t="inlineStr"/>
     </row>
     <row r="881">
       <c r="A881" t="n">
@@ -50015,7 +52927,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="W881" t="inlineStr"/>
+      <c r="W881" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="X881" t="inlineStr">
         <is>
           <t>0</t>
@@ -50023,7 +52939,7 @@
       </c>
       <c r="Y881" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z881" t="inlineStr"/>
@@ -50037,6 +52953,9 @@
       <c r="AH881" t="inlineStr"/>
       <c r="AI881" t="inlineStr"/>
       <c r="AJ881" t="inlineStr"/>
+      <c r="AK881" t="inlineStr"/>
+      <c r="AL881" t="inlineStr"/>
+      <c r="AM881" t="inlineStr"/>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr"/>
@@ -50075,6 +52994,9 @@
       <c r="AH882" t="inlineStr"/>
       <c r="AI882" t="inlineStr"/>
       <c r="AJ882" t="inlineStr"/>
+      <c r="AK882" t="inlineStr"/>
+      <c r="AL882" t="inlineStr"/>
+      <c r="AM882" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
